--- a/name/vnindex/20221229/VNINDEX_HOSE_5p_20221229.xlsx
+++ b/name/vnindex/20221229/VNINDEX_HOSE_5p_20221229.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,7 +454,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1672304100000</v>
+        <v>1672304280000</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>15980000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-29T08:55:00.000Z</v>
+        <v>2022-12-29T08:58:00.000Z</v>
       </c>
       <c r="K2">
         <v>15980000</v>
@@ -507,2754 +507,6504 @@
         <v>1672304400000</v>
       </c>
       <c r="B3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>12700</v>
+        <v>1800</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3">
-        <v>112240000</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>154820000</v>
+        <v>21330000</v>
       </c>
       <c r="G3">
         <v>11900000</v>
       </c>
       <c r="H3">
-        <v>22900</v>
+        <v>2800</v>
       </c>
       <c r="I3">
-        <v>278960000</v>
+        <v>33230000</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-29T09:00:00.000Z</v>
       </c>
       <c r="K3">
-        <v>294940000</v>
+        <v>49210000</v>
       </c>
       <c r="L3">
-        <v>24200</v>
+        <v>4100</v>
       </c>
       <c r="M3">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="N3">
-        <v>42580000</v>
+        <v>21330000</v>
       </c>
       <c r="O3">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="P3">
-        <v>55080000</v>
+        <v>33830000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1672304700000</v>
+        <v>1672304520000</v>
       </c>
       <c r="B4">
-        <v>7400</v>
+        <v>8500</v>
       </c>
       <c r="C4">
-        <v>24700</v>
+        <v>10900</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>90970000</v>
+        <v>103700000</v>
       </c>
       <c r="F4">
-        <v>306210000</v>
+        <v>133490000</v>
       </c>
       <c r="G4">
-        <v>24800000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>34100</v>
+        <v>19400</v>
       </c>
       <c r="I4">
-        <v>421980000</v>
+        <v>237190000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-29T09:05:00.000Z</v>
+        <v>2022-12-29T09:02:00.000Z</v>
       </c>
       <c r="K4">
-        <v>716920000</v>
+        <v>286400000</v>
       </c>
       <c r="L4">
-        <v>58300</v>
+        <v>23500</v>
       </c>
       <c r="M4">
-        <v>17300</v>
+        <v>2400</v>
       </c>
       <c r="N4">
-        <v>215240000</v>
+        <v>29790000</v>
       </c>
       <c r="O4">
-        <v>21800</v>
+        <v>5200</v>
       </c>
       <c r="P4">
-        <v>270320000</v>
+        <v>63620000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1672305000000</v>
+        <v>1672304640000</v>
       </c>
       <c r="B5">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="C5">
-        <v>1300</v>
+        <v>15300</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>36900000</v>
+        <v>14640000</v>
       </c>
       <c r="F5">
-        <v>15990000</v>
+        <v>189660000</v>
       </c>
       <c r="G5">
-        <v>12300000</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5300</v>
+        <v>16500</v>
       </c>
       <c r="I5">
-        <v>65190000</v>
+        <v>204300000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-29T09:10:00.000Z</v>
+        <v>2022-12-29T09:04:00.000Z</v>
       </c>
       <c r="K5">
-        <v>782110000</v>
+        <v>490700000</v>
       </c>
       <c r="L5">
-        <v>63600</v>
+        <v>40000</v>
       </c>
       <c r="M5">
-        <v>-1700</v>
+        <v>14100</v>
       </c>
       <c r="N5">
-        <v>-20910000</v>
+        <v>175020000</v>
       </c>
       <c r="O5">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="P5">
-        <v>249410000</v>
+        <v>238640000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1672305300000</v>
+        <v>1672304760000</v>
       </c>
       <c r="B6">
-        <v>4318300</v>
+        <v>1900</v>
       </c>
       <c r="C6">
-        <v>4662000</v>
+        <v>9000</v>
       </c>
       <c r="D6">
-        <v>1037800</v>
+        <v>2000</v>
       </c>
       <c r="E6">
-        <v>65391031000</v>
+        <v>23370000</v>
       </c>
       <c r="F6">
-        <v>78245360000</v>
+        <v>111560000</v>
       </c>
       <c r="G6">
-        <v>9840266000</v>
+        <v>24800000</v>
       </c>
       <c r="H6">
-        <v>10018100</v>
+        <v>12900</v>
       </c>
       <c r="I6">
-        <v>153476657000</v>
+        <v>159730000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-29T09:15:00.000Z</v>
+        <v>2022-12-29T09:06:00.000Z</v>
       </c>
       <c r="K6">
-        <v>154258767000</v>
+        <v>650430000</v>
       </c>
       <c r="L6">
-        <v>10081700</v>
+        <v>52900</v>
       </c>
       <c r="M6">
-        <v>343700</v>
+        <v>7100</v>
       </c>
       <c r="N6">
-        <v>12854329000</v>
+        <v>88190000</v>
       </c>
       <c r="O6">
-        <v>363800</v>
+        <v>26400</v>
       </c>
       <c r="P6">
-        <v>13103739000</v>
+        <v>326830000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1672305600000</v>
+        <v>1672304880000</v>
       </c>
       <c r="B7">
-        <v>3138500</v>
+        <v>5000</v>
       </c>
       <c r="C7">
-        <v>3645800</v>
+        <v>400</v>
       </c>
       <c r="D7">
-        <v>30900</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>52292866000</v>
+        <v>61500000</v>
       </c>
       <c r="F7">
-        <v>56559795000</v>
+        <v>4990000</v>
       </c>
       <c r="G7">
-        <v>532616000</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6815200</v>
+        <v>5400</v>
       </c>
       <c r="I7">
-        <v>109385277000</v>
+        <v>66490000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-29T09:20:00.000Z</v>
+        <v>2022-12-29T09:08:00.000Z</v>
       </c>
       <c r="K7">
-        <v>263644044000</v>
+        <v>716920000</v>
       </c>
       <c r="L7">
-        <v>16896900</v>
+        <v>58300</v>
       </c>
       <c r="M7">
-        <v>507300</v>
+        <v>-4600</v>
       </c>
       <c r="N7">
-        <v>4266929000</v>
+        <v>-56510000</v>
       </c>
       <c r="O7">
-        <v>871100</v>
+        <v>21800</v>
       </c>
       <c r="P7">
-        <v>17370668000</v>
+        <v>270320000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1672305900000</v>
+        <v>1672305000000</v>
       </c>
       <c r="B8">
-        <v>3061400</v>
+        <v>1800</v>
       </c>
       <c r="C8">
-        <v>7143200</v>
+        <v>300</v>
       </c>
       <c r="D8">
-        <v>23000</v>
+        <v>1000</v>
       </c>
       <c r="E8">
-        <v>48319377000</v>
+        <v>22140000</v>
       </c>
       <c r="F8">
-        <v>118223602000</v>
+        <v>3690000</v>
       </c>
       <c r="G8">
-        <v>404720000</v>
+        <v>12300000</v>
       </c>
       <c r="H8">
-        <v>10227600</v>
+        <v>3100</v>
       </c>
       <c r="I8">
-        <v>166947699000</v>
+        <v>38130000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-29T09:25:00.000Z</v>
+        <v>2022-12-29T09:10:00.000Z</v>
       </c>
       <c r="K8">
-        <v>430591743000</v>
+        <v>755050000</v>
       </c>
       <c r="L8">
-        <v>27124500</v>
+        <v>61400</v>
       </c>
       <c r="M8">
-        <v>4081800</v>
+        <v>-1500</v>
       </c>
       <c r="N8">
-        <v>69904225000</v>
+        <v>-18450000</v>
       </c>
       <c r="O8">
-        <v>4952900</v>
+        <v>20300</v>
       </c>
       <c r="P8">
-        <v>87274893000</v>
+        <v>251870000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1672306200000</v>
+        <v>1672305120000</v>
       </c>
       <c r="B9">
-        <v>5805500</v>
+        <v>1200</v>
       </c>
       <c r="C9">
-        <v>19460700</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>42200</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>87112821000</v>
+        <v>14760000</v>
       </c>
       <c r="F9">
-        <v>149637859000</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>435701000</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>25308400</v>
+        <v>1200</v>
       </c>
       <c r="I9">
-        <v>237186381000</v>
+        <v>14760000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-29T09:30:00.000Z</v>
+        <v>2022-12-29T09:12:00.000Z</v>
       </c>
       <c r="K9">
-        <v>667778124000</v>
+        <v>769810000</v>
       </c>
       <c r="L9">
-        <v>52432900</v>
+        <v>62600</v>
       </c>
       <c r="M9">
-        <v>13655200</v>
+        <v>-1200</v>
       </c>
       <c r="N9">
-        <v>62525038000</v>
+        <v>-14760000</v>
       </c>
       <c r="O9">
-        <v>18608100</v>
+        <v>19100</v>
       </c>
       <c r="P9">
-        <v>149799931000</v>
+        <v>237110000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1672306500000</v>
+        <v>1672305240000</v>
       </c>
       <c r="B10">
-        <v>4154900</v>
+        <v>2204000</v>
       </c>
       <c r="C10">
-        <v>5424500</v>
+        <v>2016400</v>
       </c>
       <c r="D10">
-        <v>34500</v>
+        <v>1020100</v>
       </c>
       <c r="E10">
-        <v>56529586000</v>
+        <v>34099538000</v>
       </c>
       <c r="F10">
-        <v>68337835000</v>
+        <v>35881275000</v>
       </c>
       <c r="G10">
-        <v>701012000</v>
+        <v>9653422000</v>
       </c>
       <c r="H10">
-        <v>9613900</v>
+        <v>5240500</v>
       </c>
       <c r="I10">
-        <v>125568433000</v>
+        <v>79634235000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-29T09:35:00.000Z</v>
+        <v>2022-12-29T09:14:00.000Z</v>
       </c>
       <c r="K10">
-        <v>793346557000</v>
+        <v>80404045000</v>
       </c>
       <c r="L10">
-        <v>62046800</v>
+        <v>5303100</v>
       </c>
       <c r="M10">
-        <v>1269600</v>
+        <v>-187600</v>
       </c>
       <c r="N10">
-        <v>11808249000</v>
+        <v>1781737000</v>
       </c>
       <c r="O10">
-        <v>19877700</v>
+        <v>-168500</v>
       </c>
       <c r="P10">
-        <v>161608180000</v>
+        <v>2018847000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1672306800000</v>
+        <v>1672305360000</v>
       </c>
       <c r="B11">
-        <v>3588100</v>
+        <v>1162900</v>
       </c>
       <c r="C11">
-        <v>3171600</v>
+        <v>1261900</v>
       </c>
       <c r="D11">
-        <v>21300</v>
+        <v>14700</v>
       </c>
       <c r="E11">
-        <v>53310396000</v>
+        <v>17973285000</v>
       </c>
       <c r="F11">
-        <v>49617753000</v>
+        <v>19485462000</v>
       </c>
       <c r="G11">
-        <v>348587000</v>
+        <v>91930000</v>
       </c>
       <c r="H11">
-        <v>6781000</v>
+        <v>2439500</v>
       </c>
       <c r="I11">
-        <v>103276736000</v>
+        <v>37550677000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-29T09:40:00.000Z</v>
+        <v>2022-12-29T09:16:00.000Z</v>
       </c>
       <c r="K11">
-        <v>896623293000</v>
+        <v>117954722000</v>
       </c>
       <c r="L11">
-        <v>68827800</v>
+        <v>7742600</v>
       </c>
       <c r="M11">
-        <v>-416500</v>
+        <v>99000</v>
       </c>
       <c r="N11">
-        <v>-3692643000</v>
+        <v>1512177000</v>
       </c>
       <c r="O11">
-        <v>19461200</v>
+        <v>-69500</v>
       </c>
       <c r="P11">
-        <v>157915537000</v>
+        <v>3531024000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1672307100000</v>
+        <v>1672305480000</v>
       </c>
       <c r="B12">
-        <v>3560800</v>
+        <v>951400</v>
       </c>
       <c r="C12">
-        <v>3304800</v>
+        <v>1384700</v>
       </c>
       <c r="D12">
-        <v>63900</v>
+        <v>3000</v>
       </c>
       <c r="E12">
-        <v>48696619000</v>
+        <v>13318208000</v>
       </c>
       <c r="F12">
-        <v>51179887000</v>
+        <v>22890923000</v>
       </c>
       <c r="G12">
-        <v>972169000</v>
+        <v>94914000</v>
       </c>
       <c r="H12">
-        <v>6929500</v>
+        <v>2339100</v>
       </c>
       <c r="I12">
-        <v>100848675000</v>
+        <v>36304045000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-29T09:45:00.000Z</v>
+        <v>2022-12-29T09:18:00.000Z</v>
       </c>
       <c r="K12">
-        <v>997471968000</v>
+        <v>154258767000</v>
       </c>
       <c r="L12">
-        <v>75757300</v>
+        <v>10081700</v>
       </c>
       <c r="M12">
-        <v>-256000</v>
+        <v>433300</v>
       </c>
       <c r="N12">
-        <v>2483268000</v>
+        <v>9572715000</v>
       </c>
       <c r="O12">
-        <v>19205200</v>
+        <v>363800</v>
       </c>
       <c r="P12">
-        <v>160398805000</v>
+        <v>13103739000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1672307400000</v>
+        <v>1672305600000</v>
       </c>
       <c r="B13">
-        <v>2698100</v>
+        <v>1203500</v>
       </c>
       <c r="C13">
-        <v>1621100</v>
+        <v>1679900</v>
       </c>
       <c r="D13">
-        <v>23200</v>
+        <v>10400</v>
       </c>
       <c r="E13">
-        <v>41422748000</v>
+        <v>23938558000</v>
       </c>
       <c r="F13">
-        <v>24911413000</v>
+        <v>25952371000</v>
       </c>
       <c r="G13">
-        <v>268195000</v>
+        <v>180584000</v>
       </c>
       <c r="H13">
-        <v>4342400</v>
+        <v>2893800</v>
       </c>
       <c r="I13">
-        <v>66602356000</v>
+        <v>50071513000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-29T09:50:00.000Z</v>
+        <v>2022-12-29T09:20:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1064074324000</v>
+        <v>204330280000</v>
       </c>
       <c r="L13">
-        <v>80099700</v>
+        <v>12975500</v>
       </c>
       <c r="M13">
-        <v>-1077000</v>
+        <v>476400</v>
       </c>
       <c r="N13">
-        <v>-16511335000</v>
+        <v>2013813000</v>
       </c>
       <c r="O13">
-        <v>18128200</v>
+        <v>840200</v>
       </c>
       <c r="P13">
-        <v>143887470000</v>
+        <v>15117552000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1672307700000</v>
+        <v>1672305720000</v>
       </c>
       <c r="B14">
-        <v>1754600</v>
+        <v>1355300</v>
       </c>
       <c r="C14">
-        <v>2965700</v>
+        <v>1181800</v>
       </c>
       <c r="D14">
-        <v>1800</v>
+        <v>17700</v>
       </c>
       <c r="E14">
-        <v>25057302000</v>
+        <v>19812947000</v>
       </c>
       <c r="F14">
-        <v>43421135000</v>
+        <v>18555698000</v>
       </c>
       <c r="G14">
-        <v>48953000</v>
+        <v>274635000</v>
       </c>
       <c r="H14">
-        <v>4722100</v>
+        <v>2554800</v>
       </c>
       <c r="I14">
-        <v>68527390000</v>
+        <v>38643280000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-29T09:55:00.000Z</v>
+        <v>2022-12-29T09:22:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1132601714000</v>
+        <v>242973560000</v>
       </c>
       <c r="L14">
-        <v>84821800</v>
+        <v>15530300</v>
       </c>
       <c r="M14">
-        <v>1211100</v>
+        <v>-173500</v>
       </c>
       <c r="N14">
-        <v>18363833000</v>
+        <v>-1257249000</v>
       </c>
       <c r="O14">
-        <v>19339300</v>
+        <v>666700</v>
       </c>
       <c r="P14">
-        <v>162251303000</v>
+        <v>13860303000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1672308000000</v>
+        <v>1672305840000</v>
       </c>
       <c r="B15">
-        <v>1702800</v>
+        <v>1045200</v>
       </c>
       <c r="C15">
-        <v>3986000</v>
+        <v>1855400</v>
       </c>
       <c r="D15">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="E15">
-        <v>24511902000</v>
+        <v>15473008000</v>
       </c>
       <c r="F15">
-        <v>59233514000</v>
+        <v>28169551000</v>
       </c>
       <c r="G15">
-        <v>164853000</v>
+        <v>160433000</v>
       </c>
       <c r="H15">
-        <v>5701300</v>
+        <v>2910100</v>
       </c>
       <c r="I15">
-        <v>83910269000</v>
+        <v>43802992000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-29T10:00:00.000Z</v>
+        <v>2022-12-29T09:24:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1216511983000</v>
+        <v>286776552000</v>
       </c>
       <c r="L15">
-        <v>90523100</v>
+        <v>18440400</v>
       </c>
       <c r="M15">
-        <v>2283200</v>
+        <v>810200</v>
       </c>
       <c r="N15">
-        <v>34721612000</v>
+        <v>12696543000</v>
       </c>
       <c r="O15">
-        <v>21622500</v>
+        <v>1476900</v>
       </c>
       <c r="P15">
-        <v>196972915000</v>
+        <v>26556846000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1672308300000</v>
+        <v>1672305960000</v>
       </c>
       <c r="B16">
-        <v>1691400</v>
+        <v>1467700</v>
       </c>
       <c r="C16">
-        <v>2742300</v>
+        <v>2220200</v>
       </c>
       <c r="D16">
-        <v>2300</v>
+        <v>10500</v>
       </c>
       <c r="E16">
-        <v>25750350000</v>
+        <v>23845755000</v>
       </c>
       <c r="F16">
-        <v>47165709000</v>
+        <v>38428469000</v>
       </c>
       <c r="G16">
-        <v>39164000</v>
+        <v>157398000</v>
       </c>
       <c r="H16">
-        <v>4436000</v>
+        <v>3698400</v>
       </c>
       <c r="I16">
-        <v>72955223000</v>
+        <v>62431622000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-29T10:05:00.000Z</v>
+        <v>2022-12-29T09:26:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1289467206000</v>
+        <v>349208174000</v>
       </c>
       <c r="L16">
-        <v>94959100</v>
+        <v>22138800</v>
       </c>
       <c r="M16">
-        <v>1050900</v>
+        <v>752500</v>
       </c>
       <c r="N16">
-        <v>21415359000</v>
+        <v>14582714000</v>
       </c>
       <c r="O16">
-        <v>22673400</v>
+        <v>2229400</v>
       </c>
       <c r="P16">
-        <v>218388274000</v>
+        <v>41139560000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1672308600000</v>
+        <v>1672306080000</v>
       </c>
       <c r="B17">
-        <v>2633300</v>
+        <v>1128200</v>
       </c>
       <c r="C17">
-        <v>2253700</v>
+        <v>3851700</v>
       </c>
       <c r="D17">
-        <v>35200</v>
+        <v>5800</v>
       </c>
       <c r="E17">
-        <v>44131839000</v>
+        <v>17541975000</v>
       </c>
       <c r="F17">
-        <v>42373072000</v>
+        <v>63677308000</v>
       </c>
       <c r="G17">
-        <v>482258000</v>
+        <v>164286000</v>
       </c>
       <c r="H17">
-        <v>4922200</v>
+        <v>4985700</v>
       </c>
       <c r="I17">
-        <v>86987169000</v>
+        <v>81383569000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-29T10:10:00.000Z</v>
+        <v>2022-12-29T09:28:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1376454375000</v>
+        <v>430591743000</v>
       </c>
       <c r="L17">
-        <v>99881300</v>
+        <v>27124500</v>
       </c>
       <c r="M17">
-        <v>-379600</v>
+        <v>2723500</v>
       </c>
       <c r="N17">
-        <v>-1758767000</v>
+        <v>46135333000</v>
       </c>
       <c r="O17">
-        <v>22293800</v>
+        <v>4952900</v>
       </c>
       <c r="P17">
-        <v>216629507000</v>
+        <v>87274893000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1672308900000</v>
+        <v>1672306200000</v>
       </c>
       <c r="B18">
-        <v>2499400</v>
+        <v>1326300</v>
       </c>
       <c r="C18">
-        <v>2100600</v>
+        <v>15130800</v>
       </c>
       <c r="D18">
-        <v>26900</v>
+        <v>7900</v>
       </c>
       <c r="E18">
-        <v>41049416000</v>
+        <v>22775680000</v>
       </c>
       <c r="F18">
-        <v>34229246000</v>
+        <v>93548255000</v>
       </c>
       <c r="G18">
-        <v>590505000</v>
+        <v>164444000</v>
       </c>
       <c r="H18">
-        <v>4626900</v>
+        <v>16465000</v>
       </c>
       <c r="I18">
-        <v>75869167000</v>
+        <v>116488379000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-29T10:15:00.000Z</v>
+        <v>2022-12-29T09:30:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1452323542000</v>
+        <v>547080122000</v>
       </c>
       <c r="L18">
-        <v>104508200</v>
+        <v>43589500</v>
       </c>
       <c r="M18">
-        <v>-398800</v>
+        <v>13804500</v>
       </c>
       <c r="N18">
-        <v>-6820170000</v>
+        <v>70772575000</v>
       </c>
       <c r="O18">
-        <v>21895000</v>
+        <v>18757400</v>
       </c>
       <c r="P18">
-        <v>209809337000</v>
+        <v>158047468000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1672309200000</v>
+        <v>1672306320000</v>
       </c>
       <c r="B19">
-        <v>1943500</v>
+        <v>2680800</v>
       </c>
       <c r="C19">
-        <v>1764800</v>
+        <v>2665900</v>
       </c>
       <c r="D19">
-        <v>42600</v>
+        <v>26600</v>
       </c>
       <c r="E19">
-        <v>32953961000</v>
+        <v>36965417000</v>
       </c>
       <c r="F19">
-        <v>35030427000</v>
+        <v>35972079000</v>
       </c>
       <c r="G19">
-        <v>691283000</v>
+        <v>178151000</v>
       </c>
       <c r="H19">
-        <v>3750900</v>
+        <v>5373300</v>
       </c>
       <c r="I19">
-        <v>68675671000</v>
+        <v>73115647000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-29T10:20:00.000Z</v>
+        <v>2022-12-29T09:32:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1520999213000</v>
+        <v>620195769000</v>
       </c>
       <c r="L19">
-        <v>108259100</v>
+        <v>48962800</v>
       </c>
       <c r="M19">
-        <v>-178700</v>
+        <v>-14900</v>
       </c>
       <c r="N19">
-        <v>2076466000</v>
+        <v>-993338000</v>
       </c>
       <c r="O19">
-        <v>21716300</v>
+        <v>18742500</v>
       </c>
       <c r="P19">
-        <v>211885803000</v>
+        <v>157054130000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1672309500000</v>
+        <v>1672306440000</v>
       </c>
       <c r="B20">
-        <v>4481200</v>
+        <v>2765700</v>
       </c>
       <c r="C20">
-        <v>1157700</v>
+        <v>3308100</v>
       </c>
       <c r="D20">
-        <v>7300</v>
+        <v>14400</v>
       </c>
       <c r="E20">
-        <v>74257420000</v>
+        <v>42243967000</v>
       </c>
       <c r="F20">
-        <v>22481835000</v>
+        <v>39424906000</v>
       </c>
       <c r="G20">
-        <v>92503000</v>
+        <v>171441000</v>
       </c>
       <c r="H20">
-        <v>5646200</v>
+        <v>6088200</v>
       </c>
       <c r="I20">
-        <v>96831758000</v>
+        <v>81840314000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-29T10:25:00.000Z</v>
+        <v>2022-12-29T09:34:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1617830971000</v>
+        <v>702036083000</v>
       </c>
       <c r="L20">
-        <v>113905300</v>
+        <v>55051000</v>
       </c>
       <c r="M20">
-        <v>-3323500</v>
+        <v>542400</v>
       </c>
       <c r="N20">
-        <v>-51775585000</v>
+        <v>-2819061000</v>
       </c>
       <c r="O20">
-        <v>18392800</v>
+        <v>19284900</v>
       </c>
       <c r="P20">
-        <v>160110218000</v>
+        <v>154235069000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1672309800000</v>
+        <v>1672306560000</v>
       </c>
       <c r="B21">
-        <v>3396500</v>
+        <v>1495700</v>
       </c>
       <c r="C21">
-        <v>1185300</v>
+        <v>2033900</v>
       </c>
       <c r="D21">
-        <v>44500</v>
+        <v>11400</v>
       </c>
       <c r="E21">
-        <v>52461093000</v>
+        <v>19480016000</v>
       </c>
       <c r="F21">
-        <v>26287215000</v>
+        <v>25866603000</v>
       </c>
       <c r="G21">
-        <v>717789000</v>
+        <v>433227000</v>
       </c>
       <c r="H21">
-        <v>4626300</v>
+        <v>3541000</v>
       </c>
       <c r="I21">
-        <v>79466097000</v>
+        <v>45779846000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-29T10:30:00.000Z</v>
+        <v>2022-12-29T09:36:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1697297068000</v>
+        <v>747815929000</v>
       </c>
       <c r="L21">
-        <v>118531600</v>
+        <v>58592000</v>
       </c>
       <c r="M21">
-        <v>-2211200</v>
+        <v>538200</v>
       </c>
       <c r="N21">
-        <v>-26173878000</v>
+        <v>6386587000</v>
       </c>
       <c r="O21">
-        <v>16181600</v>
+        <v>19823100</v>
       </c>
       <c r="P21">
-        <v>133936340000</v>
+        <v>160621656000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1672310100000</v>
+        <v>1672306680000</v>
       </c>
       <c r="B22">
-        <v>3074300</v>
+        <v>1691900</v>
       </c>
       <c r="C22">
-        <v>1018700</v>
+        <v>1746500</v>
       </c>
       <c r="D22">
-        <v>5100</v>
+        <v>16400</v>
       </c>
       <c r="E22">
-        <v>47005354000</v>
+        <v>22177327000</v>
       </c>
       <c r="F22">
-        <v>18201139000</v>
+        <v>23163851000</v>
       </c>
       <c r="G22">
-        <v>86419000</v>
+        <v>189450000</v>
       </c>
       <c r="H22">
-        <v>4098100</v>
+        <v>3454800</v>
       </c>
       <c r="I22">
-        <v>65292912000</v>
+        <v>45530628000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-29T10:35:00.000Z</v>
+        <v>2022-12-29T09:38:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1762589980000</v>
+        <v>793346557000</v>
       </c>
       <c r="L22">
-        <v>122629700</v>
+        <v>62046800</v>
       </c>
       <c r="M22">
-        <v>-2055600</v>
+        <v>54600</v>
       </c>
       <c r="N22">
-        <v>-28804215000</v>
+        <v>986524000</v>
       </c>
       <c r="O22">
-        <v>14126000</v>
+        <v>19877700</v>
       </c>
       <c r="P22">
-        <v>105132125000</v>
+        <v>161608180000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1672310400000</v>
+        <v>1672306800000</v>
       </c>
       <c r="B23">
-        <v>2147800</v>
+        <v>1414000</v>
       </c>
       <c r="C23">
-        <v>1018600</v>
+        <v>1105900</v>
       </c>
       <c r="D23">
-        <v>50500</v>
+        <v>7500</v>
       </c>
       <c r="E23">
-        <v>33380761000</v>
+        <v>20854889000</v>
       </c>
       <c r="F23">
-        <v>18277832000</v>
+        <v>15328165000</v>
       </c>
       <c r="G23">
-        <v>703166000</v>
+        <v>161021000</v>
       </c>
       <c r="H23">
-        <v>3216900</v>
+        <v>2527400</v>
       </c>
       <c r="I23">
-        <v>52361759000</v>
+        <v>36344075000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-29T10:40:00.000Z</v>
+        <v>2022-12-29T09:40:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1814951739000</v>
+        <v>829690632000</v>
       </c>
       <c r="L23">
-        <v>125846600</v>
+        <v>64574200</v>
       </c>
       <c r="M23">
-        <v>-1129200</v>
+        <v>-308100</v>
       </c>
       <c r="N23">
-        <v>-15102929000</v>
+        <v>-5526724000</v>
       </c>
       <c r="O23">
-        <v>12996800</v>
+        <v>19569600</v>
       </c>
       <c r="P23">
-        <v>90029196000</v>
+        <v>156081456000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1672310700000</v>
+        <v>1672306920000</v>
       </c>
       <c r="B24">
-        <v>1419700</v>
+        <v>1391600</v>
       </c>
       <c r="C24">
-        <v>1842000</v>
+        <v>1447600</v>
       </c>
       <c r="D24">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="E24">
-        <v>23479774000</v>
+        <v>19802577000</v>
       </c>
       <c r="F24">
-        <v>34074946000</v>
+        <v>24483396000</v>
       </c>
       <c r="G24">
-        <v>242510000</v>
+        <v>63285000</v>
       </c>
       <c r="H24">
-        <v>3271000</v>
+        <v>2848300</v>
       </c>
       <c r="I24">
-        <v>57797230000</v>
+        <v>44349258000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-29T10:45:00.000Z</v>
+        <v>2022-12-29T09:42:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1872748969000</v>
+        <v>874039890000</v>
       </c>
       <c r="L24">
-        <v>129117600</v>
+        <v>67422500</v>
       </c>
       <c r="M24">
-        <v>422300</v>
+        <v>56000</v>
       </c>
       <c r="N24">
-        <v>10595172000</v>
+        <v>4680819000</v>
       </c>
       <c r="O24">
-        <v>13419100</v>
+        <v>19625600</v>
       </c>
       <c r="P24">
-        <v>100624368000</v>
+        <v>160762275000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1672311000000</v>
+        <v>1672307040000</v>
       </c>
       <c r="B25">
-        <v>1628900</v>
+        <v>1271400</v>
       </c>
       <c r="C25">
-        <v>1168400</v>
+        <v>1435200</v>
       </c>
       <c r="D25">
-        <v>3200</v>
+        <v>12400</v>
       </c>
       <c r="E25">
-        <v>25805665000</v>
+        <v>20145538000</v>
       </c>
       <c r="F25">
-        <v>21702697000</v>
+        <v>23469134000</v>
       </c>
       <c r="G25">
-        <v>19225000</v>
+        <v>227021000</v>
       </c>
       <c r="H25">
-        <v>2800500</v>
+        <v>2719000</v>
       </c>
       <c r="I25">
-        <v>47527587000</v>
+        <v>43841693000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-29T10:50:00.000Z</v>
+        <v>2022-12-29T09:44:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1920276556000</v>
+        <v>917881583000</v>
       </c>
       <c r="L25">
-        <v>131918100</v>
+        <v>70141500</v>
       </c>
       <c r="M25">
-        <v>-460500</v>
+        <v>163800</v>
       </c>
       <c r="N25">
-        <v>-4102968000</v>
+        <v>3323596000</v>
       </c>
       <c r="O25">
-        <v>12958600</v>
+        <v>19789400</v>
       </c>
       <c r="P25">
-        <v>96521400000</v>
+        <v>164085871000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1672311300000</v>
+        <v>1672307160000</v>
       </c>
       <c r="B26">
-        <v>1257400</v>
+        <v>1883100</v>
       </c>
       <c r="C26">
-        <v>1224300</v>
+        <v>1441300</v>
       </c>
       <c r="D26">
-        <v>2200</v>
+        <v>46400</v>
       </c>
       <c r="E26">
-        <v>19286213000</v>
+        <v>23970449000</v>
       </c>
       <c r="F26">
-        <v>23531024000</v>
+        <v>21322770000</v>
       </c>
       <c r="G26">
-        <v>59339000</v>
+        <v>720905000</v>
       </c>
       <c r="H26">
-        <v>2483900</v>
+        <v>3370800</v>
       </c>
       <c r="I26">
-        <v>42876576000</v>
+        <v>46014124000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-29T10:55:00.000Z</v>
+        <v>2022-12-29T09:46:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1963153132000</v>
+        <v>963895707000</v>
       </c>
       <c r="L26">
-        <v>134402000</v>
+        <v>73512300</v>
       </c>
       <c r="M26">
-        <v>-33100</v>
+        <v>-441800</v>
       </c>
       <c r="N26">
-        <v>4244811000</v>
+        <v>-2647679000</v>
       </c>
       <c r="O26">
-        <v>12925500</v>
+        <v>19347600</v>
       </c>
       <c r="P26">
-        <v>100766211000</v>
+        <v>161438192000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1672311600000</v>
+        <v>1672307280000</v>
       </c>
       <c r="B27">
-        <v>2029000</v>
+        <v>1188800</v>
       </c>
       <c r="C27">
-        <v>1006600</v>
+        <v>1046400</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>9800</v>
       </c>
       <c r="E27">
-        <v>33104556000</v>
+        <v>17233562000</v>
       </c>
       <c r="F27">
-        <v>19463723000</v>
+        <v>16194175000</v>
       </c>
       <c r="G27">
-        <v>409999.99999999994</v>
+        <v>148524000</v>
       </c>
       <c r="H27">
-        <v>3035700</v>
+        <v>2245000</v>
       </c>
       <c r="I27">
-        <v>52568689000</v>
+        <v>33576261000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-29T11:00:00.000Z</v>
+        <v>2022-12-29T09:48:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2015721821000</v>
+        <v>997471968000</v>
       </c>
       <c r="L27">
-        <v>137437700</v>
+        <v>75757300</v>
       </c>
       <c r="M27">
-        <v>-1022400</v>
+        <v>-142400</v>
       </c>
       <c r="N27">
-        <v>-13640833000</v>
+        <v>-1039387000</v>
       </c>
       <c r="O27">
-        <v>11903100</v>
+        <v>19205200</v>
       </c>
       <c r="P27">
-        <v>87125378000</v>
+        <v>160398805000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1672311900000</v>
+        <v>1672307400000</v>
       </c>
       <c r="B28">
-        <v>5013000</v>
+        <v>1217200</v>
       </c>
       <c r="C28">
-        <v>859700</v>
+        <v>589400</v>
       </c>
       <c r="D28">
-        <v>14400</v>
+        <v>18600</v>
       </c>
       <c r="E28">
-        <v>82682973000</v>
+        <v>19117876000</v>
       </c>
       <c r="F28">
-        <v>15037191000</v>
+        <v>9710777000</v>
       </c>
       <c r="G28">
-        <v>149751000</v>
+        <v>132680000</v>
       </c>
       <c r="H28">
-        <v>5887100</v>
+        <v>1825200</v>
       </c>
       <c r="I28">
-        <v>97869915000</v>
+        <v>28961333000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-29T11:05:00.000Z</v>
+        <v>2022-12-29T09:50:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2113591736000</v>
+        <v>1026433301000</v>
       </c>
       <c r="L28">
-        <v>143324800</v>
+        <v>77582500</v>
       </c>
       <c r="M28">
-        <v>-4153300</v>
+        <v>-627800</v>
       </c>
       <c r="N28">
-        <v>-67645782000</v>
+        <v>-9407099000</v>
       </c>
       <c r="O28">
-        <v>7749800</v>
+        <v>18577400</v>
       </c>
       <c r="P28">
-        <v>19479596000</v>
+        <v>150991706000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1672312200000</v>
+        <v>1672307520000</v>
       </c>
       <c r="B29">
-        <v>5778600</v>
+        <v>1005600</v>
       </c>
       <c r="C29">
-        <v>1097900</v>
+        <v>605000</v>
       </c>
       <c r="D29">
-        <v>22700</v>
+        <v>4600</v>
       </c>
       <c r="E29">
-        <v>82802721000</v>
+        <v>15225519000</v>
       </c>
       <c r="F29">
-        <v>19082218000</v>
+        <v>8694458000</v>
       </c>
       <c r="G29">
-        <v>260552000</v>
+        <v>135515000</v>
       </c>
       <c r="H29">
-        <v>6899200</v>
+        <v>1615200</v>
       </c>
       <c r="I29">
-        <v>102145491000</v>
+        <v>24055492000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-29T11:10:00.000Z</v>
+        <v>2022-12-29T09:52:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2215737227000</v>
+        <v>1050488793000</v>
       </c>
       <c r="L29">
-        <v>150224000</v>
+        <v>79197700</v>
       </c>
       <c r="M29">
-        <v>-4680700</v>
+        <v>-400600</v>
       </c>
       <c r="N29">
-        <v>-63720503000</v>
+        <v>-6531061000</v>
       </c>
       <c r="O29">
-        <v>3069100</v>
+        <v>18176800</v>
       </c>
       <c r="P29">
-        <v>-44240907000</v>
+        <v>144460645000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1672312500000</v>
+        <v>1672307640000</v>
       </c>
       <c r="B30">
-        <v>3116500</v>
+        <v>1103500</v>
       </c>
       <c r="C30">
-        <v>1335400</v>
+        <v>838700</v>
       </c>
       <c r="D30">
-        <v>16400</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>54906968000</v>
+        <v>13915701000</v>
       </c>
       <c r="F30">
-        <v>25923244000</v>
+        <v>12495346000</v>
       </c>
       <c r="G30">
-        <v>555246000</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>4468300</v>
+        <v>1942200</v>
       </c>
       <c r="I30">
-        <v>81385458000</v>
+        <v>26411047000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-29T11:15:00.000Z</v>
+        <v>2022-12-29T09:54:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2297122685000</v>
+        <v>1076899840000</v>
       </c>
       <c r="L30">
-        <v>154692300</v>
+        <v>81139900</v>
       </c>
       <c r="M30">
-        <v>-1781100</v>
+        <v>-264800</v>
       </c>
       <c r="N30">
-        <v>-28983724000</v>
+        <v>-1420355000</v>
       </c>
       <c r="O30">
-        <v>1288000</v>
+        <v>17912000</v>
       </c>
       <c r="P30">
-        <v>-73224631000</v>
+        <v>143040290000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1672312800000</v>
+        <v>1672307760000</v>
       </c>
       <c r="B31">
-        <v>2143900</v>
+        <v>602400</v>
       </c>
       <c r="C31">
-        <v>1258700</v>
+        <v>950700</v>
       </c>
       <c r="D31">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E31">
-        <v>40549050000</v>
+        <v>9439788000</v>
       </c>
       <c r="F31">
-        <v>23383977000</v>
+        <v>15287657000</v>
       </c>
       <c r="G31">
-        <v>4850000</v>
+        <v>35605000</v>
       </c>
       <c r="H31">
-        <v>3403600</v>
+        <v>1554400</v>
       </c>
       <c r="I31">
-        <v>63937877000</v>
+        <v>24763050000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-29T11:20:00.000Z</v>
+        <v>2022-12-29T09:56:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2361060562000</v>
+        <v>1101662890000</v>
       </c>
       <c r="L31">
-        <v>158095900</v>
+        <v>82694300</v>
       </c>
       <c r="M31">
-        <v>-885200</v>
+        <v>348300</v>
       </c>
       <c r="N31">
-        <v>-17165073000</v>
+        <v>5847869000</v>
       </c>
       <c r="O31">
-        <v>402800</v>
+        <v>18260300</v>
       </c>
       <c r="P31">
-        <v>-90389704000</v>
+        <v>148888159000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1672313100000</v>
+        <v>1672307880000</v>
       </c>
       <c r="B32">
-        <v>2749500</v>
+        <v>524000</v>
       </c>
       <c r="C32">
-        <v>971200</v>
+        <v>1603000</v>
       </c>
       <c r="D32">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="E32">
-        <v>44332476000</v>
+        <v>8781166000</v>
       </c>
       <c r="F32">
-        <v>17901179000</v>
+        <v>22144310000</v>
       </c>
       <c r="G32">
-        <v>172500000</v>
+        <v>13348000</v>
       </c>
       <c r="H32">
-        <v>3723200</v>
+        <v>2127500</v>
       </c>
       <c r="I32">
-        <v>62406155000</v>
+        <v>30938824000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-29T11:25:00.000Z</v>
+        <v>2022-12-29T09:58:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2423466717000</v>
+        <v>1132601714000</v>
       </c>
       <c r="L32">
-        <v>161819100</v>
+        <v>84821800</v>
       </c>
       <c r="M32">
-        <v>-1778300</v>
+        <v>1079000</v>
       </c>
       <c r="N32">
-        <v>-26431297000</v>
+        <v>13363144000</v>
       </c>
       <c r="O32">
-        <v>-1375500</v>
+        <v>19339300</v>
       </c>
       <c r="P32">
-        <v>-116821001000</v>
+        <v>162251303000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1672313400000</v>
+        <v>1672308000000</v>
       </c>
       <c r="B33">
-        <v>101000</v>
+        <v>762100</v>
       </c>
       <c r="C33">
-        <v>3700</v>
+        <v>1343900</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E33">
-        <v>1842150000</v>
+        <v>12562702000</v>
       </c>
       <c r="F33">
-        <v>37860000</v>
+        <v>19388354000</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>12555000</v>
       </c>
       <c r="H33">
-        <v>104700</v>
+        <v>2108100</v>
       </c>
       <c r="I33">
-        <v>1880010000</v>
+        <v>31963611000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-29T11:30:00.000Z</v>
+        <v>2022-12-29T10:00:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2425346727000</v>
+        <v>1164565325000</v>
       </c>
       <c r="L33">
-        <v>161923800</v>
+        <v>86929900</v>
       </c>
       <c r="M33">
-        <v>-97300</v>
+        <v>581800</v>
       </c>
       <c r="N33">
-        <v>-1804290000</v>
+        <v>6825652000</v>
       </c>
       <c r="O33">
-        <v>-1472800</v>
+        <v>19921100</v>
       </c>
       <c r="P33">
-        <v>-118625291000</v>
+        <v>169076955000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1672318500000</v>
+        <v>1672308120000</v>
       </c>
       <c r="B34">
-        <v>1100</v>
+        <v>511900</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1633800</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E34">
-        <v>12870000</v>
+        <v>7638121000</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>26426481000</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>113385000</v>
       </c>
       <c r="H34">
-        <v>1100</v>
+        <v>2151000</v>
       </c>
       <c r="I34">
-        <v>12870000</v>
+        <v>34177987000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-29T12:55:00.000Z</v>
+        <v>2022-12-29T10:02:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2425359597000</v>
+        <v>1198743312000</v>
       </c>
       <c r="L34">
-        <v>161924900</v>
+        <v>89080900</v>
       </c>
       <c r="M34">
-        <v>-1100</v>
+        <v>1121900</v>
       </c>
       <c r="N34">
-        <v>-12870000</v>
+        <v>18788360000</v>
       </c>
       <c r="O34">
-        <v>-1473900</v>
+        <v>21043000</v>
       </c>
       <c r="P34">
-        <v>-118638161000</v>
+        <v>187865315000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1672318800000</v>
+        <v>1672308240000</v>
       </c>
       <c r="B35">
-        <v>9321900</v>
+        <v>838200</v>
       </c>
       <c r="C35">
-        <v>4468000</v>
+        <v>1551900</v>
       </c>
       <c r="D35">
-        <v>273000</v>
+        <v>5900</v>
       </c>
       <c r="E35">
-        <v>139396086000</v>
+        <v>10140801000</v>
       </c>
       <c r="F35">
-        <v>70565055000</v>
+        <v>21323385000</v>
       </c>
       <c r="G35">
-        <v>3352224000</v>
+        <v>58557000</v>
       </c>
       <c r="H35">
-        <v>14062900</v>
+        <v>2396000</v>
       </c>
       <c r="I35">
-        <v>213313365000</v>
+        <v>31522743000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-29T13:00:00.000Z</v>
+        <v>2022-12-29T10:04:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2638672962000</v>
+        <v>1230266055000</v>
       </c>
       <c r="L35">
-        <v>175987800</v>
+        <v>91476900</v>
       </c>
       <c r="M35">
-        <v>-4853900</v>
+        <v>713700</v>
       </c>
       <c r="N35">
-        <v>-68831031000</v>
+        <v>11182584000</v>
       </c>
       <c r="O35">
-        <v>-6327800</v>
+        <v>21756700</v>
       </c>
       <c r="P35">
-        <v>-187469192000</v>
+        <v>199047899000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1672319100000</v>
+        <v>1672308360000</v>
       </c>
       <c r="B36">
-        <v>3299800</v>
+        <v>659800</v>
       </c>
       <c r="C36">
-        <v>5077100</v>
+        <v>1350600</v>
       </c>
       <c r="D36">
-        <v>84200</v>
+        <v>1500</v>
       </c>
       <c r="E36">
-        <v>52074434000</v>
+        <v>10523663000</v>
       </c>
       <c r="F36">
-        <v>75772206000</v>
+        <v>22690653000</v>
       </c>
       <c r="G36">
-        <v>1673349000</v>
+        <v>19520000</v>
       </c>
       <c r="H36">
-        <v>8461100</v>
+        <v>2011900</v>
       </c>
       <c r="I36">
-        <v>129519989000</v>
+        <v>33233836000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-29T13:05:00.000Z</v>
+        <v>2022-12-29T10:06:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2768192951000</v>
+        <v>1263499891000</v>
       </c>
       <c r="L36">
-        <v>184448900</v>
+        <v>93488800</v>
       </c>
       <c r="M36">
-        <v>1777300</v>
+        <v>690800</v>
       </c>
       <c r="N36">
-        <v>23697772000</v>
+        <v>12166990000</v>
       </c>
       <c r="O36">
-        <v>-4550500</v>
+        <v>22447500</v>
       </c>
       <c r="P36">
-        <v>-163771420000</v>
+        <v>211214889000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1672319400000</v>
+        <v>1672308480000</v>
       </c>
       <c r="B37">
-        <v>3415500</v>
+        <v>622200</v>
       </c>
       <c r="C37">
-        <v>3276600</v>
+        <v>848100</v>
       </c>
       <c r="D37">
-        <v>37900</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>58411052000</v>
+        <v>9396965000</v>
       </c>
       <c r="F37">
-        <v>56884855000</v>
+        <v>16570350000</v>
       </c>
       <c r="G37">
-        <v>591158000</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>6730000</v>
+        <v>1470300</v>
       </c>
       <c r="I37">
-        <v>115887065000</v>
+        <v>25967315000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-29T13:10:00.000Z</v>
+        <v>2022-12-29T10:08:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2884080016000</v>
+        <v>1289467206000</v>
       </c>
       <c r="L37">
-        <v>191178900</v>
+        <v>94959100</v>
       </c>
       <c r="M37">
-        <v>-138900</v>
+        <v>225900</v>
       </c>
       <c r="N37">
-        <v>-1526197000</v>
+        <v>7173385000</v>
       </c>
       <c r="O37">
-        <v>-4689400</v>
+        <v>22673400</v>
       </c>
       <c r="P37">
-        <v>-165297617000</v>
+        <v>218388274000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1672319700000</v>
+        <v>1672308600000</v>
       </c>
       <c r="B38">
-        <v>3463300</v>
+        <v>1219300</v>
       </c>
       <c r="C38">
-        <v>2114300</v>
+        <v>848800</v>
       </c>
       <c r="D38">
-        <v>17300</v>
+        <v>32300</v>
       </c>
       <c r="E38">
-        <v>52340869000</v>
+        <v>19385532000</v>
       </c>
       <c r="F38">
-        <v>38834501000</v>
+        <v>16991713000</v>
       </c>
       <c r="G38">
-        <v>283791000</v>
+        <v>418911000</v>
       </c>
       <c r="H38">
-        <v>5594900</v>
+        <v>2100400</v>
       </c>
       <c r="I38">
-        <v>91459161000</v>
+        <v>36796156000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-29T13:15:00.000Z</v>
+        <v>2022-12-29T10:10:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2975539177000</v>
+        <v>1326263362000</v>
       </c>
       <c r="L38">
-        <v>196773800</v>
+        <v>97059500</v>
       </c>
       <c r="M38">
-        <v>-1349000</v>
+        <v>-370500</v>
       </c>
       <c r="N38">
-        <v>-13506368000</v>
+        <v>-2393819000</v>
       </c>
       <c r="O38">
-        <v>-6038400</v>
+        <v>22302900</v>
       </c>
       <c r="P38">
-        <v>-178803985000</v>
+        <v>215994455000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1672320000000</v>
+        <v>1672308720000</v>
       </c>
       <c r="B39">
-        <v>1676500</v>
+        <v>1028300</v>
       </c>
       <c r="C39">
-        <v>2602500</v>
+        <v>1007800</v>
       </c>
       <c r="D39">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="E39">
-        <v>27558959000</v>
+        <v>17372755000</v>
       </c>
       <c r="F39">
-        <v>41198061000</v>
+        <v>18528196000</v>
       </c>
       <c r="G39">
-        <v>52685000</v>
+        <v>52960000.00000001</v>
       </c>
       <c r="H39">
-        <v>4281800</v>
+        <v>2037700</v>
       </c>
       <c r="I39">
-        <v>68809705000</v>
+        <v>35953911000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-29T13:20:00.000Z</v>
+        <v>2022-12-29T10:12:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3044348882000</v>
+        <v>1362217273000</v>
       </c>
       <c r="L39">
-        <v>201055600</v>
+        <v>99097200</v>
       </c>
       <c r="M39">
-        <v>926000</v>
+        <v>-20500</v>
       </c>
       <c r="N39">
-        <v>13639102000</v>
+        <v>1155441000</v>
       </c>
       <c r="O39">
-        <v>-5112400</v>
+        <v>22282400</v>
       </c>
       <c r="P39">
-        <v>-165164883000</v>
+        <v>217149896000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1672320300000</v>
+        <v>1672308840000</v>
       </c>
       <c r="B40">
-        <v>1681700</v>
+        <v>1407800</v>
       </c>
       <c r="C40">
-        <v>3862900</v>
+        <v>694200</v>
       </c>
       <c r="D40">
-        <v>47200</v>
+        <v>6600</v>
       </c>
       <c r="E40">
-        <v>26645606000</v>
+        <v>23322960000</v>
       </c>
       <c r="F40">
-        <v>63093462000</v>
+        <v>11083487000</v>
       </c>
       <c r="G40">
-        <v>541257000</v>
+        <v>61593000</v>
       </c>
       <c r="H40">
-        <v>5591800</v>
+        <v>2108600</v>
       </c>
       <c r="I40">
-        <v>90280325000</v>
+        <v>34468040000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-29T13:25:00.000Z</v>
+        <v>2022-12-29T10:14:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3134629207000</v>
+        <v>1396685313000</v>
       </c>
       <c r="L40">
-        <v>206647400</v>
+        <v>101205800</v>
       </c>
       <c r="M40">
-        <v>2181200</v>
+        <v>-713600</v>
       </c>
       <c r="N40">
-        <v>36447856000</v>
+        <v>-12239473000</v>
       </c>
       <c r="O40">
-        <v>-2931200</v>
+        <v>21568800</v>
       </c>
       <c r="P40">
-        <v>-128717027000</v>
+        <v>204910423000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1672320600000</v>
+        <v>1672308960000</v>
       </c>
       <c r="B41">
-        <v>1637000</v>
+        <v>933000</v>
       </c>
       <c r="C41">
-        <v>3833200</v>
+        <v>631300</v>
       </c>
       <c r="D41">
-        <v>38600</v>
+        <v>13200</v>
       </c>
       <c r="E41">
-        <v>26873825000</v>
+        <v>16797167000</v>
       </c>
       <c r="F41">
-        <v>65415199000</v>
+        <v>9379647000</v>
       </c>
       <c r="G41">
-        <v>416169000</v>
+        <v>232694000</v>
       </c>
       <c r="H41">
-        <v>5508800</v>
+        <v>1577500</v>
       </c>
       <c r="I41">
-        <v>92705193000</v>
+        <v>26409508000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-29T13:30:00.000Z</v>
+        <v>2022-12-29T10:16:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3227334400000</v>
+        <v>1423094821000</v>
       </c>
       <c r="L41">
-        <v>212156200</v>
+        <v>102783300</v>
       </c>
       <c r="M41">
-        <v>2196200</v>
+        <v>-301700</v>
       </c>
       <c r="N41">
-        <v>38541374000</v>
+        <v>-7417520000</v>
       </c>
       <c r="O41">
-        <v>-735000</v>
+        <v>21267100</v>
       </c>
       <c r="P41">
-        <v>-90175653000</v>
+        <v>197492903000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1672320900000</v>
+        <v>1672309080000</v>
       </c>
       <c r="B42">
-        <v>2797200</v>
+        <v>544300</v>
       </c>
       <c r="C42">
-        <v>2528100</v>
+        <v>1172200</v>
       </c>
       <c r="D42">
-        <v>13900</v>
+        <v>8400</v>
       </c>
       <c r="E42">
-        <v>46155511000</v>
+        <v>8302841000</v>
       </c>
       <c r="F42">
-        <v>37721061000</v>
+        <v>20619275000</v>
       </c>
       <c r="G42">
-        <v>211207000</v>
+        <v>306605000</v>
       </c>
       <c r="H42">
-        <v>5339200</v>
+        <v>1724900</v>
       </c>
       <c r="I42">
-        <v>84087779000</v>
+        <v>29228721000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-29T13:35:00.000Z</v>
+        <v>2022-12-29T10:18:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3311422179000</v>
+        <v>1452323542000</v>
       </c>
       <c r="L42">
-        <v>217495400</v>
+        <v>104508200</v>
       </c>
       <c r="M42">
-        <v>-269100</v>
+        <v>627900</v>
       </c>
       <c r="N42">
-        <v>-8434450000</v>
+        <v>12316434000</v>
       </c>
       <c r="O42">
-        <v>-1004100</v>
+        <v>21895000</v>
       </c>
       <c r="P42">
-        <v>-98610103000</v>
+        <v>209809337000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1672321200000</v>
+        <v>1672309200000</v>
       </c>
       <c r="B43">
-        <v>3281800</v>
+        <v>771600</v>
       </c>
       <c r="C43">
-        <v>1564700</v>
+        <v>641200</v>
       </c>
       <c r="D43">
-        <v>15300</v>
+        <v>40000</v>
       </c>
       <c r="E43">
-        <v>54532679000</v>
+        <v>13166055000</v>
       </c>
       <c r="F43">
-        <v>25832750000</v>
+        <v>10928156000</v>
       </c>
       <c r="G43">
-        <v>348775000</v>
+        <v>648000000</v>
       </c>
       <c r="H43">
-        <v>4861800</v>
+        <v>1452800</v>
       </c>
       <c r="I43">
-        <v>80714204000</v>
+        <v>24742211000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-29T13:40:00.000Z</v>
+        <v>2022-12-29T10:20:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3392136383000</v>
+        <v>1477065753000</v>
       </c>
       <c r="L43">
-        <v>222357200</v>
+        <v>105961000</v>
       </c>
       <c r="M43">
-        <v>-1717100</v>
+        <v>-130400</v>
       </c>
       <c r="N43">
-        <v>-28699929000</v>
+        <v>-2237899000</v>
       </c>
       <c r="O43">
-        <v>-2721200</v>
+        <v>21764600</v>
       </c>
       <c r="P43">
-        <v>-127310032000</v>
+        <v>207571438000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1672321500000</v>
+        <v>1672309320000</v>
       </c>
       <c r="B44">
-        <v>2479900</v>
+        <v>795200</v>
       </c>
       <c r="C44">
-        <v>3233400</v>
+        <v>642900</v>
       </c>
       <c r="D44">
-        <v>16100</v>
+        <v>2500</v>
       </c>
       <c r="E44">
-        <v>39206992000</v>
+        <v>13510193000</v>
       </c>
       <c r="F44">
-        <v>48299711000</v>
+        <v>15194690000</v>
       </c>
       <c r="G44">
-        <v>502095000</v>
+        <v>42325000</v>
       </c>
       <c r="H44">
-        <v>5729400</v>
+        <v>1440600</v>
       </c>
       <c r="I44">
-        <v>88008798000</v>
+        <v>28747208000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-29T13:45:00.000Z</v>
+        <v>2022-12-29T10:22:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3480145181000</v>
+        <v>1505812961000</v>
       </c>
       <c r="L44">
-        <v>228086600</v>
+        <v>107401600</v>
       </c>
       <c r="M44">
-        <v>753500</v>
+        <v>-152300</v>
       </c>
       <c r="N44">
-        <v>9092719000</v>
+        <v>1684497000</v>
       </c>
       <c r="O44">
-        <v>-1967700</v>
+        <v>21612300</v>
       </c>
       <c r="P44">
-        <v>-118217313000</v>
+        <v>209255935000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1672321800000</v>
+        <v>1672309440000</v>
       </c>
       <c r="B45">
-        <v>3109200</v>
+        <v>898700</v>
       </c>
       <c r="C45">
-        <v>2709700</v>
+        <v>742800</v>
       </c>
       <c r="D45">
-        <v>68200</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>51272863000</v>
+        <v>13624340000</v>
       </c>
       <c r="F45">
-        <v>45046662000</v>
+        <v>13717995000</v>
       </c>
       <c r="G45">
-        <v>1175414000</v>
+        <v>958000</v>
       </c>
       <c r="H45">
-        <v>5887100</v>
+        <v>1641600</v>
       </c>
       <c r="I45">
-        <v>97494939000</v>
+        <v>27343293000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-29T13:50:00.000Z</v>
+        <v>2022-12-29T10:24:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3577640120000</v>
+        <v>1533156254000</v>
       </c>
       <c r="L45">
-        <v>233973700</v>
+        <v>109043200</v>
       </c>
       <c r="M45">
-        <v>-399500</v>
+        <v>-155900</v>
       </c>
       <c r="N45">
-        <v>-6226201000</v>
+        <v>93655000</v>
       </c>
       <c r="O45">
-        <v>-2367200</v>
+        <v>21456400</v>
       </c>
       <c r="P45">
-        <v>-124443514000</v>
+        <v>209349590000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1672322100000</v>
+        <v>1672309560000</v>
       </c>
       <c r="B46">
-        <v>2407400</v>
+        <v>1744900</v>
       </c>
       <c r="C46">
-        <v>4347600</v>
+        <v>568500</v>
       </c>
       <c r="D46">
-        <v>18500</v>
+        <v>2900</v>
       </c>
       <c r="E46">
-        <v>38078180000</v>
+        <v>30563708000</v>
       </c>
       <c r="F46">
-        <v>73295607000</v>
+        <v>10514250000</v>
       </c>
       <c r="G46">
-        <v>515142000</v>
+        <v>47206000</v>
       </c>
       <c r="H46">
-        <v>6773500</v>
+        <v>2316300</v>
       </c>
       <c r="I46">
-        <v>111888929000</v>
+        <v>41125164000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-29T13:55:00.000Z</v>
+        <v>2022-12-29T10:26:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3689529049000</v>
+        <v>1574281418000</v>
       </c>
       <c r="L46">
-        <v>240747200</v>
+        <v>111359500</v>
       </c>
       <c r="M46">
-        <v>1940200</v>
+        <v>-1176400</v>
       </c>
       <c r="N46">
-        <v>35217427000</v>
+        <v>-20049458000</v>
       </c>
       <c r="O46">
-        <v>-427000</v>
+        <v>20280000</v>
       </c>
       <c r="P46">
-        <v>-89226087000</v>
+        <v>189300132000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1672322400000</v>
+        <v>1672309680000</v>
       </c>
       <c r="B47">
-        <v>2533500</v>
+        <v>2214300</v>
       </c>
       <c r="C47">
-        <v>6689500</v>
+        <v>327100</v>
       </c>
       <c r="D47">
-        <v>34100</v>
+        <v>4400</v>
       </c>
       <c r="E47">
-        <v>40844534000</v>
+        <v>36347085000</v>
       </c>
       <c r="F47">
-        <v>106346204000</v>
+        <v>7157171000</v>
       </c>
       <c r="G47">
-        <v>680914000</v>
+        <v>45297000</v>
       </c>
       <c r="H47">
-        <v>9257100</v>
+        <v>2545800</v>
       </c>
       <c r="I47">
-        <v>147871652000</v>
+        <v>43549553000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-29T14:00:00.000Z</v>
+        <v>2022-12-29T10:28:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3837400701000</v>
+        <v>1617830971000</v>
       </c>
       <c r="L47">
-        <v>250004300</v>
+        <v>113905300</v>
       </c>
       <c r="M47">
-        <v>4156000</v>
+        <v>-1887200</v>
       </c>
       <c r="N47">
-        <v>65501670000</v>
+        <v>-29189914000</v>
       </c>
       <c r="O47">
-        <v>3729000</v>
+        <v>18392800</v>
       </c>
       <c r="P47">
-        <v>-23724417000</v>
+        <v>160110218000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1672322700000</v>
+        <v>1672309800000</v>
       </c>
       <c r="B48">
-        <v>4708700</v>
+        <v>1609300</v>
       </c>
       <c r="C48">
-        <v>3621500</v>
+        <v>358400</v>
       </c>
       <c r="D48">
-        <v>83900</v>
+        <v>27900</v>
       </c>
       <c r="E48">
-        <v>73762603000</v>
+        <v>25388383000</v>
       </c>
       <c r="F48">
-        <v>56792163000</v>
+        <v>6612056000</v>
       </c>
       <c r="G48">
-        <v>1000940000</v>
+        <v>383472000</v>
       </c>
       <c r="H48">
-        <v>8414100</v>
+        <v>1995600</v>
       </c>
       <c r="I48">
-        <v>131555706000</v>
+        <v>32383911000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-29T14:05:00.000Z</v>
+        <v>2022-12-29T10:30:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3968956407000</v>
+        <v>1650214882000</v>
       </c>
       <c r="L48">
-        <v>258418400</v>
+        <v>115900900</v>
       </c>
       <c r="M48">
-        <v>-1087200</v>
+        <v>-1250900</v>
       </c>
       <c r="N48">
-        <v>-16970440000</v>
+        <v>-18776327000</v>
       </c>
       <c r="O48">
-        <v>2641800</v>
+        <v>17141900</v>
       </c>
       <c r="P48">
-        <v>-40694857000</v>
+        <v>141333891000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1672323000000</v>
+        <v>1672309920000</v>
       </c>
       <c r="B49">
-        <v>5212400</v>
+        <v>1235800</v>
       </c>
       <c r="C49">
-        <v>7338200</v>
+        <v>660000</v>
       </c>
       <c r="D49">
-        <v>44900</v>
+        <v>6200</v>
       </c>
       <c r="E49">
-        <v>87708944000</v>
+        <v>19000426000</v>
       </c>
       <c r="F49">
-        <v>155165101000</v>
+        <v>13426173000</v>
       </c>
       <c r="G49">
-        <v>682050000</v>
+        <v>237457000</v>
       </c>
       <c r="H49">
-        <v>12595500</v>
+        <v>1902000</v>
       </c>
       <c r="I49">
-        <v>243556095000</v>
+        <v>32664056000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-29T14:10:00.000Z</v>
+        <v>2022-12-29T10:32:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4212512502000</v>
+        <v>1682878938000</v>
       </c>
       <c r="L49">
-        <v>271013900</v>
+        <v>117802900</v>
       </c>
       <c r="M49">
-        <v>2125800</v>
+        <v>-575800</v>
       </c>
       <c r="N49">
-        <v>67456157000</v>
+        <v>-5574253000</v>
       </c>
       <c r="O49">
-        <v>4767600</v>
+        <v>16566100</v>
       </c>
       <c r="P49">
-        <v>26761300000</v>
+        <v>135759638000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1672323300000</v>
+        <v>1672310040000</v>
       </c>
       <c r="B50">
-        <v>3869300</v>
+        <v>1385100</v>
       </c>
       <c r="C50">
-        <v>10753000</v>
+        <v>284400</v>
       </c>
       <c r="D50">
-        <v>53800</v>
+        <v>13100</v>
       </c>
       <c r="E50">
-        <v>70174015000</v>
+        <v>21717667000</v>
       </c>
       <c r="F50">
-        <v>205049731000</v>
+        <v>8381769000</v>
       </c>
       <c r="G50">
-        <v>911329000</v>
+        <v>132780000</v>
       </c>
       <c r="H50">
-        <v>14676100</v>
+        <v>1682600</v>
       </c>
       <c r="I50">
-        <v>276135075000</v>
+        <v>30232216000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-29T14:15:00.000Z</v>
+        <v>2022-12-29T10:34:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4488647577000</v>
+        <v>1713111154000</v>
       </c>
       <c r="L50">
-        <v>285690000</v>
+        <v>119485500</v>
       </c>
       <c r="M50">
-        <v>6883700</v>
+        <v>-1100700</v>
       </c>
       <c r="N50">
-        <v>134875716000</v>
+        <v>-13335898000</v>
       </c>
       <c r="O50">
-        <v>11651300</v>
+        <v>15465400</v>
       </c>
       <c r="P50">
-        <v>161637016000</v>
+        <v>122423740000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1672323600000</v>
+        <v>1672310160000</v>
       </c>
       <c r="B51">
-        <v>6475300</v>
+        <v>1194000</v>
       </c>
       <c r="C51">
-        <v>6644000</v>
+        <v>483300</v>
       </c>
       <c r="D51">
-        <v>53900</v>
+        <v>1400</v>
       </c>
       <c r="E51">
-        <v>112143749000</v>
+        <v>18214163000</v>
       </c>
       <c r="F51">
-        <v>141702245000</v>
+        <v>8191075000</v>
       </c>
       <c r="G51">
-        <v>1293190000</v>
+        <v>28710000</v>
       </c>
       <c r="H51">
-        <v>13173200</v>
+        <v>1678700</v>
       </c>
       <c r="I51">
-        <v>255139184000</v>
+        <v>26433948000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-29T14:20:00.000Z</v>
+        <v>2022-12-29T10:36:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4743786761000</v>
+        <v>1739545102000</v>
       </c>
       <c r="L51">
-        <v>298863200</v>
+        <v>121164200</v>
       </c>
       <c r="M51">
-        <v>168700</v>
+        <v>-710700</v>
       </c>
       <c r="N51">
-        <v>29558496000</v>
+        <v>-10023088000</v>
       </c>
       <c r="O51">
-        <v>11820000</v>
+        <v>14754700</v>
       </c>
       <c r="P51">
-        <v>191195512000</v>
+        <v>112400652000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1672323900000</v>
+        <v>1672310280000</v>
       </c>
       <c r="B52">
-        <v>14334600</v>
+        <v>1046600</v>
       </c>
       <c r="C52">
-        <v>6662000</v>
+        <v>417900</v>
       </c>
       <c r="D52">
-        <v>164500</v>
+        <v>1000</v>
       </c>
       <c r="E52">
-        <v>230099356000</v>
+        <v>15145808000</v>
       </c>
       <c r="F52">
-        <v>121543773000</v>
+        <v>7877281000</v>
       </c>
       <c r="G52">
-        <v>2953785000</v>
+        <v>21789000</v>
       </c>
       <c r="H52">
-        <v>21161100</v>
+        <v>1465500</v>
       </c>
       <c r="I52">
-        <v>354596914000</v>
+        <v>23044878000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-29T14:25:00.000Z</v>
+        <v>2022-12-29T10:38:00.000Z</v>
       </c>
       <c r="K52">
-        <v>5098383675000</v>
+        <v>1762589980000</v>
       </c>
       <c r="L52">
-        <v>320024300</v>
+        <v>122629700</v>
       </c>
       <c r="M52">
-        <v>-7672600</v>
+        <v>-628700</v>
       </c>
       <c r="N52">
-        <v>-108555583000</v>
+        <v>-7268527000</v>
       </c>
       <c r="O52">
-        <v>4147400</v>
+        <v>14126000</v>
       </c>
       <c r="P52">
-        <v>82639929000</v>
+        <v>105132125000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1672324200000</v>
+        <v>1672310400000</v>
       </c>
       <c r="B53">
-        <v>28600</v>
+        <v>1090500</v>
       </c>
       <c r="C53">
-        <v>23800</v>
+        <v>280100</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>44700</v>
       </c>
       <c r="E53">
-        <v>676919000</v>
+        <v>17151537000</v>
       </c>
       <c r="F53">
-        <v>397021000</v>
+        <v>5318097000</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>667900000</v>
       </c>
       <c r="H53">
-        <v>52400</v>
+        <v>1415300</v>
       </c>
       <c r="I53">
-        <v>1073940000</v>
+        <v>23137534000</v>
       </c>
       <c r="J53" t="str">
-        <v>2022-12-29T14:30:00.000Z</v>
+        <v>2022-12-29T10:40:00.000Z</v>
       </c>
       <c r="K53">
-        <v>5099457615000</v>
+        <v>1785727514000</v>
       </c>
       <c r="L53">
-        <v>320076700</v>
+        <v>124045000</v>
       </c>
       <c r="M53">
-        <v>-4800</v>
+        <v>-810400</v>
       </c>
       <c r="N53">
-        <v>-279898000</v>
+        <v>-11833440000</v>
       </c>
       <c r="O53">
-        <v>4142600</v>
+        <v>13315600</v>
       </c>
       <c r="P53">
-        <v>82360031000</v>
+        <v>93298685000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1672324500000</v>
+        <v>1672310520000</v>
       </c>
       <c r="B54">
-        <v>1300</v>
+        <v>770500</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>445500</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="E54">
-        <v>15209999.999999998</v>
+        <v>11864676000</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>7553637000</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>27041000</v>
       </c>
       <c r="H54">
-        <v>1300</v>
+        <v>1220700</v>
       </c>
       <c r="I54">
-        <v>15209999.999999998</v>
+        <v>19445354000</v>
       </c>
       <c r="J54" t="str">
-        <v>2022-12-29T14:35:00.000Z</v>
+        <v>2022-12-29T10:42:00.000Z</v>
       </c>
       <c r="K54">
-        <v>5099472825000</v>
+        <v>1805172868000</v>
       </c>
       <c r="L54">
-        <v>320078000</v>
+        <v>125265700</v>
       </c>
       <c r="M54">
-        <v>-1300</v>
+        <v>-325000</v>
       </c>
       <c r="N54">
-        <v>-15209999.999999998</v>
+        <v>-4311039000</v>
       </c>
       <c r="O54">
-        <v>4141300</v>
+        <v>12990600</v>
       </c>
       <c r="P54">
-        <v>82344821000</v>
+        <v>88987646000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1672324800000</v>
+        <v>1672310640000</v>
       </c>
       <c r="B55">
-        <v>100</v>
+        <v>656000</v>
       </c>
       <c r="C55">
-        <v>1300</v>
+        <v>638100</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="E55">
-        <v>1160000</v>
+        <v>9593025000</v>
       </c>
       <c r="F55">
-        <v>15210000</v>
+        <v>11665824000</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>247325000</v>
       </c>
       <c r="H55">
-        <v>1400</v>
+        <v>1304200</v>
       </c>
       <c r="I55">
-        <v>16370000</v>
+        <v>21506174000</v>
       </c>
       <c r="J55" t="str">
-        <v>2022-12-29T14:40:00.000Z</v>
+        <v>2022-12-29T10:44:00.000Z</v>
       </c>
       <c r="K55">
-        <v>5099489195000</v>
+        <v>1826679042000</v>
       </c>
       <c r="L55">
-        <v>320079400</v>
+        <v>126569900</v>
       </c>
       <c r="M55">
-        <v>1200</v>
+        <v>-17900</v>
       </c>
       <c r="N55">
-        <v>14050000</v>
+        <v>2072799000</v>
       </c>
       <c r="O55">
-        <v>4142500</v>
+        <v>12972700</v>
       </c>
       <c r="P55">
-        <v>82358871000</v>
+        <v>91060445000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1672325100000</v>
+        <v>1672310760000</v>
       </c>
       <c r="B56">
-        <v>11446400</v>
+        <v>744900</v>
       </c>
       <c r="C56">
-        <v>8192400</v>
+        <v>679100</v>
       </c>
       <c r="D56">
-        <v>16626600</v>
+        <v>100</v>
       </c>
       <c r="E56">
-        <v>235554542000</v>
+        <v>12931324000</v>
       </c>
       <c r="F56">
-        <v>184303827000</v>
+        <v>12637837000</v>
       </c>
       <c r="G56">
-        <v>302122758000</v>
+        <v>409999.99999999994</v>
       </c>
       <c r="H56">
-        <v>36265400</v>
+        <v>1424100</v>
       </c>
       <c r="I56">
-        <v>721981127000</v>
+        <v>25569571000</v>
       </c>
       <c r="J56" t="str">
-        <v>2022-12-29T14:45:00.000Z</v>
+        <v>2022-12-29T10:46:00.000Z</v>
       </c>
       <c r="K56">
-        <v>5821470322000</v>
+        <v>1852248613000</v>
       </c>
       <c r="L56">
-        <v>356344800</v>
+        <v>127994000</v>
       </c>
       <c r="M56">
-        <v>-3254000</v>
+        <v>-65800</v>
       </c>
       <c r="N56">
-        <v>-51250715000</v>
+        <v>-293487000</v>
       </c>
       <c r="O56">
-        <v>888500</v>
+        <v>12906900</v>
       </c>
       <c r="P56">
-        <v>31108156000</v>
+        <v>90766958000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
+        <v>1672310880000</v>
+      </c>
+      <c r="B57">
+        <v>305600</v>
+      </c>
+      <c r="C57">
+        <v>817800</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+      <c r="E57">
+        <v>5319973000</v>
+      </c>
+      <c r="F57">
+        <v>15177383000</v>
+      </c>
+      <c r="G57">
+        <v>3000000</v>
+      </c>
+      <c r="H57">
+        <v>1123600</v>
+      </c>
+      <c r="I57">
+        <v>20500356000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-29T10:48:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>1872748969000</v>
+      </c>
+      <c r="L57">
+        <v>129117600</v>
+      </c>
+      <c r="M57">
+        <v>512200</v>
+      </c>
+      <c r="N57">
+        <v>9857410000</v>
+      </c>
+      <c r="O57">
+        <v>13419100</v>
+      </c>
+      <c r="P57">
+        <v>100624368000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1672311000000</v>
+      </c>
+      <c r="B58">
+        <v>379500</v>
+      </c>
+      <c r="C58">
+        <v>551300</v>
+      </c>
+      <c r="D58">
+        <v>300</v>
+      </c>
+      <c r="E58">
+        <v>6605405000</v>
+      </c>
+      <c r="F58">
+        <v>8988292000</v>
+      </c>
+      <c r="G58">
+        <v>1245000.0000000002</v>
+      </c>
+      <c r="H58">
+        <v>931100</v>
+      </c>
+      <c r="I58">
+        <v>15594942000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-29T10:50:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>1888343911000</v>
+      </c>
+      <c r="L58">
+        <v>130048700</v>
+      </c>
+      <c r="M58">
+        <v>171800</v>
+      </c>
+      <c r="N58">
+        <v>2382887000</v>
+      </c>
+      <c r="O58">
+        <v>13590900</v>
+      </c>
+      <c r="P58">
+        <v>103007255000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1672311120000</v>
+      </c>
+      <c r="B59">
+        <v>847000</v>
+      </c>
+      <c r="C59">
+        <v>446700</v>
+      </c>
+      <c r="D59">
+        <v>2900</v>
+      </c>
+      <c r="E59">
+        <v>13466677000</v>
+      </c>
+      <c r="F59">
+        <v>9622436000</v>
+      </c>
+      <c r="G59">
+        <v>17980000</v>
+      </c>
+      <c r="H59">
+        <v>1296600</v>
+      </c>
+      <c r="I59">
+        <v>23107093000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-29T10:52:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>1911451004000</v>
+      </c>
+      <c r="L59">
+        <v>131345300</v>
+      </c>
+      <c r="M59">
+        <v>-400300</v>
+      </c>
+      <c r="N59">
+        <v>-3844241000</v>
+      </c>
+      <c r="O59">
+        <v>13190600</v>
+      </c>
+      <c r="P59">
+        <v>99163014000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1672311240000</v>
+      </c>
+      <c r="B60">
+        <v>602000</v>
+      </c>
+      <c r="C60">
+        <v>362400</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>8798571000</v>
+      </c>
+      <c r="F60">
+        <v>7131957000</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>964400</v>
+      </c>
+      <c r="I60">
+        <v>15930528000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-29T10:54:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>1927381532000</v>
+      </c>
+      <c r="L60">
+        <v>132309700</v>
+      </c>
+      <c r="M60">
+        <v>-239600</v>
+      </c>
+      <c r="N60">
+        <v>-1666614000</v>
+      </c>
+      <c r="O60">
+        <v>12951000</v>
+      </c>
+      <c r="P60">
+        <v>97496400000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1672311360000</v>
+      </c>
+      <c r="B61">
+        <v>602700</v>
+      </c>
+      <c r="C61">
+        <v>458400</v>
+      </c>
+      <c r="D61">
+        <v>2200</v>
+      </c>
+      <c r="E61">
+        <v>9113163000</v>
+      </c>
+      <c r="F61">
+        <v>8487383000</v>
+      </c>
+      <c r="G61">
+        <v>59339000</v>
+      </c>
+      <c r="H61">
+        <v>1063300</v>
+      </c>
+      <c r="I61">
+        <v>17659885000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-29T10:56:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>1945041417000</v>
+      </c>
+      <c r="L61">
+        <v>133373000</v>
+      </c>
+      <c r="M61">
+        <v>-144300</v>
+      </c>
+      <c r="N61">
+        <v>-625780000</v>
+      </c>
+      <c r="O61">
+        <v>12806700</v>
+      </c>
+      <c r="P61">
+        <v>96870620000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1672311480000</v>
+      </c>
+      <c r="B62">
+        <v>455100</v>
+      </c>
+      <c r="C62">
+        <v>573900</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>7108062000</v>
+      </c>
+      <c r="F62">
+        <v>11003653000</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1029000</v>
+      </c>
+      <c r="I62">
+        <v>18111715000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-29T10:58:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>1963153132000</v>
+      </c>
+      <c r="L62">
+        <v>134402000</v>
+      </c>
+      <c r="M62">
+        <v>118800</v>
+      </c>
+      <c r="N62">
+        <v>3895591000</v>
+      </c>
+      <c r="O62">
+        <v>12925500</v>
+      </c>
+      <c r="P62">
+        <v>100766211000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1672311600000</v>
+      </c>
+      <c r="B63">
+        <v>556500</v>
+      </c>
+      <c r="C63">
+        <v>317800</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>9801681000</v>
+      </c>
+      <c r="F63">
+        <v>6826984000</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>874300</v>
+      </c>
+      <c r="I63">
+        <v>16628665000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-29T11:00:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>1979781797000</v>
+      </c>
+      <c r="L63">
+        <v>135276300</v>
+      </c>
+      <c r="M63">
+        <v>-238700</v>
+      </c>
+      <c r="N63">
+        <v>-2974697000</v>
+      </c>
+      <c r="O63">
+        <v>12686800</v>
+      </c>
+      <c r="P63">
+        <v>97791514000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1672311720000</v>
+      </c>
+      <c r="B64">
+        <v>629400</v>
+      </c>
+      <c r="C64">
+        <v>451900</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>10113635000</v>
+      </c>
+      <c r="F64">
+        <v>8360398000</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1081300</v>
+      </c>
+      <c r="I64">
+        <v>18474033000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-29T11:02:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>1998255830000</v>
+      </c>
+      <c r="L64">
+        <v>136357600</v>
+      </c>
+      <c r="M64">
+        <v>-177500</v>
+      </c>
+      <c r="N64">
+        <v>-1753237000</v>
+      </c>
+      <c r="O64">
+        <v>12509300</v>
+      </c>
+      <c r="P64">
+        <v>96038277000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1672311840000</v>
+      </c>
+      <c r="B65">
+        <v>1648900</v>
+      </c>
+      <c r="C65">
+        <v>383600</v>
+      </c>
+      <c r="D65">
+        <v>600</v>
+      </c>
+      <c r="E65">
+        <v>26423195000</v>
+      </c>
+      <c r="F65">
+        <v>6495631000</v>
+      </c>
+      <c r="G65">
+        <v>10496000</v>
+      </c>
+      <c r="H65">
+        <v>2033100</v>
+      </c>
+      <c r="I65">
+        <v>32929322000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-29T11:04:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2031185152000</v>
+      </c>
+      <c r="L65">
+        <v>138390700</v>
+      </c>
+      <c r="M65">
+        <v>-1265300</v>
+      </c>
+      <c r="N65">
+        <v>-19927564000</v>
+      </c>
+      <c r="O65">
+        <v>11244000</v>
+      </c>
+      <c r="P65">
+        <v>76110713000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1672311960000</v>
+      </c>
+      <c r="B66">
+        <v>1666900</v>
+      </c>
+      <c r="C66">
+        <v>432300</v>
+      </c>
+      <c r="D66">
+        <v>5300</v>
+      </c>
+      <c r="E66">
+        <v>25934056000</v>
+      </c>
+      <c r="F66">
+        <v>7971028000</v>
+      </c>
+      <c r="G66">
+        <v>57282000</v>
+      </c>
+      <c r="H66">
+        <v>2104500</v>
+      </c>
+      <c r="I66">
+        <v>33962366000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-29T11:06:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2065147518000</v>
+      </c>
+      <c r="L66">
+        <v>140495200</v>
+      </c>
+      <c r="M66">
+        <v>-1234600</v>
+      </c>
+      <c r="N66">
+        <v>-17963028000</v>
+      </c>
+      <c r="O66">
+        <v>10009400</v>
+      </c>
+      <c r="P66">
+        <v>58147685000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1672312080000</v>
+      </c>
+      <c r="B67">
+        <v>2540300</v>
+      </c>
+      <c r="C67">
+        <v>280700</v>
+      </c>
+      <c r="D67">
+        <v>8600</v>
+      </c>
+      <c r="E67">
+        <v>43514962000</v>
+      </c>
+      <c r="F67">
+        <v>4846873000</v>
+      </c>
+      <c r="G67">
+        <v>82383000</v>
+      </c>
+      <c r="H67">
+        <v>2829600</v>
+      </c>
+      <c r="I67">
+        <v>48444218000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-29T11:08:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>2113591736000</v>
+      </c>
+      <c r="L67">
+        <v>143324800</v>
+      </c>
+      <c r="M67">
+        <v>-2259600</v>
+      </c>
+      <c r="N67">
+        <v>-38668089000</v>
+      </c>
+      <c r="O67">
+        <v>7749800</v>
+      </c>
+      <c r="P67">
+        <v>19479596000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1672312200000</v>
+      </c>
+      <c r="B68">
+        <v>2398900</v>
+      </c>
+      <c r="C68">
+        <v>496400</v>
+      </c>
+      <c r="D68">
+        <v>4700</v>
+      </c>
+      <c r="E68">
+        <v>31943683000</v>
+      </c>
+      <c r="F68">
+        <v>8315972000</v>
+      </c>
+      <c r="G68">
+        <v>47335000</v>
+      </c>
+      <c r="H68">
+        <v>2900000</v>
+      </c>
+      <c r="I68">
+        <v>40306990000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-29T11:10:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>2153898726000</v>
+      </c>
+      <c r="L68">
+        <v>146224800</v>
+      </c>
+      <c r="M68">
+        <v>-1902500</v>
+      </c>
+      <c r="N68">
+        <v>-23627711000</v>
+      </c>
+      <c r="O68">
+        <v>5847300</v>
+      </c>
+      <c r="P68">
+        <v>-4148115000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1672312320000</v>
+      </c>
+      <c r="B69">
+        <v>2589700</v>
+      </c>
+      <c r="C69">
+        <v>393400</v>
+      </c>
+      <c r="D69">
+        <v>2700</v>
+      </c>
+      <c r="E69">
+        <v>37960786000</v>
+      </c>
+      <c r="F69">
+        <v>6285417000</v>
+      </c>
+      <c r="G69">
+        <v>60370000</v>
+      </c>
+      <c r="H69">
+        <v>2985800</v>
+      </c>
+      <c r="I69">
+        <v>44306573000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-29T11:12:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>2198205299000</v>
+      </c>
+      <c r="L69">
+        <v>149210600</v>
+      </c>
+      <c r="M69">
+        <v>-2196300</v>
+      </c>
+      <c r="N69">
+        <v>-31675369000</v>
+      </c>
+      <c r="O69">
+        <v>3651000</v>
+      </c>
+      <c r="P69">
+        <v>-35823484000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1672312440000</v>
+      </c>
+      <c r="B70">
+        <v>1280400</v>
+      </c>
+      <c r="C70">
+        <v>685700</v>
+      </c>
+      <c r="D70">
+        <v>23900</v>
+      </c>
+      <c r="E70">
+        <v>22458121000</v>
+      </c>
+      <c r="F70">
+        <v>13541758000</v>
+      </c>
+      <c r="G70">
+        <v>306260000</v>
+      </c>
+      <c r="H70">
+        <v>1990000</v>
+      </c>
+      <c r="I70">
+        <v>36306139000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-29T11:14:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>2234511438000</v>
+      </c>
+      <c r="L70">
+        <v>151200600</v>
+      </c>
+      <c r="M70">
+        <v>-594700</v>
+      </c>
+      <c r="N70">
+        <v>-8916363000</v>
+      </c>
+      <c r="O70">
+        <v>3056300</v>
+      </c>
+      <c r="P70">
+        <v>-44739847000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1672312560000</v>
+      </c>
+      <c r="B71">
+        <v>1317400</v>
+      </c>
+      <c r="C71">
+        <v>331800</v>
+      </c>
+      <c r="D71">
+        <v>5700</v>
+      </c>
+      <c r="E71">
+        <v>22809968000</v>
+      </c>
+      <c r="F71">
+        <v>6674557000</v>
+      </c>
+      <c r="G71">
+        <v>377473000</v>
+      </c>
+      <c r="H71">
+        <v>1654900</v>
+      </c>
+      <c r="I71">
+        <v>29861998000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-29T11:16:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>2264373436000</v>
+      </c>
+      <c r="L71">
+        <v>152855500</v>
+      </c>
+      <c r="M71">
+        <v>-985600</v>
+      </c>
+      <c r="N71">
+        <v>-16135411000</v>
+      </c>
+      <c r="O71">
+        <v>2070700</v>
+      </c>
+      <c r="P71">
+        <v>-60875258000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1672312680000</v>
+      </c>
+      <c r="B72">
+        <v>1308700</v>
+      </c>
+      <c r="C72">
+        <v>526000</v>
+      </c>
+      <c r="D72">
+        <v>2100</v>
+      </c>
+      <c r="E72">
+        <v>22537131000</v>
+      </c>
+      <c r="F72">
+        <v>10187758000</v>
+      </c>
+      <c r="G72">
+        <v>24360000</v>
+      </c>
+      <c r="H72">
+        <v>1836800</v>
+      </c>
+      <c r="I72">
+        <v>32749249000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-29T11:18:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>2297122685000</v>
+      </c>
+      <c r="L72">
+        <v>154692300</v>
+      </c>
+      <c r="M72">
+        <v>-782700</v>
+      </c>
+      <c r="N72">
+        <v>-12349373000</v>
+      </c>
+      <c r="O72">
+        <v>1288000</v>
+      </c>
+      <c r="P72">
+        <v>-73224631000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1672312800000</v>
+      </c>
+      <c r="B73">
+        <v>705400</v>
+      </c>
+      <c r="C73">
+        <v>589200</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>13909434000</v>
+      </c>
+      <c r="F73">
+        <v>11278701000</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1294600</v>
+      </c>
+      <c r="I73">
+        <v>25188135000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-29T11:20:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>2322310820000</v>
+      </c>
+      <c r="L73">
+        <v>155986900</v>
+      </c>
+      <c r="M73">
+        <v>-116200</v>
+      </c>
+      <c r="N73">
+        <v>-2630733000</v>
+      </c>
+      <c r="O73">
+        <v>1171800</v>
+      </c>
+      <c r="P73">
+        <v>-75855364000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1672312920000</v>
+      </c>
+      <c r="B74">
+        <v>848400</v>
+      </c>
+      <c r="C74">
+        <v>435000</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>15859107000</v>
+      </c>
+      <c r="F74">
+        <v>7391053000</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1283400</v>
+      </c>
+      <c r="I74">
+        <v>23250160000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-29T11:22:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>2345560980000</v>
+      </c>
+      <c r="L74">
+        <v>157270300</v>
+      </c>
+      <c r="M74">
+        <v>-413400</v>
+      </c>
+      <c r="N74">
+        <v>-8468054000</v>
+      </c>
+      <c r="O74">
+        <v>758400</v>
+      </c>
+      <c r="P74">
+        <v>-84323418000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1672313040000</v>
+      </c>
+      <c r="B75">
+        <v>1207000</v>
+      </c>
+      <c r="C75">
+        <v>398600</v>
+      </c>
+      <c r="D75">
+        <v>1000</v>
+      </c>
+      <c r="E75">
+        <v>22178544000</v>
+      </c>
+      <c r="F75">
+        <v>8235000000</v>
+      </c>
+      <c r="G75">
+        <v>4850000</v>
+      </c>
+      <c r="H75">
+        <v>1606600</v>
+      </c>
+      <c r="I75">
+        <v>30418394000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-29T11:24:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>2375979374000</v>
+      </c>
+      <c r="L75">
+        <v>158876900</v>
+      </c>
+      <c r="M75">
+        <v>-808400</v>
+      </c>
+      <c r="N75">
+        <v>-13943544000</v>
+      </c>
+      <c r="O75">
+        <v>-50000</v>
+      </c>
+      <c r="P75">
+        <v>-98266962000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1672313160000</v>
+      </c>
+      <c r="B76">
+        <v>1192000</v>
+      </c>
+      <c r="C76">
+        <v>435100</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>18174500000</v>
+      </c>
+      <c r="F76">
+        <v>8101042000</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1627100</v>
+      </c>
+      <c r="I76">
+        <v>26275542000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-29T11:26:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>2402254916000</v>
+      </c>
+      <c r="L76">
+        <v>160504000</v>
+      </c>
+      <c r="M76">
+        <v>-756900</v>
+      </c>
+      <c r="N76">
+        <v>-10073458000</v>
+      </c>
+      <c r="O76">
+        <v>-806900</v>
+      </c>
+      <c r="P76">
+        <v>-108340420000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1672313280000</v>
+      </c>
+      <c r="B77">
+        <v>940600</v>
+      </c>
+      <c r="C77">
+        <v>372000</v>
+      </c>
+      <c r="D77">
+        <v>2500</v>
+      </c>
+      <c r="E77">
+        <v>14759941000</v>
+      </c>
+      <c r="F77">
+        <v>6279360000</v>
+      </c>
+      <c r="G77">
+        <v>172500000</v>
+      </c>
+      <c r="H77">
+        <v>1315100</v>
+      </c>
+      <c r="I77">
+        <v>21211801000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-29T11:28:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>2423466717000</v>
+      </c>
+      <c r="L77">
+        <v>161819100</v>
+      </c>
+      <c r="M77">
+        <v>-568600</v>
+      </c>
+      <c r="N77">
+        <v>-8480581000</v>
+      </c>
+      <c r="O77">
+        <v>-1375500</v>
+      </c>
+      <c r="P77">
+        <v>-116821001000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1672313400000</v>
+      </c>
+      <c r="B78">
+        <v>101000</v>
+      </c>
+      <c r="C78">
+        <v>3700</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1842150000</v>
+      </c>
+      <c r="F78">
+        <v>37860000</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>104700</v>
+      </c>
+      <c r="I78">
+        <v>1880010000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-29T11:30:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>2425346727000</v>
+      </c>
+      <c r="L78">
+        <v>161923800</v>
+      </c>
+      <c r="M78">
+        <v>-97300</v>
+      </c>
+      <c r="N78">
+        <v>-1804290000</v>
+      </c>
+      <c r="O78">
+        <v>-1472800</v>
+      </c>
+      <c r="P78">
+        <v>-118625291000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1672318680000</v>
+      </c>
+      <c r="B79">
+        <v>1100</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>12870000</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1100</v>
+      </c>
+      <c r="I79">
+        <v>12870000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-29T12:58:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>2425359597000</v>
+      </c>
+      <c r="L79">
+        <v>161924900</v>
+      </c>
+      <c r="M79">
+        <v>-1100</v>
+      </c>
+      <c r="N79">
+        <v>-12870000</v>
+      </c>
+      <c r="O79">
+        <v>-1473900</v>
+      </c>
+      <c r="P79">
+        <v>-118638161000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1672318800000</v>
+      </c>
+      <c r="B80">
+        <v>6017600</v>
+      </c>
+      <c r="C80">
+        <v>2487400</v>
+      </c>
+      <c r="D80">
+        <v>261000</v>
+      </c>
+      <c r="E80">
+        <v>86800548000</v>
+      </c>
+      <c r="F80">
+        <v>37080570000</v>
+      </c>
+      <c r="G80">
+        <v>3206832000</v>
+      </c>
+      <c r="H80">
+        <v>8766000</v>
+      </c>
+      <c r="I80">
+        <v>127087950000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-29T13:00:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>2552447547000</v>
+      </c>
+      <c r="L80">
+        <v>170690900</v>
+      </c>
+      <c r="M80">
+        <v>-3530200</v>
+      </c>
+      <c r="N80">
+        <v>-49719978000</v>
+      </c>
+      <c r="O80">
+        <v>-5004100</v>
+      </c>
+      <c r="P80">
+        <v>-168358139000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1672318920000</v>
+      </c>
+      <c r="B81">
+        <v>2193700</v>
+      </c>
+      <c r="C81">
+        <v>1280800</v>
+      </c>
+      <c r="D81">
+        <v>11500</v>
+      </c>
+      <c r="E81">
+        <v>32487822000</v>
+      </c>
+      <c r="F81">
+        <v>22027436000</v>
+      </c>
+      <c r="G81">
+        <v>137016000</v>
+      </c>
+      <c r="H81">
+        <v>3486000</v>
+      </c>
+      <c r="I81">
+        <v>54652274000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-29T13:02:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>2607099821000</v>
+      </c>
+      <c r="L81">
+        <v>174176900</v>
+      </c>
+      <c r="M81">
+        <v>-912900</v>
+      </c>
+      <c r="N81">
+        <v>-10460386000</v>
+      </c>
+      <c r="O81">
+        <v>-5917000</v>
+      </c>
+      <c r="P81">
+        <v>-178818525000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1672319040000</v>
+      </c>
+      <c r="B82">
+        <v>2107000</v>
+      </c>
+      <c r="C82">
+        <v>1453800</v>
+      </c>
+      <c r="D82">
+        <v>25400</v>
+      </c>
+      <c r="E82">
+        <v>35967432000</v>
+      </c>
+      <c r="F82">
+        <v>24059346000</v>
+      </c>
+      <c r="G82">
+        <v>484904000</v>
+      </c>
+      <c r="H82">
+        <v>3586200</v>
+      </c>
+      <c r="I82">
+        <v>60511682000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-29T13:04:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>2667611503000</v>
+      </c>
+      <c r="L82">
+        <v>177763100</v>
+      </c>
+      <c r="M82">
+        <v>-653200</v>
+      </c>
+      <c r="N82">
+        <v>-11908086000</v>
+      </c>
+      <c r="O82">
+        <v>-6570200</v>
+      </c>
+      <c r="P82">
+        <v>-190726611000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1672319160000</v>
+      </c>
+      <c r="B83">
+        <v>1393600</v>
+      </c>
+      <c r="C83">
+        <v>2243200</v>
+      </c>
+      <c r="D83">
+        <v>48300</v>
+      </c>
+      <c r="E83">
+        <v>23154012000</v>
+      </c>
+      <c r="F83">
+        <v>33055230000</v>
+      </c>
+      <c r="G83">
+        <v>1000009000</v>
+      </c>
+      <c r="H83">
+        <v>3685100</v>
+      </c>
+      <c r="I83">
+        <v>57209251000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-29T13:06:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>2724820754000</v>
+      </c>
+      <c r="L83">
+        <v>181448200</v>
+      </c>
+      <c r="M83">
+        <v>849600</v>
+      </c>
+      <c r="N83">
+        <v>9901218000</v>
+      </c>
+      <c r="O83">
+        <v>-5720600</v>
+      </c>
+      <c r="P83">
+        <v>-180825393000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1672319280000</v>
+      </c>
+      <c r="B84">
+        <v>909800</v>
+      </c>
+      <c r="C84">
+        <v>2079900</v>
+      </c>
+      <c r="D84">
+        <v>11000</v>
+      </c>
+      <c r="E84">
+        <v>13060706000</v>
+      </c>
+      <c r="F84">
+        <v>30114679000</v>
+      </c>
+      <c r="G84">
+        <v>196812000</v>
+      </c>
+      <c r="H84">
+        <v>3000700</v>
+      </c>
+      <c r="I84">
+        <v>43372197000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-29T13:08:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>2768192951000</v>
+      </c>
+      <c r="L84">
+        <v>184448900</v>
+      </c>
+      <c r="M84">
+        <v>1170100</v>
+      </c>
+      <c r="N84">
+        <v>17053973000</v>
+      </c>
+      <c r="O84">
+        <v>-4550500</v>
+      </c>
+      <c r="P84">
+        <v>-163771420000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1672319400000</v>
+      </c>
+      <c r="B85">
+        <v>875600</v>
+      </c>
+      <c r="C85">
+        <v>2007900</v>
+      </c>
+      <c r="D85">
+        <v>19500</v>
+      </c>
+      <c r="E85">
+        <v>14307175000</v>
+      </c>
+      <c r="F85">
+        <v>35688549000</v>
+      </c>
+      <c r="G85">
+        <v>314798000</v>
+      </c>
+      <c r="H85">
+        <v>2903000</v>
+      </c>
+      <c r="I85">
+        <v>50310522000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-29T13:10:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>2818503473000</v>
+      </c>
+      <c r="L85">
+        <v>187351900</v>
+      </c>
+      <c r="M85">
+        <v>1132300</v>
+      </c>
+      <c r="N85">
+        <v>21381374000</v>
+      </c>
+      <c r="O85">
+        <v>-3418200</v>
+      </c>
+      <c r="P85">
+        <v>-142390046000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1672319520000</v>
+      </c>
+      <c r="B86">
+        <v>1335800</v>
+      </c>
+      <c r="C86">
+        <v>982400</v>
+      </c>
+      <c r="D86">
+        <v>13100</v>
+      </c>
+      <c r="E86">
+        <v>24677554000</v>
+      </c>
+      <c r="F86">
+        <v>16488813000</v>
+      </c>
+      <c r="G86">
+        <v>172375000</v>
+      </c>
+      <c r="H86">
+        <v>2331300</v>
+      </c>
+      <c r="I86">
+        <v>41338742000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-29T13:12:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>2859842215000</v>
+      </c>
+      <c r="L86">
+        <v>189683200</v>
+      </c>
+      <c r="M86">
+        <v>-353400</v>
+      </c>
+      <c r="N86">
+        <v>-8188741000</v>
+      </c>
+      <c r="O86">
+        <v>-3771600</v>
+      </c>
+      <c r="P86">
+        <v>-150578787000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1672319640000</v>
+      </c>
+      <c r="B87">
+        <v>1985000</v>
+      </c>
+      <c r="C87">
+        <v>675600</v>
+      </c>
+      <c r="D87">
+        <v>12800</v>
+      </c>
+      <c r="E87">
+        <v>30580921000</v>
+      </c>
+      <c r="F87">
+        <v>11417597000</v>
+      </c>
+      <c r="G87">
+        <v>239355000</v>
+      </c>
+      <c r="H87">
+        <v>2673400</v>
+      </c>
+      <c r="I87">
+        <v>42237873000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-29T13:14:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>2902080088000</v>
+      </c>
+      <c r="L87">
+        <v>192356600</v>
+      </c>
+      <c r="M87">
+        <v>-1309400</v>
+      </c>
+      <c r="N87">
+        <v>-19163324000</v>
+      </c>
+      <c r="O87">
+        <v>-5081000</v>
+      </c>
+      <c r="P87">
+        <v>-169742111000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1672319760000</v>
+      </c>
+      <c r="B88">
+        <v>1403400</v>
+      </c>
+      <c r="C88">
+        <v>720900</v>
+      </c>
+      <c r="D88">
+        <v>1700</v>
+      </c>
+      <c r="E88">
+        <v>22092490000</v>
+      </c>
+      <c r="F88">
+        <v>11501226000</v>
+      </c>
+      <c r="G88">
+        <v>38621000</v>
+      </c>
+      <c r="H88">
+        <v>2126000</v>
+      </c>
+      <c r="I88">
+        <v>33632337000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-29T13:16:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>2935712425000</v>
+      </c>
+      <c r="L88">
+        <v>194482600</v>
+      </c>
+      <c r="M88">
+        <v>-682500</v>
+      </c>
+      <c r="N88">
+        <v>-10591264000</v>
+      </c>
+      <c r="O88">
+        <v>-5763500</v>
+      </c>
+      <c r="P88">
+        <v>-180333375000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1672319880000</v>
+      </c>
+      <c r="B89">
+        <v>1279000</v>
+      </c>
+      <c r="C89">
+        <v>1004100</v>
+      </c>
+      <c r="D89">
+        <v>8100</v>
+      </c>
+      <c r="E89">
+        <v>19093781000</v>
+      </c>
+      <c r="F89">
+        <v>20623171000</v>
+      </c>
+      <c r="G89">
+        <v>109800000</v>
+      </c>
+      <c r="H89">
+        <v>2291200</v>
+      </c>
+      <c r="I89">
+        <v>39826752000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-29T13:18:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>2975539177000</v>
+      </c>
+      <c r="L89">
+        <v>196773800</v>
+      </c>
+      <c r="M89">
+        <v>-274900</v>
+      </c>
+      <c r="N89">
+        <v>1529390000</v>
+      </c>
+      <c r="O89">
+        <v>-6038400</v>
+      </c>
+      <c r="P89">
+        <v>-178803985000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1672320000000</v>
+      </c>
+      <c r="B90">
+        <v>659100</v>
+      </c>
+      <c r="C90">
+        <v>830900</v>
+      </c>
+      <c r="D90">
+        <v>2000</v>
+      </c>
+      <c r="E90">
+        <v>9460031000</v>
+      </c>
+      <c r="F90">
+        <v>14230128000</v>
+      </c>
+      <c r="G90">
+        <v>35525000</v>
+      </c>
+      <c r="H90">
+        <v>1492000</v>
+      </c>
+      <c r="I90">
+        <v>23725684000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-29T13:20:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>2999264861000</v>
+      </c>
+      <c r="L90">
+        <v>198265800</v>
+      </c>
+      <c r="M90">
+        <v>171800</v>
+      </c>
+      <c r="N90">
+        <v>4770097000</v>
+      </c>
+      <c r="O90">
+        <v>-5866600</v>
+      </c>
+      <c r="P90">
+        <v>-174033888000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1672320120000</v>
+      </c>
+      <c r="B91">
+        <v>743000</v>
+      </c>
+      <c r="C91">
+        <v>1153700</v>
+      </c>
+      <c r="D91">
+        <v>600</v>
+      </c>
+      <c r="E91">
+        <v>12933837000</v>
+      </c>
+      <c r="F91">
+        <v>16248331000</v>
+      </c>
+      <c r="G91">
+        <v>12750000</v>
+      </c>
+      <c r="H91">
+        <v>1897300</v>
+      </c>
+      <c r="I91">
+        <v>29194918000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-29T13:22:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>3028459779000</v>
+      </c>
+      <c r="L91">
+        <v>200163100</v>
+      </c>
+      <c r="M91">
+        <v>410700</v>
+      </c>
+      <c r="N91">
+        <v>3314494000</v>
+      </c>
+      <c r="O91">
+        <v>-5455900</v>
+      </c>
+      <c r="P91">
+        <v>-170719394000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1672320240000</v>
+      </c>
+      <c r="B92">
+        <v>661200</v>
+      </c>
+      <c r="C92">
+        <v>1354200</v>
+      </c>
+      <c r="D92">
+        <v>19500</v>
+      </c>
+      <c r="E92">
+        <v>9564579000</v>
+      </c>
+      <c r="F92">
+        <v>21951863000</v>
+      </c>
+      <c r="G92">
+        <v>83540000</v>
+      </c>
+      <c r="H92">
+        <v>2034900</v>
+      </c>
+      <c r="I92">
+        <v>31599982000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-29T13:24:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>3060059761000</v>
+      </c>
+      <c r="L92">
+        <v>202198000</v>
+      </c>
+      <c r="M92">
+        <v>693000</v>
+      </c>
+      <c r="N92">
+        <v>12387284000</v>
+      </c>
+      <c r="O92">
+        <v>-4762900</v>
+      </c>
+      <c r="P92">
+        <v>-158332110000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1672320360000</v>
+      </c>
+      <c r="B93">
+        <v>755200</v>
+      </c>
+      <c r="C93">
+        <v>1493100</v>
+      </c>
+      <c r="D93">
+        <v>11900</v>
+      </c>
+      <c r="E93">
+        <v>12793813000</v>
+      </c>
+      <c r="F93">
+        <v>24996594000</v>
+      </c>
+      <c r="G93">
+        <v>274484000</v>
+      </c>
+      <c r="H93">
+        <v>2260200</v>
+      </c>
+      <c r="I93">
+        <v>38064891000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-29T13:26:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>3098124652000</v>
+      </c>
+      <c r="L93">
+        <v>204458200</v>
+      </c>
+      <c r="M93">
+        <v>737900</v>
+      </c>
+      <c r="N93">
+        <v>12202781000</v>
+      </c>
+      <c r="O93">
+        <v>-4025000</v>
+      </c>
+      <c r="P93">
+        <v>-146129329000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1672320480000</v>
+      </c>
+      <c r="B94">
+        <v>539700</v>
+      </c>
+      <c r="C94">
+        <v>1633500</v>
+      </c>
+      <c r="D94">
+        <v>16000</v>
+      </c>
+      <c r="E94">
+        <v>9452305000</v>
+      </c>
+      <c r="F94">
+        <v>26864607000</v>
+      </c>
+      <c r="G94">
+        <v>187643000</v>
+      </c>
+      <c r="H94">
+        <v>2189200</v>
+      </c>
+      <c r="I94">
+        <v>36504555000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-29T13:28:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>3134629207000</v>
+      </c>
+      <c r="L94">
+        <v>206647400</v>
+      </c>
+      <c r="M94">
+        <v>1093800</v>
+      </c>
+      <c r="N94">
+        <v>17412302000</v>
+      </c>
+      <c r="O94">
+        <v>-2931200</v>
+      </c>
+      <c r="P94">
+        <v>-128717027000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1672320600000</v>
+      </c>
+      <c r="B95">
+        <v>658100</v>
+      </c>
+      <c r="C95">
+        <v>1446600</v>
+      </c>
+      <c r="D95">
+        <v>32200</v>
+      </c>
+      <c r="E95">
+        <v>11172846000</v>
+      </c>
+      <c r="F95">
+        <v>26242720000</v>
+      </c>
+      <c r="G95">
+        <v>281978000</v>
+      </c>
+      <c r="H95">
+        <v>2136900</v>
+      </c>
+      <c r="I95">
+        <v>37697544000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-29T13:30:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>3172326751000</v>
+      </c>
+      <c r="L95">
+        <v>208784300</v>
+      </c>
+      <c r="M95">
+        <v>788500</v>
+      </c>
+      <c r="N95">
+        <v>15069874000</v>
+      </c>
+      <c r="O95">
+        <v>-2142700</v>
+      </c>
+      <c r="P95">
+        <v>-113647153000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1672320720000</v>
+      </c>
+      <c r="B96">
+        <v>699900</v>
+      </c>
+      <c r="C96">
+        <v>1400700</v>
+      </c>
+      <c r="D96">
+        <v>5500</v>
+      </c>
+      <c r="E96">
+        <v>11370041000</v>
+      </c>
+      <c r="F96">
+        <v>22585223000</v>
+      </c>
+      <c r="G96">
+        <v>121636000</v>
+      </c>
+      <c r="H96">
+        <v>2106100</v>
+      </c>
+      <c r="I96">
+        <v>34076900000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-29T13:32:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>3206403651000</v>
+      </c>
+      <c r="L96">
+        <v>210890400</v>
+      </c>
+      <c r="M96">
+        <v>700800</v>
+      </c>
+      <c r="N96">
+        <v>11215182000</v>
+      </c>
+      <c r="O96">
+        <v>-1441900</v>
+      </c>
+      <c r="P96">
+        <v>-102431971000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1672320840000</v>
+      </c>
+      <c r="B97">
+        <v>602400</v>
+      </c>
+      <c r="C97">
+        <v>1676000</v>
+      </c>
+      <c r="D97">
+        <v>3600</v>
+      </c>
+      <c r="E97">
+        <v>9634617000</v>
+      </c>
+      <c r="F97">
+        <v>26717978000</v>
+      </c>
+      <c r="G97">
+        <v>43619000</v>
+      </c>
+      <c r="H97">
+        <v>2282000</v>
+      </c>
+      <c r="I97">
+        <v>36396214000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-29T13:34:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>3242799865000</v>
+      </c>
+      <c r="L97">
+        <v>213172400</v>
+      </c>
+      <c r="M97">
+        <v>1073600</v>
+      </c>
+      <c r="N97">
+        <v>17083361000</v>
+      </c>
+      <c r="O97">
+        <v>-368300</v>
+      </c>
+      <c r="P97">
+        <v>-85348610000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1672320960000</v>
+      </c>
+      <c r="B98">
+        <v>1269200</v>
+      </c>
+      <c r="C98">
+        <v>1116200</v>
+      </c>
+      <c r="D98">
+        <v>3000</v>
+      </c>
+      <c r="E98">
+        <v>20873217000</v>
+      </c>
+      <c r="F98">
+        <v>16719495000</v>
+      </c>
+      <c r="G98">
+        <v>66947000</v>
+      </c>
+      <c r="H98">
+        <v>2388400</v>
+      </c>
+      <c r="I98">
+        <v>37659659000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-29T13:36:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>3280459524000</v>
+      </c>
+      <c r="L98">
+        <v>215560800</v>
+      </c>
+      <c r="M98">
+        <v>-153000</v>
+      </c>
+      <c r="N98">
+        <v>-4153722000</v>
+      </c>
+      <c r="O98">
+        <v>-521300</v>
+      </c>
+      <c r="P98">
+        <v>-89502332000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1672321080000</v>
+      </c>
+      <c r="B99">
+        <v>1204600</v>
+      </c>
+      <c r="C99">
+        <v>721800</v>
+      </c>
+      <c r="D99">
+        <v>8200</v>
+      </c>
+      <c r="E99">
+        <v>19978615000</v>
+      </c>
+      <c r="F99">
+        <v>10870844000</v>
+      </c>
+      <c r="G99">
+        <v>113196000</v>
+      </c>
+      <c r="H99">
+        <v>1934600</v>
+      </c>
+      <c r="I99">
+        <v>30962655000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-29T13:38:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>3311422179000</v>
+      </c>
+      <c r="L99">
+        <v>217495400</v>
+      </c>
+      <c r="M99">
+        <v>-482800</v>
+      </c>
+      <c r="N99">
+        <v>-9107771000</v>
+      </c>
+      <c r="O99">
+        <v>-1004100</v>
+      </c>
+      <c r="P99">
+        <v>-98610103000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1672321200000</v>
+      </c>
+      <c r="B100">
+        <v>984500</v>
+      </c>
+      <c r="C100">
+        <v>708900</v>
+      </c>
+      <c r="D100">
+        <v>5500</v>
+      </c>
+      <c r="E100">
+        <v>16762887000</v>
+      </c>
+      <c r="F100">
+        <v>11198858000</v>
+      </c>
+      <c r="G100">
+        <v>117505000</v>
+      </c>
+      <c r="H100">
+        <v>1698900</v>
+      </c>
+      <c r="I100">
+        <v>28079250000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-29T13:40:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>3339501429000</v>
+      </c>
+      <c r="L100">
+        <v>219194300</v>
+      </c>
+      <c r="M100">
+        <v>-275600</v>
+      </c>
+      <c r="N100">
+        <v>-5564029000</v>
+      </c>
+      <c r="O100">
+        <v>-1279700</v>
+      </c>
+      <c r="P100">
+        <v>-104174132000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1672321320000</v>
+      </c>
+      <c r="B101">
+        <v>1315100</v>
+      </c>
+      <c r="C101">
+        <v>560500</v>
+      </c>
+      <c r="D101">
+        <v>9200</v>
+      </c>
+      <c r="E101">
+        <v>20784642000</v>
+      </c>
+      <c r="F101">
+        <v>9908769000</v>
+      </c>
+      <c r="G101">
+        <v>219530000</v>
+      </c>
+      <c r="H101">
+        <v>1884800</v>
+      </c>
+      <c r="I101">
+        <v>30912941000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-29T13:42:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>3370414370000</v>
+      </c>
+      <c r="L101">
+        <v>221079100</v>
+      </c>
+      <c r="M101">
+        <v>-754600</v>
+      </c>
+      <c r="N101">
+        <v>-10875873000</v>
+      </c>
+      <c r="O101">
+        <v>-2034300</v>
+      </c>
+      <c r="P101">
+        <v>-115050005000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1672321440000</v>
+      </c>
+      <c r="B102">
+        <v>1601400</v>
+      </c>
+      <c r="C102">
+        <v>804100</v>
+      </c>
+      <c r="D102">
+        <v>2200</v>
+      </c>
+      <c r="E102">
+        <v>26240496000</v>
+      </c>
+      <c r="F102">
+        <v>11311461000</v>
+      </c>
+      <c r="G102">
+        <v>98890000</v>
+      </c>
+      <c r="H102">
+        <v>2407700</v>
+      </c>
+      <c r="I102">
+        <v>37650847000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-29T13:44:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>3408065217000</v>
+      </c>
+      <c r="L102">
+        <v>223486800</v>
+      </c>
+      <c r="M102">
+        <v>-797300</v>
+      </c>
+      <c r="N102">
+        <v>-14929035000</v>
+      </c>
+      <c r="O102">
+        <v>-2831600</v>
+      </c>
+      <c r="P102">
+        <v>-129979040000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1672321560000</v>
+      </c>
+      <c r="B103">
+        <v>925900</v>
+      </c>
+      <c r="C103">
+        <v>1492600</v>
+      </c>
+      <c r="D103">
+        <v>7900</v>
+      </c>
+      <c r="E103">
+        <v>14024382000</v>
+      </c>
+      <c r="F103">
+        <v>23063419000</v>
+      </c>
+      <c r="G103">
+        <v>136345000</v>
+      </c>
+      <c r="H103">
+        <v>2426400</v>
+      </c>
+      <c r="I103">
+        <v>37224146000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-29T13:46:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>3445289363000</v>
+      </c>
+      <c r="L103">
+        <v>225913200</v>
+      </c>
+      <c r="M103">
+        <v>566700</v>
+      </c>
+      <c r="N103">
+        <v>9039037000</v>
+      </c>
+      <c r="O103">
+        <v>-2264900</v>
+      </c>
+      <c r="P103">
+        <v>-120940003000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1672321680000</v>
+      </c>
+      <c r="B104">
+        <v>934800</v>
+      </c>
+      <c r="C104">
+        <v>1232000</v>
+      </c>
+      <c r="D104">
+        <v>6600</v>
+      </c>
+      <c r="E104">
+        <v>15927264000</v>
+      </c>
+      <c r="F104">
+        <v>18649954000</v>
+      </c>
+      <c r="G104">
+        <v>278600000</v>
+      </c>
+      <c r="H104">
+        <v>2173400</v>
+      </c>
+      <c r="I104">
+        <v>34855818000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-29T13:48:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>3480145181000</v>
+      </c>
+      <c r="L104">
+        <v>228086600</v>
+      </c>
+      <c r="M104">
+        <v>297200</v>
+      </c>
+      <c r="N104">
+        <v>2722690000</v>
+      </c>
+      <c r="O104">
+        <v>-1967700</v>
+      </c>
+      <c r="P104">
+        <v>-118217313000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1672321800000</v>
+      </c>
+      <c r="B105">
+        <v>1252300</v>
+      </c>
+      <c r="C105">
+        <v>1118600</v>
+      </c>
+      <c r="D105">
+        <v>17300</v>
+      </c>
+      <c r="E105">
+        <v>19738136000</v>
+      </c>
+      <c r="F105">
+        <v>18903159000</v>
+      </c>
+      <c r="G105">
+        <v>223795000</v>
+      </c>
+      <c r="H105">
+        <v>2388200</v>
+      </c>
+      <c r="I105">
+        <v>38865090000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-29T13:50:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>3519010271000</v>
+      </c>
+      <c r="L105">
+        <v>230474800</v>
+      </c>
+      <c r="M105">
+        <v>-133700</v>
+      </c>
+      <c r="N105">
+        <v>-834977000</v>
+      </c>
+      <c r="O105">
+        <v>-2101400</v>
+      </c>
+      <c r="P105">
+        <v>-119052290000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1672321920000</v>
+      </c>
+      <c r="B106">
+        <v>1429700</v>
+      </c>
+      <c r="C106">
+        <v>910700</v>
+      </c>
+      <c r="D106">
+        <v>36200</v>
+      </c>
+      <c r="E106">
+        <v>24543889000</v>
+      </c>
+      <c r="F106">
+        <v>15281236000</v>
+      </c>
+      <c r="G106">
+        <v>580689000</v>
+      </c>
+      <c r="H106">
+        <v>2376600</v>
+      </c>
+      <c r="I106">
+        <v>40405814000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-29T13:52:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>3559416085000</v>
+      </c>
+      <c r="L106">
+        <v>232851400</v>
+      </c>
+      <c r="M106">
+        <v>-519000</v>
+      </c>
+      <c r="N106">
+        <v>-9262653000</v>
+      </c>
+      <c r="O106">
+        <v>-2620400</v>
+      </c>
+      <c r="P106">
+        <v>-128314943000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1672322040000</v>
+      </c>
+      <c r="B107">
+        <v>943700</v>
+      </c>
+      <c r="C107">
+        <v>1433200</v>
+      </c>
+      <c r="D107">
+        <v>21600</v>
+      </c>
+      <c r="E107">
+        <v>15402504000</v>
+      </c>
+      <c r="F107">
+        <v>23875648000</v>
+      </c>
+      <c r="G107">
+        <v>610735000</v>
+      </c>
+      <c r="H107">
+        <v>2398500</v>
+      </c>
+      <c r="I107">
+        <v>39888887000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-29T13:54:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>3599304972000</v>
+      </c>
+      <c r="L107">
+        <v>235249900</v>
+      </c>
+      <c r="M107">
+        <v>489500</v>
+      </c>
+      <c r="N107">
+        <v>8473144000</v>
+      </c>
+      <c r="O107">
+        <v>-2130900</v>
+      </c>
+      <c r="P107">
+        <v>-119841799000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1672322160000</v>
+      </c>
+      <c r="B108">
+        <v>976000</v>
+      </c>
+      <c r="C108">
+        <v>1649000</v>
+      </c>
+      <c r="D108">
+        <v>6100</v>
+      </c>
+      <c r="E108">
+        <v>13792040000</v>
+      </c>
+      <c r="F108">
+        <v>27478383000</v>
+      </c>
+      <c r="G108">
+        <v>98210000</v>
+      </c>
+      <c r="H108">
+        <v>2631100</v>
+      </c>
+      <c r="I108">
+        <v>41368633000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-29T13:56:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>3640673605000</v>
+      </c>
+      <c r="L108">
+        <v>237881000</v>
+      </c>
+      <c r="M108">
+        <v>673000</v>
+      </c>
+      <c r="N108">
+        <v>13686343000</v>
+      </c>
+      <c r="O108">
+        <v>-1457900</v>
+      </c>
+      <c r="P108">
+        <v>-106155456000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1672322280000</v>
+      </c>
+      <c r="B109">
+        <v>914900</v>
+      </c>
+      <c r="C109">
+        <v>1945800</v>
+      </c>
+      <c r="D109">
+        <v>5500</v>
+      </c>
+      <c r="E109">
+        <v>15874474000</v>
+      </c>
+      <c r="F109">
+        <v>32803843000</v>
+      </c>
+      <c r="G109">
+        <v>177127000</v>
+      </c>
+      <c r="H109">
+        <v>2866200</v>
+      </c>
+      <c r="I109">
+        <v>48855444000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-29T13:58:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>3689529049000</v>
+      </c>
+      <c r="L109">
+        <v>240747200</v>
+      </c>
+      <c r="M109">
+        <v>1030900</v>
+      </c>
+      <c r="N109">
+        <v>16929369000</v>
+      </c>
+      <c r="O109">
+        <v>-427000</v>
+      </c>
+      <c r="P109">
+        <v>-89226087000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1672322400000</v>
+      </c>
+      <c r="B110">
+        <v>999000</v>
+      </c>
+      <c r="C110">
+        <v>2792500</v>
+      </c>
+      <c r="D110">
+        <v>9600</v>
+      </c>
+      <c r="E110">
+        <v>15697790000</v>
+      </c>
+      <c r="F110">
+        <v>43204491000</v>
+      </c>
+      <c r="G110">
+        <v>195210000</v>
+      </c>
+      <c r="H110">
+        <v>3801100</v>
+      </c>
+      <c r="I110">
+        <v>59097491000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-29T14:00:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>3748626540000</v>
+      </c>
+      <c r="L110">
+        <v>244548300</v>
+      </c>
+      <c r="M110">
+        <v>1793500</v>
+      </c>
+      <c r="N110">
+        <v>27506701000</v>
+      </c>
+      <c r="O110">
+        <v>1366500</v>
+      </c>
+      <c r="P110">
+        <v>-61719386000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1672322520000</v>
+      </c>
+      <c r="B111">
+        <v>1021800</v>
+      </c>
+      <c r="C111">
+        <v>2841900</v>
+      </c>
+      <c r="D111">
+        <v>11600</v>
+      </c>
+      <c r="E111">
+        <v>16959558000</v>
+      </c>
+      <c r="F111">
+        <v>44975663000</v>
+      </c>
+      <c r="G111">
+        <v>145355000</v>
+      </c>
+      <c r="H111">
+        <v>3875300</v>
+      </c>
+      <c r="I111">
+        <v>62080576000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-29T14:02:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>3810707116000</v>
+      </c>
+      <c r="L111">
+        <v>248423600</v>
+      </c>
+      <c r="M111">
+        <v>1820100</v>
+      </c>
+      <c r="N111">
+        <v>28016105000</v>
+      </c>
+      <c r="O111">
+        <v>3186600</v>
+      </c>
+      <c r="P111">
+        <v>-33703281000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1672322640000</v>
+      </c>
+      <c r="B112">
+        <v>954900</v>
+      </c>
+      <c r="C112">
+        <v>1875600</v>
+      </c>
+      <c r="D112">
+        <v>13700</v>
+      </c>
+      <c r="E112">
+        <v>15443037000</v>
+      </c>
+      <c r="F112">
+        <v>31315049000</v>
+      </c>
+      <c r="G112">
+        <v>365036000</v>
+      </c>
+      <c r="H112">
+        <v>2844200</v>
+      </c>
+      <c r="I112">
+        <v>47123122000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-29T14:04:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>3857830238000</v>
+      </c>
+      <c r="L112">
+        <v>251267800</v>
+      </c>
+      <c r="M112">
+        <v>920700</v>
+      </c>
+      <c r="N112">
+        <v>15872012000</v>
+      </c>
+      <c r="O112">
+        <v>4107300</v>
+      </c>
+      <c r="P112">
+        <v>-17831269000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1672322760000</v>
+      </c>
+      <c r="B113">
+        <v>1976200</v>
+      </c>
+      <c r="C113">
+        <v>1814500</v>
+      </c>
+      <c r="D113">
+        <v>25900</v>
+      </c>
+      <c r="E113">
+        <v>30580403000</v>
+      </c>
+      <c r="F113">
+        <v>27419993000</v>
+      </c>
+      <c r="G113">
+        <v>388585000</v>
+      </c>
+      <c r="H113">
+        <v>3816600</v>
+      </c>
+      <c r="I113">
+        <v>58388981000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-29T14:06:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>3916219219000</v>
+      </c>
+      <c r="L113">
+        <v>255084400</v>
+      </c>
+      <c r="M113">
+        <v>-161700</v>
+      </c>
+      <c r="N113">
+        <v>-3160410000</v>
+      </c>
+      <c r="O113">
+        <v>3945600</v>
+      </c>
+      <c r="P113">
+        <v>-20991679000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1672322880000</v>
+      </c>
+      <c r="B114">
+        <v>2290300</v>
+      </c>
+      <c r="C114">
+        <v>986500</v>
+      </c>
+      <c r="D114">
+        <v>57200</v>
+      </c>
+      <c r="E114">
+        <v>35926349000</v>
+      </c>
+      <c r="F114">
+        <v>16223171000</v>
+      </c>
+      <c r="G114">
+        <v>587668000</v>
+      </c>
+      <c r="H114">
+        <v>3334000</v>
+      </c>
+      <c r="I114">
+        <v>52737188000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-29T14:08:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>3968956407000</v>
+      </c>
+      <c r="L114">
+        <v>258418400</v>
+      </c>
+      <c r="M114">
+        <v>-1303800</v>
+      </c>
+      <c r="N114">
+        <v>-19703178000</v>
+      </c>
+      <c r="O114">
+        <v>2641800</v>
+      </c>
+      <c r="P114">
+        <v>-40694857000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1672323000000</v>
+      </c>
+      <c r="B115">
+        <v>3576900</v>
+      </c>
+      <c r="C115">
+        <v>1460500</v>
+      </c>
+      <c r="D115">
+        <v>15500</v>
+      </c>
+      <c r="E115">
+        <v>56928439000</v>
+      </c>
+      <c r="F115">
+        <v>28144560000</v>
+      </c>
+      <c r="G115">
+        <v>192199000</v>
+      </c>
+      <c r="H115">
+        <v>5052900</v>
+      </c>
+      <c r="I115">
+        <v>85265198000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-29T14:10:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>4054221605000</v>
+      </c>
+      <c r="L115">
+        <v>263471300</v>
+      </c>
+      <c r="M115">
+        <v>-2116400</v>
+      </c>
+      <c r="N115">
+        <v>-28783879000</v>
+      </c>
+      <c r="O115">
+        <v>525400</v>
+      </c>
+      <c r="P115">
+        <v>-69478736000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1672323120000</v>
+      </c>
+      <c r="B116">
+        <v>1074700</v>
+      </c>
+      <c r="C116">
+        <v>3609200</v>
+      </c>
+      <c r="D116">
+        <v>16100</v>
+      </c>
+      <c r="E116">
+        <v>20033151000</v>
+      </c>
+      <c r="F116">
+        <v>82726610000</v>
+      </c>
+      <c r="G116">
+        <v>351517000</v>
+      </c>
+      <c r="H116">
+        <v>4700000</v>
+      </c>
+      <c r="I116">
+        <v>103111278000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-29T14:12:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>4157332883000</v>
+      </c>
+      <c r="L116">
+        <v>268171300</v>
+      </c>
+      <c r="M116">
+        <v>2534500</v>
+      </c>
+      <c r="N116">
+        <v>62693459000</v>
+      </c>
+      <c r="O116">
+        <v>3059900</v>
+      </c>
+      <c r="P116">
+        <v>-6785277000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1672323240000</v>
+      </c>
+      <c r="B117">
+        <v>957000</v>
+      </c>
+      <c r="C117">
+        <v>4664900</v>
+      </c>
+      <c r="D117">
+        <v>29300</v>
+      </c>
+      <c r="E117">
+        <v>17947256000</v>
+      </c>
+      <c r="F117">
+        <v>92749717000</v>
+      </c>
+      <c r="G117">
+        <v>260959000</v>
+      </c>
+      <c r="H117">
+        <v>5651200</v>
+      </c>
+      <c r="I117">
+        <v>110957932000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-29T14:14:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>4268290815000</v>
+      </c>
+      <c r="L117">
+        <v>273822500</v>
+      </c>
+      <c r="M117">
+        <v>3707900</v>
+      </c>
+      <c r="N117">
+        <v>74802461000</v>
+      </c>
+      <c r="O117">
+        <v>6767800</v>
+      </c>
+      <c r="P117">
+        <v>68017184000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1672323360000</v>
+      </c>
+      <c r="B118">
+        <v>1238600</v>
+      </c>
+      <c r="C118">
+        <v>4942600</v>
+      </c>
+      <c r="D118">
+        <v>23000</v>
+      </c>
+      <c r="E118">
+        <v>22986972000</v>
+      </c>
+      <c r="F118">
+        <v>89601516000</v>
+      </c>
+      <c r="G118">
+        <v>390394000</v>
+      </c>
+      <c r="H118">
+        <v>6204200</v>
+      </c>
+      <c r="I118">
+        <v>112978882000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-29T14:16:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>4381269697000</v>
+      </c>
+      <c r="L118">
+        <v>280026700</v>
+      </c>
+      <c r="M118">
+        <v>3704000</v>
+      </c>
+      <c r="N118">
+        <v>66614544000</v>
+      </c>
+      <c r="O118">
+        <v>10471800</v>
+      </c>
+      <c r="P118">
+        <v>134631728000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1672323480000</v>
+      </c>
+      <c r="B119">
+        <v>2234500</v>
+      </c>
+      <c r="C119">
+        <v>3414000</v>
+      </c>
+      <c r="D119">
+        <v>14800</v>
+      </c>
+      <c r="E119">
+        <v>39987141000</v>
+      </c>
+      <c r="F119">
+        <v>66992429000</v>
+      </c>
+      <c r="G119">
+        <v>398310000</v>
+      </c>
+      <c r="H119">
+        <v>5663300</v>
+      </c>
+      <c r="I119">
+        <v>107377880000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-29T14:18:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>4488647577000</v>
+      </c>
+      <c r="L119">
+        <v>285690000</v>
+      </c>
+      <c r="M119">
+        <v>1179500</v>
+      </c>
+      <c r="N119">
+        <v>27005288000</v>
+      </c>
+      <c r="O119">
+        <v>11651300</v>
+      </c>
+      <c r="P119">
+        <v>161637016000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1672323600000</v>
+      </c>
+      <c r="B120">
+        <v>3161300</v>
+      </c>
+      <c r="C120">
+        <v>2801900</v>
+      </c>
+      <c r="D120">
+        <v>15500</v>
+      </c>
+      <c r="E120">
+        <v>52797277000</v>
+      </c>
+      <c r="F120">
+        <v>57741420000</v>
+      </c>
+      <c r="G120">
+        <v>600927000</v>
+      </c>
+      <c r="H120">
+        <v>5978700</v>
+      </c>
+      <c r="I120">
+        <v>111139624000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-29T14:20:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>4599787201000</v>
+      </c>
+      <c r="L120">
+        <v>291668700</v>
+      </c>
+      <c r="M120">
+        <v>-359400</v>
+      </c>
+      <c r="N120">
+        <v>4944143000</v>
+      </c>
+      <c r="O120">
+        <v>11291900</v>
+      </c>
+      <c r="P120">
+        <v>166581159000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1672323720000</v>
+      </c>
+      <c r="B121">
+        <v>2562100</v>
+      </c>
+      <c r="C121">
+        <v>2636200</v>
+      </c>
+      <c r="D121">
+        <v>17600</v>
+      </c>
+      <c r="E121">
+        <v>45154658000</v>
+      </c>
+      <c r="F121">
+        <v>57541164000</v>
+      </c>
+      <c r="G121">
+        <v>376603000</v>
+      </c>
+      <c r="H121">
+        <v>5215900</v>
+      </c>
+      <c r="I121">
+        <v>103072425000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-29T14:22:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>4702859626000</v>
+      </c>
+      <c r="L121">
+        <v>296884600</v>
+      </c>
+      <c r="M121">
+        <v>74100</v>
+      </c>
+      <c r="N121">
+        <v>12386506000</v>
+      </c>
+      <c r="O121">
+        <v>11366000</v>
+      </c>
+      <c r="P121">
+        <v>178967665000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1672323840000</v>
+      </c>
+      <c r="B122">
+        <v>2668800</v>
+      </c>
+      <c r="C122">
+        <v>2287300</v>
+      </c>
+      <c r="D122">
+        <v>26400</v>
+      </c>
+      <c r="E122">
+        <v>45325169000</v>
+      </c>
+      <c r="F122">
+        <v>51492679000</v>
+      </c>
+      <c r="G122">
+        <v>366596000</v>
+      </c>
+      <c r="H122">
+        <v>4982500</v>
+      </c>
+      <c r="I122">
+        <v>97184444000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-29T14:24:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>4800044070000</v>
+      </c>
+      <c r="L122">
+        <v>301867100</v>
+      </c>
+      <c r="M122">
+        <v>-381500</v>
+      </c>
+      <c r="N122">
+        <v>6167510000</v>
+      </c>
+      <c r="O122">
+        <v>10984500</v>
+      </c>
+      <c r="P122">
+        <v>185135175000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1672323960000</v>
+      </c>
+      <c r="B123">
+        <v>3797100</v>
+      </c>
+      <c r="C123">
+        <v>2879200</v>
+      </c>
+      <c r="D123">
+        <v>46200</v>
+      </c>
+      <c r="E123">
+        <v>65224433000</v>
+      </c>
+      <c r="F123">
+        <v>53211627000</v>
+      </c>
+      <c r="G123">
+        <v>1376765000</v>
+      </c>
+      <c r="H123">
+        <v>6722500</v>
+      </c>
+      <c r="I123">
+        <v>119812825000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2022-12-29T14:26:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>4919856895000</v>
+      </c>
+      <c r="L123">
+        <v>308589600</v>
+      </c>
+      <c r="M123">
+        <v>-917900</v>
+      </c>
+      <c r="N123">
+        <v>-12012806000</v>
+      </c>
+      <c r="O123">
+        <v>10066600</v>
+      </c>
+      <c r="P123">
+        <v>173122369000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1672324080000</v>
+      </c>
+      <c r="B124">
+        <v>8620600</v>
+      </c>
+      <c r="C124">
+        <v>2701400</v>
+      </c>
+      <c r="D124">
+        <v>112700</v>
+      </c>
+      <c r="E124">
+        <v>133741568000</v>
+      </c>
+      <c r="F124">
+        <v>43259128000</v>
+      </c>
+      <c r="G124">
+        <v>1526084000</v>
+      </c>
+      <c r="H124">
+        <v>11434700</v>
+      </c>
+      <c r="I124">
+        <v>178526780000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2022-12-29T14:28:00.000Z</v>
+      </c>
+      <c r="K124">
+        <v>5098383675000</v>
+      </c>
+      <c r="L124">
+        <v>320024300</v>
+      </c>
+      <c r="M124">
+        <v>-5919200</v>
+      </c>
+      <c r="N124">
+        <v>-90482440000</v>
+      </c>
+      <c r="O124">
+        <v>4147400</v>
+      </c>
+      <c r="P124">
+        <v>82639929000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1672324200000</v>
+      </c>
+      <c r="B125">
+        <v>28600</v>
+      </c>
+      <c r="C125">
+        <v>23800</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>676919000</v>
+      </c>
+      <c r="F125">
+        <v>397021000</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>52400</v>
+      </c>
+      <c r="I125">
+        <v>1073940000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>2022-12-29T14:30:00.000Z</v>
+      </c>
+      <c r="K125">
+        <v>5099457615000</v>
+      </c>
+      <c r="L125">
+        <v>320076700</v>
+      </c>
+      <c r="M125">
+        <v>-4800</v>
+      </c>
+      <c r="N125">
+        <v>-279898000</v>
+      </c>
+      <c r="O125">
+        <v>4142600</v>
+      </c>
+      <c r="P125">
+        <v>82360031000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1672324560000</v>
+      </c>
+      <c r="B126">
+        <v>1300</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>15209999.999999998</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>1300</v>
+      </c>
+      <c r="I126">
+        <v>15209999.999999998</v>
+      </c>
+      <c r="J126" t="str">
+        <v>2022-12-29T14:36:00.000Z</v>
+      </c>
+      <c r="K126">
+        <v>5099472825000</v>
+      </c>
+      <c r="L126">
+        <v>320078000</v>
+      </c>
+      <c r="M126">
+        <v>-1300</v>
+      </c>
+      <c r="N126">
+        <v>-15209999.999999998</v>
+      </c>
+      <c r="O126">
+        <v>4141300</v>
+      </c>
+      <c r="P126">
+        <v>82344821000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>1672324800000</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1000</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>11700000</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>1000</v>
+      </c>
+      <c r="I127">
+        <v>11700000</v>
+      </c>
+      <c r="J127" t="str">
+        <v>2022-12-29T14:40:00.000Z</v>
+      </c>
+      <c r="K127">
+        <v>5099484525000</v>
+      </c>
+      <c r="L127">
+        <v>320079000</v>
+      </c>
+      <c r="M127">
+        <v>1000</v>
+      </c>
+      <c r="N127">
+        <v>11700000</v>
+      </c>
+      <c r="O127">
+        <v>4142300</v>
+      </c>
+      <c r="P127">
+        <v>82356521000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>1672324920000</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>300</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>3510000</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>300</v>
+      </c>
+      <c r="I128">
+        <v>3510000</v>
+      </c>
+      <c r="J128" t="str">
+        <v>2022-12-29T14:42:00.000Z</v>
+      </c>
+      <c r="K128">
+        <v>5099488035000</v>
+      </c>
+      <c r="L128">
+        <v>320079300</v>
+      </c>
+      <c r="M128">
+        <v>300</v>
+      </c>
+      <c r="N128">
+        <v>3510000</v>
+      </c>
+      <c r="O128">
+        <v>4142600</v>
+      </c>
+      <c r="P128">
+        <v>82360031000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>1672325040000</v>
+      </c>
+      <c r="B129">
+        <v>11446500</v>
+      </c>
+      <c r="C129">
+        <v>8192400</v>
+      </c>
+      <c r="D129">
+        <v>16625600</v>
+      </c>
+      <c r="E129">
+        <v>235555702000</v>
+      </c>
+      <c r="F129">
+        <v>184303827000</v>
+      </c>
+      <c r="G129">
+        <v>302111058000</v>
+      </c>
+      <c r="H129">
+        <v>36264500</v>
+      </c>
+      <c r="I129">
+        <v>721970587000</v>
+      </c>
+      <c r="J129" t="str">
+        <v>2022-12-29T14:44:00.000Z</v>
+      </c>
+      <c r="K129">
+        <v>5821458622000</v>
+      </c>
+      <c r="L129">
+        <v>356343800</v>
+      </c>
+      <c r="M129">
+        <v>-3254100</v>
+      </c>
+      <c r="N129">
+        <v>-51251875000</v>
+      </c>
+      <c r="O129">
+        <v>888500</v>
+      </c>
+      <c r="P129">
+        <v>31108156000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>1672325280000</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>1000</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>11700000</v>
+      </c>
+      <c r="H130">
+        <v>1000</v>
+      </c>
+      <c r="I130">
+        <v>11700000</v>
+      </c>
+      <c r="J130" t="str">
+        <v>2022-12-29T14:48:00.000Z</v>
+      </c>
+      <c r="K130">
+        <v>5821470322000</v>
+      </c>
+      <c r="L130">
+        <v>356344800</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>888500</v>
+      </c>
+      <c r="P130">
+        <v>31108156000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
         <v>1672325400000</v>
       </c>
-      <c r="B57">
-        <v>1600</v>
-      </c>
-      <c r="C57">
+      <c r="B131">
+        <v>100</v>
+      </c>
+      <c r="C131">
         <v>1000</v>
       </c>
-      <c r="D57">
+      <c r="D131">
         <v>0</v>
       </c>
-      <c r="E57">
-        <v>18720000</v>
-      </c>
-      <c r="F57">
+      <c r="E131">
+        <v>1170000</v>
+      </c>
+      <c r="F131">
         <v>11700000</v>
       </c>
-      <c r="G57">
+      <c r="G131">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>2600</v>
-      </c>
-      <c r="I57">
-        <v>30420000</v>
-      </c>
-      <c r="J57" t="str">
+      <c r="H131">
+        <v>1100</v>
+      </c>
+      <c r="I131">
+        <v>12870000</v>
+      </c>
+      <c r="J131" t="str">
         <v>2022-12-29T14:50:00.000Z</v>
       </c>
-      <c r="K57">
+      <c r="K131">
+        <v>5821483192000</v>
+      </c>
+      <c r="L131">
+        <v>356345900</v>
+      </c>
+      <c r="M131">
+        <v>900</v>
+      </c>
+      <c r="N131">
+        <v>10530000</v>
+      </c>
+      <c r="O131">
+        <v>889400</v>
+      </c>
+      <c r="P131">
+        <v>31118686000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>1672325520000</v>
+      </c>
+      <c r="B132">
+        <v>1500</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>17550000</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1500</v>
+      </c>
+      <c r="I132">
+        <v>17550000</v>
+      </c>
+      <c r="J132" t="str">
+        <v>2022-12-29T14:52:00.000Z</v>
+      </c>
+      <c r="K132">
         <v>5821500742000</v>
       </c>
-      <c r="L57">
+      <c r="L132">
         <v>356347400</v>
       </c>
-      <c r="M57">
-        <v>-600</v>
-      </c>
-      <c r="N57">
-        <v>-7020000</v>
-      </c>
-      <c r="O57">
+      <c r="M132">
+        <v>-1500</v>
+      </c>
+      <c r="N132">
+        <v>-17550000</v>
+      </c>
+      <c r="O132">
         <v>887900</v>
       </c>
-      <c r="P57">
+      <c r="P132">
         <v>31101136000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P132"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221229/VNINDEX_HOSE_5p_20221229.xlsx
+++ b/name/vnindex/20221229/VNINDEX_HOSE_5p_20221229.xlsx
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21330000</v>
+        <v>18932400</v>
       </c>
       <c r="G3">
         <v>11900000</v>
@@ -528,13 +528,13 @@
         <v>2800</v>
       </c>
       <c r="I3">
-        <v>33230000</v>
+        <v>30832400</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-29T09:00:00.000Z</v>
       </c>
       <c r="K3">
-        <v>49210000</v>
+        <v>46812400</v>
       </c>
       <c r="L3">
         <v>4100</v>
@@ -543,13 +543,13 @@
         <v>1800</v>
       </c>
       <c r="N3">
-        <v>21330000</v>
+        <v>18932400</v>
       </c>
       <c r="O3">
         <v>2800</v>
       </c>
       <c r="P3">
-        <v>33830000</v>
+        <v>31432400</v>
       </c>
     </row>
     <row r="4">
@@ -569,7 +569,7 @@
         <v>103700000</v>
       </c>
       <c r="F4">
-        <v>133490000</v>
+        <v>132291200</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>19400</v>
       </c>
       <c r="I4">
-        <v>237190000</v>
+        <v>235991200</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-29T09:02:00.000Z</v>
       </c>
       <c r="K4">
-        <v>286400000</v>
+        <v>282803600</v>
       </c>
       <c r="L4">
         <v>23500</v>
@@ -593,13 +593,13 @@
         <v>2400</v>
       </c>
       <c r="N4">
-        <v>29790000</v>
+        <v>28591200</v>
       </c>
       <c r="O4">
         <v>5200</v>
       </c>
       <c r="P4">
-        <v>63620000</v>
+        <v>60023600</v>
       </c>
     </row>
     <row r="5">
@@ -634,7 +634,7 @@
         <v>2022-12-29T09:04:00.000Z</v>
       </c>
       <c r="K5">
-        <v>490700000</v>
+        <v>487103600</v>
       </c>
       <c r="L5">
         <v>40000</v>
@@ -649,7 +649,7 @@
         <v>19300</v>
       </c>
       <c r="P5">
-        <v>238640000</v>
+        <v>235043600</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +684,7 @@
         <v>2022-12-29T09:06:00.000Z</v>
       </c>
       <c r="K6">
-        <v>650430000</v>
+        <v>646833600</v>
       </c>
       <c r="L6">
         <v>52900</v>
@@ -699,7 +699,7 @@
         <v>26400</v>
       </c>
       <c r="P6">
-        <v>326830000</v>
+        <v>323233600</v>
       </c>
     </row>
     <row r="7">
@@ -734,7 +734,7 @@
         <v>2022-12-29T09:08:00.000Z</v>
       </c>
       <c r="K7">
-        <v>716920000</v>
+        <v>713323600</v>
       </c>
       <c r="L7">
         <v>58300</v>
@@ -749,7 +749,7 @@
         <v>21800</v>
       </c>
       <c r="P7">
-        <v>270320000</v>
+        <v>266723600</v>
       </c>
     </row>
     <row r="8">
@@ -784,7 +784,7 @@
         <v>2022-12-29T09:10:00.000Z</v>
       </c>
       <c r="K8">
-        <v>755050000</v>
+        <v>751453600</v>
       </c>
       <c r="L8">
         <v>61400</v>
@@ -799,7 +799,7 @@
         <v>20300</v>
       </c>
       <c r="P8">
-        <v>251870000</v>
+        <v>248273600</v>
       </c>
     </row>
     <row r="9">
@@ -834,7 +834,7 @@
         <v>2022-12-29T09:12:00.000Z</v>
       </c>
       <c r="K9">
-        <v>769810000</v>
+        <v>766213600</v>
       </c>
       <c r="L9">
         <v>62600</v>
@@ -849,7 +849,7 @@
         <v>19100</v>
       </c>
       <c r="P9">
-        <v>237110000</v>
+        <v>233513600</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>1020100</v>
       </c>
       <c r="E10">
-        <v>34099538000</v>
+        <v>33540098000</v>
       </c>
       <c r="F10">
-        <v>35881275000</v>
+        <v>34173384600</v>
       </c>
       <c r="G10">
-        <v>9653422000</v>
+        <v>8015761300</v>
       </c>
       <c r="H10">
         <v>5240500</v>
       </c>
       <c r="I10">
-        <v>79634235000</v>
+        <v>75729243900</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-29T09:14:00.000Z</v>
       </c>
       <c r="K10">
-        <v>80404045000</v>
+        <v>76495457500</v>
       </c>
       <c r="L10">
         <v>5303100</v>
@@ -893,13 +893,13 @@
         <v>-187600</v>
       </c>
       <c r="N10">
-        <v>1781737000</v>
+        <v>633286600</v>
       </c>
       <c r="O10">
         <v>-168500</v>
       </c>
       <c r="P10">
-        <v>2018847000</v>
+        <v>866800200</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>14700</v>
       </c>
       <c r="E11">
-        <v>17973285000</v>
+        <v>16143416700</v>
       </c>
       <c r="F11">
-        <v>19485462000</v>
+        <v>18312136500</v>
       </c>
       <c r="G11">
         <v>91930000</v>
@@ -928,13 +928,13 @@
         <v>2439500</v>
       </c>
       <c r="I11">
-        <v>37550677000</v>
+        <v>34547483200</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-29T09:16:00.000Z</v>
       </c>
       <c r="K11">
-        <v>117954722000</v>
+        <v>111042940700</v>
       </c>
       <c r="L11">
         <v>7742600</v>
@@ -943,13 +943,13 @@
         <v>99000</v>
       </c>
       <c r="N11">
-        <v>1512177000</v>
+        <v>2168719800</v>
       </c>
       <c r="O11">
         <v>-69500</v>
       </c>
       <c r="P11">
-        <v>3531024000</v>
+        <v>3035520000</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>3000</v>
       </c>
       <c r="E12">
-        <v>13318208000</v>
+        <v>12703223600</v>
       </c>
       <c r="F12">
-        <v>22890923000</v>
+        <v>22236478100</v>
       </c>
       <c r="G12">
         <v>94914000</v>
@@ -978,13 +978,13 @@
         <v>2339100</v>
       </c>
       <c r="I12">
-        <v>36304045000</v>
+        <v>35034615700</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-29T09:18:00.000Z</v>
       </c>
       <c r="K12">
-        <v>154258767000</v>
+        <v>146077556400</v>
       </c>
       <c r="L12">
         <v>10081700</v>
@@ -993,13 +993,13 @@
         <v>433300</v>
       </c>
       <c r="N12">
-        <v>9572715000</v>
+        <v>9533254500</v>
       </c>
       <c r="O12">
         <v>363800</v>
       </c>
       <c r="P12">
-        <v>13103739000</v>
+        <v>12568774500</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>10400</v>
       </c>
       <c r="E13">
-        <v>23938558000</v>
+        <v>22434663400</v>
       </c>
       <c r="F13">
-        <v>25952371000</v>
+        <v>22644282400</v>
       </c>
       <c r="G13">
         <v>180584000</v>
@@ -1028,13 +1028,13 @@
         <v>2893800</v>
       </c>
       <c r="I13">
-        <v>50071513000</v>
+        <v>45259529800</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-29T09:20:00.000Z</v>
       </c>
       <c r="K13">
-        <v>204330280000</v>
+        <v>191337086200</v>
       </c>
       <c r="L13">
         <v>12975500</v>
@@ -1043,13 +1043,13 @@
         <v>476400</v>
       </c>
       <c r="N13">
-        <v>2013813000</v>
+        <v>209619000</v>
       </c>
       <c r="O13">
         <v>840200</v>
       </c>
       <c r="P13">
-        <v>15117552000</v>
+        <v>12778393500</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>17700</v>
       </c>
       <c r="E14">
-        <v>19812947000</v>
+        <v>17033129600</v>
       </c>
       <c r="F14">
-        <v>18555698000</v>
+        <v>17238916100</v>
       </c>
       <c r="G14">
-        <v>274635000</v>
+        <v>261048600</v>
       </c>
       <c r="H14">
         <v>2554800</v>
       </c>
       <c r="I14">
-        <v>38643280000</v>
+        <v>34533094300</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-29T09:22:00.000Z</v>
       </c>
       <c r="K14">
-        <v>242973560000</v>
+        <v>225870180500</v>
       </c>
       <c r="L14">
         <v>15530300</v>
@@ -1093,13 +1093,13 @@
         <v>-173500</v>
       </c>
       <c r="N14">
-        <v>-1257249000</v>
+        <v>205786500</v>
       </c>
       <c r="O14">
         <v>666700</v>
       </c>
       <c r="P14">
-        <v>13860303000</v>
+        <v>12984180000</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>9500</v>
       </c>
       <c r="E15">
-        <v>15473008000</v>
+        <v>14996385100</v>
       </c>
       <c r="F15">
-        <v>28169551000</v>
+        <v>22213113400</v>
       </c>
       <c r="G15">
-        <v>160433000</v>
+        <v>132461000</v>
       </c>
       <c r="H15">
         <v>2910100</v>
       </c>
       <c r="I15">
-        <v>43802992000</v>
+        <v>37341959500</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-29T09:24:00.000Z</v>
       </c>
       <c r="K15">
-        <v>286776552000</v>
+        <v>263212140000</v>
       </c>
       <c r="L15">
         <v>18440400</v>
@@ -1143,13 +1143,13 @@
         <v>810200</v>
       </c>
       <c r="N15">
-        <v>12696543000</v>
+        <v>7216728300</v>
       </c>
       <c r="O15">
         <v>1476900</v>
       </c>
       <c r="P15">
-        <v>26556846000</v>
+        <v>20200908300</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>10500</v>
       </c>
       <c r="E16">
-        <v>23845755000</v>
+        <v>22286415900</v>
       </c>
       <c r="F16">
-        <v>38428469000</v>
+        <v>36610089200</v>
       </c>
       <c r="G16">
         <v>157398000</v>
@@ -1178,13 +1178,13 @@
         <v>3698400</v>
       </c>
       <c r="I16">
-        <v>62431622000</v>
+        <v>59053903100</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-29T09:26:00.000Z</v>
       </c>
       <c r="K16">
-        <v>349208174000</v>
+        <v>322266043100</v>
       </c>
       <c r="L16">
         <v>22138800</v>
@@ -1193,13 +1193,13 @@
         <v>752500</v>
       </c>
       <c r="N16">
-        <v>14582714000</v>
+        <v>14323673300</v>
       </c>
       <c r="O16">
         <v>2229400</v>
       </c>
       <c r="P16">
-        <v>41139560000</v>
+        <v>34524581600</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>5800</v>
       </c>
       <c r="E17">
-        <v>17541975000</v>
+        <v>16194224100</v>
       </c>
       <c r="F17">
-        <v>63677308000</v>
+        <v>57643248100</v>
       </c>
       <c r="G17">
         <v>164286000</v>
@@ -1228,13 +1228,13 @@
         <v>4985700</v>
       </c>
       <c r="I17">
-        <v>81383569000</v>
+        <v>74001758200</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-29T09:28:00.000Z</v>
       </c>
       <c r="K17">
-        <v>430591743000</v>
+        <v>396267801300</v>
       </c>
       <c r="L17">
         <v>27124500</v>
@@ -1243,13 +1243,13 @@
         <v>2723500</v>
       </c>
       <c r="N17">
-        <v>46135333000</v>
+        <v>41449024000</v>
       </c>
       <c r="O17">
         <v>4952900</v>
       </c>
       <c r="P17">
-        <v>87274893000</v>
+        <v>75973605600</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>7900</v>
       </c>
       <c r="E18">
-        <v>22775680000</v>
+        <v>21554502400</v>
       </c>
       <c r="F18">
-        <v>93548255000</v>
+        <v>90543762500</v>
       </c>
       <c r="G18">
         <v>164444000</v>
@@ -1278,13 +1278,13 @@
         <v>16465000</v>
       </c>
       <c r="I18">
-        <v>116488379000</v>
+        <v>112262708900</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-29T09:30:00.000Z</v>
       </c>
       <c r="K18">
-        <v>547080122000</v>
+        <v>508530510200</v>
       </c>
       <c r="L18">
         <v>43589500</v>
@@ -1293,13 +1293,13 @@
         <v>13804500</v>
       </c>
       <c r="N18">
-        <v>70772575000</v>
+        <v>68989260100</v>
       </c>
       <c r="O18">
         <v>18757400</v>
       </c>
       <c r="P18">
-        <v>158047468000</v>
+        <v>144962865700</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>26600</v>
       </c>
       <c r="E19">
-        <v>36965417000</v>
+        <v>35369814200</v>
       </c>
       <c r="F19">
-        <v>35972079000</v>
+        <v>29645711700</v>
       </c>
       <c r="G19">
-        <v>178151000</v>
+        <v>167961200</v>
       </c>
       <c r="H19">
         <v>5373300</v>
       </c>
       <c r="I19">
-        <v>73115647000</v>
+        <v>65183487100</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-29T09:32:00.000Z</v>
       </c>
       <c r="K19">
-        <v>620195769000</v>
+        <v>573713997300</v>
       </c>
       <c r="L19">
         <v>48962800</v>
@@ -1343,13 +1343,13 @@
         <v>-14900</v>
       </c>
       <c r="N19">
-        <v>-993338000</v>
+        <v>-5724102500</v>
       </c>
       <c r="O19">
         <v>18742500</v>
       </c>
       <c r="P19">
-        <v>157054130000</v>
+        <v>139238763200</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>14400</v>
       </c>
       <c r="E20">
-        <v>42243967000</v>
+        <v>41067444700</v>
       </c>
       <c r="F20">
-        <v>39424906000</v>
+        <v>37702430200</v>
       </c>
       <c r="G20">
         <v>171441000</v>
@@ -1378,13 +1378,13 @@
         <v>6088200</v>
       </c>
       <c r="I20">
-        <v>81840314000</v>
+        <v>78941315900</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-29T09:34:00.000Z</v>
       </c>
       <c r="K20">
-        <v>702036083000</v>
+        <v>652655313200</v>
       </c>
       <c r="L20">
         <v>55051000</v>
@@ -1393,13 +1393,13 @@
         <v>542400</v>
       </c>
       <c r="N20">
-        <v>-2819061000</v>
+        <v>-3365014500</v>
       </c>
       <c r="O20">
         <v>19284900</v>
       </c>
       <c r="P20">
-        <v>154235069000</v>
+        <v>135873748700</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>11400</v>
       </c>
       <c r="E21">
-        <v>19480016000</v>
+        <v>17461037000</v>
       </c>
       <c r="F21">
-        <v>25866603000</v>
+        <v>22553019900</v>
       </c>
       <c r="G21">
         <v>433227000</v>
@@ -1428,13 +1428,13 @@
         <v>3541000</v>
       </c>
       <c r="I21">
-        <v>45779846000</v>
+        <v>40447283900</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-29T09:36:00.000Z</v>
       </c>
       <c r="K21">
-        <v>747815929000</v>
+        <v>693102597100</v>
       </c>
       <c r="L21">
         <v>58592000</v>
@@ -1443,13 +1443,13 @@
         <v>538200</v>
       </c>
       <c r="N21">
-        <v>6386587000</v>
+        <v>5091982900</v>
       </c>
       <c r="O21">
         <v>19823100</v>
       </c>
       <c r="P21">
-        <v>160621656000</v>
+        <v>140965731600</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>16400</v>
       </c>
       <c r="E22">
-        <v>22177327000</v>
+        <v>20884321300</v>
       </c>
       <c r="F22">
-        <v>23163851000</v>
+        <v>21133982900</v>
       </c>
       <c r="G22">
         <v>189450000</v>
@@ -1478,13 +1478,13 @@
         <v>3454800</v>
       </c>
       <c r="I22">
-        <v>45530628000</v>
+        <v>42207754200</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-29T09:38:00.000Z</v>
       </c>
       <c r="K22">
-        <v>793346557000</v>
+        <v>735310351300</v>
       </c>
       <c r="L22">
         <v>62046800</v>
@@ -1493,13 +1493,13 @@
         <v>54600</v>
       </c>
       <c r="N22">
-        <v>986524000</v>
+        <v>249661600</v>
       </c>
       <c r="O22">
         <v>19877700</v>
       </c>
       <c r="P22">
-        <v>161608180000</v>
+        <v>141215393200</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>7500</v>
       </c>
       <c r="E23">
-        <v>20854889000</v>
+        <v>18526220000</v>
       </c>
       <c r="F23">
-        <v>15328165000</v>
+        <v>13206788500</v>
       </c>
       <c r="G23">
         <v>161021000</v>
@@ -1528,13 +1528,13 @@
         <v>2527400</v>
       </c>
       <c r="I23">
-        <v>36344075000</v>
+        <v>31894029500</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-29T09:40:00.000Z</v>
       </c>
       <c r="K23">
-        <v>829690632000</v>
+        <v>767204380800</v>
       </c>
       <c r="L23">
         <v>64574200</v>
@@ -1543,13 +1543,13 @@
         <v>-308100</v>
       </c>
       <c r="N23">
-        <v>-5526724000</v>
+        <v>-5319431500</v>
       </c>
       <c r="O23">
         <v>19569600</v>
       </c>
       <c r="P23">
-        <v>156081456000</v>
+        <v>135895961700</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>9100</v>
       </c>
       <c r="E24">
-        <v>19802577000</v>
+        <v>15325158900</v>
       </c>
       <c r="F24">
-        <v>24483396000</v>
+        <v>21207774900</v>
       </c>
       <c r="G24">
         <v>63285000</v>
@@ -1578,13 +1578,13 @@
         <v>2848300</v>
       </c>
       <c r="I24">
-        <v>44349258000</v>
+        <v>36596218800</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-29T09:42:00.000Z</v>
       </c>
       <c r="K24">
-        <v>874039890000</v>
+        <v>803800599600</v>
       </c>
       <c r="L24">
         <v>67422500</v>
@@ -1593,13 +1593,13 @@
         <v>56000</v>
       </c>
       <c r="N24">
-        <v>4680819000</v>
+        <v>5882616000</v>
       </c>
       <c r="O24">
         <v>19625600</v>
       </c>
       <c r="P24">
-        <v>160762275000</v>
+        <v>141778577700</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>12400</v>
       </c>
       <c r="E25">
-        <v>20145538000</v>
+        <v>16677010000</v>
       </c>
       <c r="F25">
-        <v>23469134000</v>
+        <v>22266637700</v>
       </c>
       <c r="G25">
-        <v>227021000</v>
+        <v>169278800</v>
       </c>
       <c r="H25">
         <v>2719000</v>
       </c>
       <c r="I25">
-        <v>43841693000</v>
+        <v>39112926500</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-29T09:44:00.000Z</v>
       </c>
       <c r="K25">
-        <v>917881583000</v>
+        <v>842913526100</v>
       </c>
       <c r="L25">
         <v>70141500</v>
@@ -1643,13 +1643,13 @@
         <v>163800</v>
       </c>
       <c r="N25">
-        <v>3323596000</v>
+        <v>5589627700</v>
       </c>
       <c r="O25">
         <v>19789400</v>
       </c>
       <c r="P25">
-        <v>164085871000</v>
+        <v>147368205400</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>46400</v>
       </c>
       <c r="E26">
-        <v>23970449000</v>
+        <v>19962361100</v>
       </c>
       <c r="F26">
-        <v>21322770000</v>
+        <v>20914478700</v>
       </c>
       <c r="G26">
-        <v>720905000</v>
+        <v>499426700</v>
       </c>
       <c r="H26">
         <v>3370800</v>
       </c>
       <c r="I26">
-        <v>46014124000</v>
+        <v>41376266500</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-29T09:46:00.000Z</v>
       </c>
       <c r="K26">
-        <v>963895707000</v>
+        <v>884289792600</v>
       </c>
       <c r="L26">
         <v>73512300</v>
@@ -1693,13 +1693,13 @@
         <v>-441800</v>
       </c>
       <c r="N26">
-        <v>-2647679000</v>
+        <v>952117600</v>
       </c>
       <c r="O26">
         <v>19347600</v>
       </c>
       <c r="P26">
-        <v>161438192000</v>
+        <v>148320323000</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>9800</v>
       </c>
       <c r="E27">
-        <v>17233562000</v>
+        <v>15764332700</v>
       </c>
       <c r="F27">
-        <v>16194175000</v>
+        <v>15703266400</v>
       </c>
       <c r="G27">
-        <v>148524000</v>
+        <v>99073500</v>
       </c>
       <c r="H27">
         <v>2245000</v>
       </c>
       <c r="I27">
-        <v>33576261000</v>
+        <v>31566672600</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-29T09:48:00.000Z</v>
       </c>
       <c r="K27">
-        <v>997471968000</v>
+        <v>915856465200</v>
       </c>
       <c r="L27">
         <v>75757300</v>
@@ -1743,13 +1743,13 @@
         <v>-142400</v>
       </c>
       <c r="N27">
-        <v>-1039387000</v>
+        <v>-61066300</v>
       </c>
       <c r="O27">
         <v>19205200</v>
       </c>
       <c r="P27">
-        <v>160398805000</v>
+        <v>148259256700</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>18600</v>
       </c>
       <c r="E28">
-        <v>19117876000</v>
+        <v>16925071000</v>
       </c>
       <c r="F28">
-        <v>9710777000</v>
+        <v>9632655200</v>
       </c>
       <c r="G28">
         <v>132680000</v>
@@ -1778,13 +1778,13 @@
         <v>1825200</v>
       </c>
       <c r="I28">
-        <v>28961333000</v>
+        <v>26690406200</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-29T09:50:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1026433301000</v>
+        <v>942546871400</v>
       </c>
       <c r="L28">
         <v>77582500</v>
@@ -1793,13 +1793,13 @@
         <v>-627800</v>
       </c>
       <c r="N28">
-        <v>-9407099000</v>
+        <v>-7292415800</v>
       </c>
       <c r="O28">
         <v>18577400</v>
       </c>
       <c r="P28">
-        <v>150991706000</v>
+        <v>140966840900</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>4600</v>
       </c>
       <c r="E29">
-        <v>15225519000</v>
+        <v>14803141800</v>
       </c>
       <c r="F29">
-        <v>8694458000</v>
+        <v>8541511100</v>
       </c>
       <c r="G29">
         <v>135515000</v>
@@ -1828,13 +1828,13 @@
         <v>1615200</v>
       </c>
       <c r="I29">
-        <v>24055492000</v>
+        <v>23480167900</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-29T09:52:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1050488793000</v>
+        <v>966027039300</v>
       </c>
       <c r="L29">
         <v>79197700</v>
@@ -1843,13 +1843,13 @@
         <v>-400600</v>
       </c>
       <c r="N29">
-        <v>-6531061000</v>
+        <v>-6261630700</v>
       </c>
       <c r="O29">
         <v>18176800</v>
       </c>
       <c r="P29">
-        <v>144460645000</v>
+        <v>134705210200</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>13915701000</v>
+        <v>13655261700</v>
       </c>
       <c r="F30">
-        <v>12495346000</v>
+        <v>12321420100</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1878,13 +1878,13 @@
         <v>1942200</v>
       </c>
       <c r="I30">
-        <v>26411047000</v>
+        <v>25976681800</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-29T09:54:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1076899840000</v>
+        <v>992003721100</v>
       </c>
       <c r="L30">
         <v>81139900</v>
@@ -1893,13 +1893,13 @@
         <v>-264800</v>
       </c>
       <c r="N30">
-        <v>-1420355000</v>
+        <v>-1333841600</v>
       </c>
       <c r="O30">
         <v>17912000</v>
       </c>
       <c r="P30">
-        <v>143040290000</v>
+        <v>133371368600</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>1300</v>
       </c>
       <c r="E31">
-        <v>9439788000</v>
+        <v>9119608500</v>
       </c>
       <c r="F31">
-        <v>15287657000</v>
+        <v>15163880900</v>
       </c>
       <c r="G31">
         <v>35605000</v>
@@ -1928,13 +1928,13 @@
         <v>1554400</v>
       </c>
       <c r="I31">
-        <v>24763050000</v>
+        <v>24319094400</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-29T09:56:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1101662890000</v>
+        <v>1016322815500</v>
       </c>
       <c r="L31">
         <v>82694300</v>
@@ -1943,13 +1943,13 @@
         <v>348300</v>
       </c>
       <c r="N31">
-        <v>5847869000</v>
+        <v>6044272400</v>
       </c>
       <c r="O31">
         <v>18260300</v>
       </c>
       <c r="P31">
-        <v>148888159000</v>
+        <v>139415641000</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>500</v>
       </c>
       <c r="E32">
-        <v>8781166000</v>
+        <v>7094254600</v>
       </c>
       <c r="F32">
-        <v>22144310000</v>
+        <v>18734123600</v>
       </c>
       <c r="G32">
-        <v>13348000</v>
+        <v>960400</v>
       </c>
       <c r="H32">
         <v>2127500</v>
       </c>
       <c r="I32">
-        <v>30938824000</v>
+        <v>25829338600</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-29T09:58:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1132601714000</v>
+        <v>1042152154100</v>
       </c>
       <c r="L32">
         <v>84821800</v>
@@ -1993,13 +1993,13 @@
         <v>1079000</v>
       </c>
       <c r="N32">
-        <v>13363144000</v>
+        <v>11639869000</v>
       </c>
       <c r="O32">
         <v>19339300</v>
       </c>
       <c r="P32">
-        <v>162251303000</v>
+        <v>151055510000</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>2100</v>
       </c>
       <c r="E33">
-        <v>12562702000</v>
+        <v>10213054000</v>
       </c>
       <c r="F33">
-        <v>19388354000</v>
+        <v>16647297800</v>
       </c>
       <c r="G33">
         <v>12555000</v>
@@ -2028,13 +2028,13 @@
         <v>2108100</v>
       </c>
       <c r="I33">
-        <v>31963611000</v>
+        <v>26872906800</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-29T10:00:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1164565325000</v>
+        <v>1069025060900</v>
       </c>
       <c r="L33">
         <v>86929900</v>
@@ -2043,13 +2043,13 @@
         <v>581800</v>
       </c>
       <c r="N33">
-        <v>6825652000</v>
+        <v>6434243800</v>
       </c>
       <c r="O33">
         <v>19921100</v>
       </c>
       <c r="P33">
-        <v>169076955000</v>
+        <v>157489753800</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>5300</v>
       </c>
       <c r="E34">
-        <v>7638121000</v>
+        <v>6540719500</v>
       </c>
       <c r="F34">
-        <v>26426481000</v>
+        <v>23943266700</v>
       </c>
       <c r="G34">
         <v>113385000</v>
@@ -2078,13 +2078,13 @@
         <v>2151000</v>
       </c>
       <c r="I34">
-        <v>34177987000</v>
+        <v>30597371200</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-29T10:02:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1198743312000</v>
+        <v>1099622432100</v>
       </c>
       <c r="L34">
         <v>89080900</v>
@@ -2093,13 +2093,13 @@
         <v>1121900</v>
       </c>
       <c r="N34">
-        <v>18788360000</v>
+        <v>17402547200</v>
       </c>
       <c r="O34">
         <v>21043000</v>
       </c>
       <c r="P34">
-        <v>187865315000</v>
+        <v>174892301000</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>5900</v>
       </c>
       <c r="E35">
-        <v>10140801000</v>
+        <v>8700342900</v>
       </c>
       <c r="F35">
-        <v>21323385000</v>
+        <v>19375934400</v>
       </c>
       <c r="G35">
         <v>58557000</v>
@@ -2128,13 +2128,13 @@
         <v>2396000</v>
       </c>
       <c r="I35">
-        <v>31522743000</v>
+        <v>28134834300</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-29T10:04:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1230266055000</v>
+        <v>1127757266400</v>
       </c>
       <c r="L35">
         <v>91476900</v>
@@ -2143,13 +2143,13 @@
         <v>713700</v>
       </c>
       <c r="N35">
-        <v>11182584000</v>
+        <v>10675591500</v>
       </c>
       <c r="O35">
         <v>21756700</v>
       </c>
       <c r="P35">
-        <v>199047899000</v>
+        <v>185567892500</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>1500</v>
       </c>
       <c r="E36">
-        <v>10523663000</v>
+        <v>10230356600</v>
       </c>
       <c r="F36">
-        <v>22690653000</v>
+        <v>20907238200</v>
       </c>
       <c r="G36">
         <v>19520000</v>
@@ -2178,13 +2178,13 @@
         <v>2011900</v>
       </c>
       <c r="I36">
-        <v>33233836000</v>
+        <v>31157114800</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-29T10:06:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1263499891000</v>
+        <v>1158914381200</v>
       </c>
       <c r="L36">
         <v>93488800</v>
@@ -2193,13 +2193,13 @@
         <v>690800</v>
       </c>
       <c r="N36">
-        <v>12166990000</v>
+        <v>10676881600</v>
       </c>
       <c r="O36">
         <v>22447500</v>
       </c>
       <c r="P36">
-        <v>211214889000</v>
+        <v>196244774100</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>9396965000</v>
+        <v>8648114600</v>
       </c>
       <c r="F37">
-        <v>16570350000</v>
+        <v>15064457400</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2228,13 +2228,13 @@
         <v>1470300</v>
       </c>
       <c r="I37">
-        <v>25967315000</v>
+        <v>23712572000</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-29T10:08:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1289467206000</v>
+        <v>1182626953200</v>
       </c>
       <c r="L37">
         <v>94959100</v>
@@ -2243,13 +2243,13 @@
         <v>225900</v>
       </c>
       <c r="N37">
-        <v>7173385000</v>
+        <v>6416342800</v>
       </c>
       <c r="O37">
         <v>22673400</v>
       </c>
       <c r="P37">
-        <v>218388274000</v>
+        <v>202661116900</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>32300</v>
       </c>
       <c r="E38">
-        <v>19385532000</v>
+        <v>18111307500</v>
       </c>
       <c r="F38">
-        <v>16991713000</v>
+        <v>14565641500</v>
       </c>
       <c r="G38">
         <v>418911000</v>
@@ -2278,13 +2278,13 @@
         <v>2100400</v>
       </c>
       <c r="I38">
-        <v>36796156000</v>
+        <v>33095860000</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-29T10:10:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1326263362000</v>
+        <v>1215722813200</v>
       </c>
       <c r="L38">
         <v>97059500</v>
@@ -2293,13 +2293,13 @@
         <v>-370500</v>
       </c>
       <c r="N38">
-        <v>-2393819000</v>
+        <v>-3545666000</v>
       </c>
       <c r="O38">
         <v>22302900</v>
       </c>
       <c r="P38">
-        <v>215994455000</v>
+        <v>199115450900</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>1600</v>
       </c>
       <c r="E39">
-        <v>17372755000</v>
+        <v>16274754100</v>
       </c>
       <c r="F39">
-        <v>18528196000</v>
+        <v>16432493800</v>
       </c>
       <c r="G39">
         <v>52960000.00000001</v>
@@ -2328,13 +2328,13 @@
         <v>2037700</v>
       </c>
       <c r="I39">
-        <v>35953911000</v>
+        <v>32760207900</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-29T10:12:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1362217273000</v>
+        <v>1248483021100</v>
       </c>
       <c r="L39">
         <v>99097200</v>
@@ -2343,13 +2343,13 @@
         <v>-20500</v>
       </c>
       <c r="N39">
-        <v>1155441000</v>
+        <v>157739700</v>
       </c>
       <c r="O39">
         <v>22282400</v>
       </c>
       <c r="P39">
-        <v>217149896000</v>
+        <v>199273190600</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>6600</v>
       </c>
       <c r="E40">
-        <v>23322960000</v>
+        <v>21931053300</v>
       </c>
       <c r="F40">
-        <v>11083487000</v>
+        <v>8349623600</v>
       </c>
       <c r="G40">
         <v>61593000</v>
@@ -2378,13 +2378,13 @@
         <v>2108600</v>
       </c>
       <c r="I40">
-        <v>34468040000</v>
+        <v>30342269900</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-29T10:14:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1396685313000</v>
+        <v>1278825291000</v>
       </c>
       <c r="L40">
         <v>101205800</v>
@@ -2393,13 +2393,13 @@
         <v>-713600</v>
       </c>
       <c r="N40">
-        <v>-12239473000</v>
+        <v>-13581429700</v>
       </c>
       <c r="O40">
         <v>21568800</v>
       </c>
       <c r="P40">
-        <v>204910423000</v>
+        <v>185691760900</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>13200</v>
       </c>
       <c r="E41">
-        <v>16797167000</v>
+        <v>15643222100</v>
       </c>
       <c r="F41">
-        <v>9379647000</v>
+        <v>8864262900</v>
       </c>
       <c r="G41">
-        <v>232694000</v>
+        <v>221904800</v>
       </c>
       <c r="H41">
         <v>1577500</v>
       </c>
       <c r="I41">
-        <v>26409508000</v>
+        <v>24729389800</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-29T10:16:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1423094821000</v>
+        <v>1303554680800</v>
       </c>
       <c r="L41">
         <v>102783300</v>
@@ -2443,13 +2443,13 @@
         <v>-301700</v>
       </c>
       <c r="N41">
-        <v>-7417520000</v>
+        <v>-6778959200</v>
       </c>
       <c r="O41">
         <v>21267100</v>
       </c>
       <c r="P41">
-        <v>197492903000</v>
+        <v>178912801700</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>8400</v>
       </c>
       <c r="E42">
-        <v>8302841000</v>
+        <v>7692152300</v>
       </c>
       <c r="F42">
-        <v>20619275000</v>
+        <v>20115679100</v>
       </c>
       <c r="G42">
         <v>306605000</v>
@@ -2478,13 +2478,13 @@
         <v>1724900</v>
       </c>
       <c r="I42">
-        <v>29228721000</v>
+        <v>28114436400</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-29T10:18:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1452323542000</v>
+        <v>1331669117200</v>
       </c>
       <c r="L42">
         <v>104508200</v>
@@ -2493,13 +2493,13 @@
         <v>627900</v>
       </c>
       <c r="N42">
-        <v>12316434000</v>
+        <v>12423526800</v>
       </c>
       <c r="O42">
         <v>21895000</v>
       </c>
       <c r="P42">
-        <v>209809337000</v>
+        <v>191336328500</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>40000</v>
       </c>
       <c r="E43">
-        <v>13166055000</v>
+        <v>12433188600</v>
       </c>
       <c r="F43">
-        <v>10928156000</v>
+        <v>10695089300</v>
       </c>
       <c r="G43">
         <v>648000000</v>
@@ -2528,13 +2528,13 @@
         <v>1452800</v>
       </c>
       <c r="I43">
-        <v>24742211000</v>
+        <v>23776277900</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-29T10:20:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1477065753000</v>
+        <v>1355445395100</v>
       </c>
       <c r="L43">
         <v>105961000</v>
@@ -2543,13 +2543,13 @@
         <v>-130400</v>
       </c>
       <c r="N43">
-        <v>-2237899000</v>
+        <v>-1738099300</v>
       </c>
       <c r="O43">
         <v>21764600</v>
       </c>
       <c r="P43">
-        <v>207571438000</v>
+        <v>189598229200</v>
       </c>
     </row>
     <row r="44">
@@ -2566,25 +2566,25 @@
         <v>2500</v>
       </c>
       <c r="E44">
-        <v>13510193000</v>
+        <v>11978726000</v>
       </c>
       <c r="F44">
-        <v>15194690000</v>
+        <v>14848836200</v>
       </c>
       <c r="G44">
-        <v>42325000</v>
+        <v>20347000</v>
       </c>
       <c r="H44">
         <v>1440600</v>
       </c>
       <c r="I44">
-        <v>28747208000</v>
+        <v>26847909200</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-29T10:22:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1505812961000</v>
+        <v>1382293304300</v>
       </c>
       <c r="L44">
         <v>107401600</v>
@@ -2593,13 +2593,13 @@
         <v>-152300</v>
       </c>
       <c r="N44">
-        <v>1684497000</v>
+        <v>2870110200</v>
       </c>
       <c r="O44">
         <v>21612300</v>
       </c>
       <c r="P44">
-        <v>209255935000</v>
+        <v>192468339400</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>13624340000</v>
+        <v>13343321300</v>
       </c>
       <c r="F45">
-        <v>13717995000</v>
+        <v>12920493300</v>
       </c>
       <c r="G45">
         <v>958000</v>
@@ -2628,13 +2628,13 @@
         <v>1641600</v>
       </c>
       <c r="I45">
-        <v>27343293000</v>
+        <v>26264772600</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-29T10:24:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1533156254000</v>
+        <v>1408558076900</v>
       </c>
       <c r="L45">
         <v>109043200</v>
@@ -2643,13 +2643,13 @@
         <v>-155900</v>
       </c>
       <c r="N45">
-        <v>93655000</v>
+        <v>-422828000</v>
       </c>
       <c r="O45">
         <v>21456400</v>
       </c>
       <c r="P45">
-        <v>209349590000</v>
+        <v>192045511400</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>2900</v>
       </c>
       <c r="E46">
-        <v>30563708000</v>
+        <v>30342929000</v>
       </c>
       <c r="F46">
-        <v>10514250000</v>
+        <v>10069994700</v>
       </c>
       <c r="G46">
         <v>47206000</v>
@@ -2678,13 +2678,13 @@
         <v>2316300</v>
       </c>
       <c r="I46">
-        <v>41125164000</v>
+        <v>40460129700</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-29T10:26:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1574281418000</v>
+        <v>1449018206600</v>
       </c>
       <c r="L46">
         <v>111359500</v>
@@ -2693,13 +2693,13 @@
         <v>-1176400</v>
       </c>
       <c r="N46">
-        <v>-20049458000</v>
+        <v>-20272934300</v>
       </c>
       <c r="O46">
         <v>20280000</v>
       </c>
       <c r="P46">
-        <v>189300132000</v>
+        <v>171772577100</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>4400</v>
       </c>
       <c r="E47">
-        <v>36347085000</v>
+        <v>33697737000</v>
       </c>
       <c r="F47">
-        <v>7157171000</v>
+        <v>6786142400</v>
       </c>
       <c r="G47">
-        <v>45297000</v>
+        <v>41700600</v>
       </c>
       <c r="H47">
         <v>2545800</v>
       </c>
       <c r="I47">
-        <v>43549553000</v>
+        <v>40525580000</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-29T10:28:00.000Z</v>
       </c>
       <c r="K47">
-        <v>1617830971000</v>
+        <v>1489543786600</v>
       </c>
       <c r="L47">
         <v>113905300</v>
@@ -2743,13 +2743,13 @@
         <v>-1887200</v>
       </c>
       <c r="N47">
-        <v>-29189914000</v>
+        <v>-26911594600</v>
       </c>
       <c r="O47">
         <v>18392800</v>
       </c>
       <c r="P47">
-        <v>160110218000</v>
+        <v>144860982500</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>27900</v>
       </c>
       <c r="E48">
-        <v>25388383000</v>
+        <v>23959513300</v>
       </c>
       <c r="F48">
-        <v>6612056000</v>
+        <v>6505862300</v>
       </c>
       <c r="G48">
         <v>383472000</v>
@@ -2778,13 +2778,13 @@
         <v>1995600</v>
       </c>
       <c r="I48">
-        <v>32383911000</v>
+        <v>30848847600</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-29T10:30:00.000Z</v>
       </c>
       <c r="K48">
-        <v>1650214882000</v>
+        <v>1520392634200</v>
       </c>
       <c r="L48">
         <v>115900900</v>
@@ -2793,13 +2793,13 @@
         <v>-1250900</v>
       </c>
       <c r="N48">
-        <v>-18776327000</v>
+        <v>-17453651000</v>
       </c>
       <c r="O48">
         <v>17141900</v>
       </c>
       <c r="P48">
-        <v>141333891000</v>
+        <v>127407331500</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>6200</v>
       </c>
       <c r="E49">
-        <v>19000426000</v>
+        <v>18953672800</v>
       </c>
       <c r="F49">
-        <v>13426173000</v>
+        <v>13314584700</v>
       </c>
       <c r="G49">
         <v>237457000</v>
@@ -2828,13 +2828,13 @@
         <v>1902000</v>
       </c>
       <c r="I49">
-        <v>32664056000</v>
+        <v>32505714500</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-29T10:32:00.000Z</v>
       </c>
       <c r="K49">
-        <v>1682878938000</v>
+        <v>1552898348700</v>
       </c>
       <c r="L49">
         <v>117802900</v>
@@ -2843,13 +2843,13 @@
         <v>-575800</v>
       </c>
       <c r="N49">
-        <v>-5574253000</v>
+        <v>-5639088100</v>
       </c>
       <c r="O49">
         <v>16566100</v>
       </c>
       <c r="P49">
-        <v>135759638000</v>
+        <v>121768243400</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>13100</v>
       </c>
       <c r="E50">
-        <v>21717667000</v>
+        <v>18360827200</v>
       </c>
       <c r="F50">
-        <v>8381769000</v>
+        <v>8294656200</v>
       </c>
       <c r="G50">
         <v>132780000</v>
@@ -2878,13 +2878,13 @@
         <v>1682600</v>
       </c>
       <c r="I50">
-        <v>30232216000</v>
+        <v>26788263400</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-29T10:34:00.000Z</v>
       </c>
       <c r="K50">
-        <v>1713111154000</v>
+        <v>1579686612100</v>
       </c>
       <c r="L50">
         <v>119485500</v>
@@ -2893,13 +2893,13 @@
         <v>-1100700</v>
       </c>
       <c r="N50">
-        <v>-13335898000</v>
+        <v>-10066171000</v>
       </c>
       <c r="O50">
         <v>15465400</v>
       </c>
       <c r="P50">
-        <v>122423740000</v>
+        <v>111702072400</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>1400</v>
       </c>
       <c r="E51">
-        <v>18214163000</v>
+        <v>15791588000</v>
       </c>
       <c r="F51">
-        <v>8191075000</v>
+        <v>7439227600</v>
       </c>
       <c r="G51">
         <v>28710000</v>
@@ -2928,13 +2928,13 @@
         <v>1678700</v>
       </c>
       <c r="I51">
-        <v>26433948000</v>
+        <v>23259525600</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-29T10:36:00.000Z</v>
       </c>
       <c r="K51">
-        <v>1739545102000</v>
+        <v>1602946137700</v>
       </c>
       <c r="L51">
         <v>121164200</v>
@@ -2943,13 +2943,13 @@
         <v>-710700</v>
       </c>
       <c r="N51">
-        <v>-10023088000</v>
+        <v>-8352360400</v>
       </c>
       <c r="O51">
         <v>14754700</v>
       </c>
       <c r="P51">
-        <v>112400652000</v>
+        <v>103349712000</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>1000</v>
       </c>
       <c r="E52">
-        <v>15145808000</v>
+        <v>13060495400</v>
       </c>
       <c r="F52">
-        <v>7877281000</v>
+        <v>7141817200</v>
       </c>
       <c r="G52">
         <v>21789000</v>
@@ -2978,13 +2978,13 @@
         <v>1465500</v>
       </c>
       <c r="I52">
-        <v>23044878000</v>
+        <v>20224101600</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-29T10:38:00.000Z</v>
       </c>
       <c r="K52">
-        <v>1762589980000</v>
+        <v>1623170239300</v>
       </c>
       <c r="L52">
         <v>122629700</v>
@@ -2993,13 +2993,13 @@
         <v>-628700</v>
       </c>
       <c r="N52">
-        <v>-7268527000</v>
+        <v>-5918678200</v>
       </c>
       <c r="O52">
         <v>14126000</v>
       </c>
       <c r="P52">
-        <v>105132125000</v>
+        <v>97431033800</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>44700</v>
       </c>
       <c r="E53">
-        <v>17151537000</v>
+        <v>13025367300</v>
       </c>
       <c r="F53">
-        <v>5318097000</v>
+        <v>4754661000</v>
       </c>
       <c r="G53">
-        <v>667900000</v>
+        <v>28040500</v>
       </c>
       <c r="H53">
         <v>1415300</v>
       </c>
       <c r="I53">
-        <v>23137534000</v>
+        <v>17808068800</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-29T10:40:00.000Z</v>
       </c>
       <c r="K53">
-        <v>1785727514000</v>
+        <v>1640978308100</v>
       </c>
       <c r="L53">
         <v>124045000</v>
@@ -3043,13 +3043,13 @@
         <v>-810400</v>
       </c>
       <c r="N53">
-        <v>-11833440000</v>
+        <v>-8270706300</v>
       </c>
       <c r="O53">
         <v>13315600</v>
       </c>
       <c r="P53">
-        <v>93298685000</v>
+        <v>89160327500</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>4700</v>
       </c>
       <c r="E54">
-        <v>11864676000</v>
+        <v>11687353500</v>
       </c>
       <c r="F54">
-        <v>7553637000</v>
+        <v>7013377800</v>
       </c>
       <c r="G54">
         <v>27041000</v>
@@ -3078,13 +3078,13 @@
         <v>1220700</v>
       </c>
       <c r="I54">
-        <v>19445354000</v>
+        <v>18727772300</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-29T10:42:00.000Z</v>
       </c>
       <c r="K54">
-        <v>1805172868000</v>
+        <v>1659706080400</v>
       </c>
       <c r="L54">
         <v>125265700</v>
@@ -3093,13 +3093,13 @@
         <v>-325000</v>
       </c>
       <c r="N54">
-        <v>-4311039000</v>
+        <v>-4673975700</v>
       </c>
       <c r="O54">
         <v>12990600</v>
       </c>
       <c r="P54">
-        <v>88987646000</v>
+        <v>84486351800</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>10100</v>
       </c>
       <c r="E55">
-        <v>9593025000</v>
+        <v>8520798300</v>
       </c>
       <c r="F55">
-        <v>11665824000</v>
+        <v>11097193200</v>
       </c>
       <c r="G55">
         <v>247325000</v>
@@ -3128,13 +3128,13 @@
         <v>1304200</v>
       </c>
       <c r="I55">
-        <v>21506174000</v>
+        <v>19865316500</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-29T10:44:00.000Z</v>
       </c>
       <c r="K55">
-        <v>1826679042000</v>
+        <v>1679571396900</v>
       </c>
       <c r="L55">
         <v>126569900</v>
@@ -3143,13 +3143,13 @@
         <v>-17900</v>
       </c>
       <c r="N55">
-        <v>2072799000</v>
+        <v>2576394900</v>
       </c>
       <c r="O55">
         <v>12972700</v>
       </c>
       <c r="P55">
-        <v>91060445000</v>
+        <v>87062746700</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>100</v>
       </c>
       <c r="E56">
-        <v>12931324000</v>
+        <v>12700155400</v>
       </c>
       <c r="F56">
-        <v>12637837000</v>
+        <v>12218157100</v>
       </c>
       <c r="G56">
         <v>409999.99999999994</v>
@@ -3178,13 +3178,13 @@
         <v>1424100</v>
       </c>
       <c r="I56">
-        <v>25569571000</v>
+        <v>24918722500</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-29T10:46:00.000Z</v>
       </c>
       <c r="K56">
-        <v>1852248613000</v>
+        <v>1704490119400</v>
       </c>
       <c r="L56">
         <v>127994000</v>
@@ -3193,13 +3193,13 @@
         <v>-65800</v>
       </c>
       <c r="N56">
-        <v>-293487000</v>
+        <v>-481998300</v>
       </c>
       <c r="O56">
         <v>12906900</v>
       </c>
       <c r="P56">
-        <v>90766958000</v>
+        <v>86580748400</v>
       </c>
     </row>
     <row r="57">
@@ -3216,25 +3216,25 @@
         <v>200</v>
       </c>
       <c r="E57">
-        <v>5319973000</v>
+        <v>3513181600</v>
       </c>
       <c r="F57">
-        <v>15177383000</v>
+        <v>12639723200</v>
       </c>
       <c r="G57">
-        <v>3000000</v>
+        <v>3000</v>
       </c>
       <c r="H57">
         <v>1123600</v>
       </c>
       <c r="I57">
-        <v>20500356000</v>
+        <v>16152907800</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-29T10:48:00.000Z</v>
       </c>
       <c r="K57">
-        <v>1872748969000</v>
+        <v>1720643027200</v>
       </c>
       <c r="L57">
         <v>129117600</v>
@@ -3243,13 +3243,13 @@
         <v>512200</v>
       </c>
       <c r="N57">
-        <v>9857410000</v>
+        <v>9126541600</v>
       </c>
       <c r="O57">
         <v>13419100</v>
       </c>
       <c r="P57">
-        <v>100624368000</v>
+        <v>95707290000</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>300</v>
       </c>
       <c r="E58">
-        <v>6605405000</v>
+        <v>5673537800</v>
       </c>
       <c r="F58">
-        <v>8988292000</v>
+        <v>8809171300</v>
       </c>
       <c r="G58">
         <v>1245000.0000000002</v>
@@ -3278,13 +3278,13 @@
         <v>931100</v>
       </c>
       <c r="I58">
-        <v>15594942000</v>
+        <v>14483954100</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-29T10:50:00.000Z</v>
       </c>
       <c r="K58">
-        <v>1888343911000</v>
+        <v>1735126981300</v>
       </c>
       <c r="L58">
         <v>130048700</v>
@@ -3293,13 +3293,13 @@
         <v>171800</v>
       </c>
       <c r="N58">
-        <v>2382887000</v>
+        <v>3135633500</v>
       </c>
       <c r="O58">
         <v>13590900</v>
       </c>
       <c r="P58">
-        <v>103007255000</v>
+        <v>98842923500</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>2900</v>
       </c>
       <c r="E59">
-        <v>13466677000</v>
+        <v>12923520700</v>
       </c>
       <c r="F59">
-        <v>9622436000</v>
+        <v>9489069500</v>
       </c>
       <c r="G59">
         <v>17980000</v>
@@ -3328,13 +3328,13 @@
         <v>1296600</v>
       </c>
       <c r="I59">
-        <v>23107093000</v>
+        <v>22430570200</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-29T10:52:00.000Z</v>
       </c>
       <c r="K59">
-        <v>1911451004000</v>
+        <v>1757557551500</v>
       </c>
       <c r="L59">
         <v>131345300</v>
@@ -3343,13 +3343,13 @@
         <v>-400300</v>
       </c>
       <c r="N59">
-        <v>-3844241000</v>
+        <v>-3434451200</v>
       </c>
       <c r="O59">
         <v>13190600</v>
       </c>
       <c r="P59">
-        <v>99163014000</v>
+        <v>95408472300</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>8798571000</v>
+        <v>7341929100</v>
       </c>
       <c r="F60">
-        <v>7131957000</v>
+        <v>4877813400</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3378,13 +3378,13 @@
         <v>964400</v>
       </c>
       <c r="I60">
-        <v>15930528000</v>
+        <v>12219742500</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-29T10:54:00.000Z</v>
       </c>
       <c r="K60">
-        <v>1927381532000</v>
+        <v>1769777294000</v>
       </c>
       <c r="L60">
         <v>132309700</v>
@@ -3393,13 +3393,13 @@
         <v>-239600</v>
       </c>
       <c r="N60">
-        <v>-1666614000</v>
+        <v>-2464115700</v>
       </c>
       <c r="O60">
         <v>12951000</v>
       </c>
       <c r="P60">
-        <v>97496400000</v>
+        <v>92944356600</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>2200</v>
       </c>
       <c r="E61">
-        <v>9113163000</v>
+        <v>8440836000</v>
       </c>
       <c r="F61">
-        <v>8487383000</v>
+        <v>7457813600</v>
       </c>
       <c r="G61">
         <v>59339000</v>
@@ -3428,13 +3428,13 @@
         <v>1063300</v>
       </c>
       <c r="I61">
-        <v>17659885000</v>
+        <v>15957988600</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-29T10:56:00.000Z</v>
       </c>
       <c r="K61">
-        <v>1945041417000</v>
+        <v>1785735282600</v>
       </c>
       <c r="L61">
         <v>133373000</v>
@@ -3443,13 +3443,13 @@
         <v>-144300</v>
       </c>
       <c r="N61">
-        <v>-625780000</v>
+        <v>-983022400</v>
       </c>
       <c r="O61">
         <v>12806700</v>
       </c>
       <c r="P61">
-        <v>96870620000</v>
+        <v>91961334200</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>7108062000</v>
+        <v>7080189900</v>
       </c>
       <c r="F62">
-        <v>11003653000</v>
+        <v>10192964500</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>1029000</v>
       </c>
       <c r="I62">
-        <v>18111715000</v>
+        <v>17273154400</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-29T10:58:00.000Z</v>
       </c>
       <c r="K62">
-        <v>1963153132000</v>
+        <v>1803008437000</v>
       </c>
       <c r="L62">
         <v>134402000</v>
@@ -3493,13 +3493,13 @@
         <v>118800</v>
       </c>
       <c r="N62">
-        <v>3895591000</v>
+        <v>3112774600</v>
       </c>
       <c r="O62">
         <v>12925500</v>
       </c>
       <c r="P62">
-        <v>100766211000</v>
+        <v>95074108800</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>9801681000</v>
+        <v>8755428300</v>
       </c>
       <c r="F63">
-        <v>6826984000</v>
+        <v>6317394100</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>874300</v>
       </c>
       <c r="I63">
-        <v>16628665000</v>
+        <v>15072822400</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-29T11:00:00.000Z</v>
       </c>
       <c r="K63">
-        <v>1979781797000</v>
+        <v>1818081259400</v>
       </c>
       <c r="L63">
         <v>135276300</v>
@@ -3543,13 +3543,13 @@
         <v>-238700</v>
       </c>
       <c r="N63">
-        <v>-2974697000</v>
+        <v>-2438034200</v>
       </c>
       <c r="O63">
         <v>12686800</v>
       </c>
       <c r="P63">
-        <v>97791514000</v>
+        <v>92636074600</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>10113635000</v>
+        <v>9939509300</v>
       </c>
       <c r="F64">
-        <v>8360398000</v>
+        <v>8126432200</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3578,13 +3578,13 @@
         <v>1081300</v>
       </c>
       <c r="I64">
-        <v>18474033000</v>
+        <v>18065941500</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-29T11:02:00.000Z</v>
       </c>
       <c r="K64">
-        <v>1998255830000</v>
+        <v>1836147200900</v>
       </c>
       <c r="L64">
         <v>136357600</v>
@@ -3593,13 +3593,13 @@
         <v>-177500</v>
       </c>
       <c r="N64">
-        <v>-1753237000</v>
+        <v>-1813077100</v>
       </c>
       <c r="O64">
         <v>12509300</v>
       </c>
       <c r="P64">
-        <v>96038277000</v>
+        <v>90822997500</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>600</v>
       </c>
       <c r="E65">
-        <v>26423195000</v>
+        <v>25837081700</v>
       </c>
       <c r="F65">
-        <v>6495631000</v>
+        <v>5648878600</v>
       </c>
       <c r="G65">
         <v>10496000</v>
@@ -3628,13 +3628,13 @@
         <v>2033100</v>
       </c>
       <c r="I65">
-        <v>32929322000</v>
+        <v>31496456300</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-29T11:04:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2031185152000</v>
+        <v>1867643657200</v>
       </c>
       <c r="L65">
         <v>138390700</v>
@@ -3643,13 +3643,13 @@
         <v>-1265300</v>
       </c>
       <c r="N65">
-        <v>-19927564000</v>
+        <v>-20188203100</v>
       </c>
       <c r="O65">
         <v>11244000</v>
       </c>
       <c r="P65">
-        <v>76110713000</v>
+        <v>70634794400</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>5300</v>
       </c>
       <c r="E66">
-        <v>25934056000</v>
+        <v>23394098500</v>
       </c>
       <c r="F66">
-        <v>7971028000</v>
+        <v>7530668800</v>
       </c>
       <c r="G66">
         <v>57282000</v>
@@ -3678,13 +3678,13 @@
         <v>2104500</v>
       </c>
       <c r="I66">
-        <v>33962366000</v>
+        <v>30982049300</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-29T11:06:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2065147518000</v>
+        <v>1898625706500</v>
       </c>
       <c r="L66">
         <v>140495200</v>
@@ -3693,13 +3693,13 @@
         <v>-1234600</v>
       </c>
       <c r="N66">
-        <v>-17963028000</v>
+        <v>-15863429700</v>
       </c>
       <c r="O66">
         <v>10009400</v>
       </c>
       <c r="P66">
-        <v>58147685000</v>
+        <v>54771364700</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>8600</v>
       </c>
       <c r="E67">
-        <v>43514962000</v>
+        <v>32049039400</v>
       </c>
       <c r="F67">
-        <v>4846873000</v>
+        <v>4177742800</v>
       </c>
       <c r="G67">
         <v>82383000</v>
@@ -3728,13 +3728,13 @@
         <v>2829600</v>
       </c>
       <c r="I67">
-        <v>48444218000</v>
+        <v>36309165200</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-29T11:08:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2113591736000</v>
+        <v>1934934871700</v>
       </c>
       <c r="L67">
         <v>143324800</v>
@@ -3743,13 +3743,13 @@
         <v>-2259600</v>
       </c>
       <c r="N67">
-        <v>-38668089000</v>
+        <v>-27871296600</v>
       </c>
       <c r="O67">
         <v>7749800</v>
       </c>
       <c r="P67">
-        <v>19479596000</v>
+        <v>26900068100</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>4700</v>
       </c>
       <c r="E68">
-        <v>31943683000</v>
+        <v>30320308000</v>
       </c>
       <c r="F68">
-        <v>8315972000</v>
+        <v>7960927400</v>
       </c>
       <c r="G68">
-        <v>47335000</v>
+        <v>41540800</v>
       </c>
       <c r="H68">
         <v>2900000</v>
       </c>
       <c r="I68">
-        <v>40306990000</v>
+        <v>38322776200</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-29T11:10:00.000Z</v>
       </c>
       <c r="K68">
-        <v>2153898726000</v>
+        <v>1973257647900</v>
       </c>
       <c r="L68">
         <v>146224800</v>
@@ -3793,13 +3793,13 @@
         <v>-1902500</v>
       </c>
       <c r="N68">
-        <v>-23627711000</v>
+        <v>-22359380600</v>
       </c>
       <c r="O68">
         <v>5847300</v>
       </c>
       <c r="P68">
-        <v>-4148115000</v>
+        <v>4540687500</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>2700</v>
       </c>
       <c r="E69">
-        <v>37960786000</v>
+        <v>28804451500</v>
       </c>
       <c r="F69">
-        <v>6285417000</v>
+        <v>6074927700</v>
       </c>
       <c r="G69">
         <v>60370000</v>
@@ -3828,13 +3828,13 @@
         <v>2985800</v>
       </c>
       <c r="I69">
-        <v>44306573000</v>
+        <v>34939749200</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-29T11:12:00.000Z</v>
       </c>
       <c r="K69">
-        <v>2198205299000</v>
+        <v>2008197397100</v>
       </c>
       <c r="L69">
         <v>149210600</v>
@@ -3843,13 +3843,13 @@
         <v>-2196300</v>
       </c>
       <c r="N69">
-        <v>-31675369000</v>
+        <v>-22729523800</v>
       </c>
       <c r="O69">
         <v>3651000</v>
       </c>
       <c r="P69">
-        <v>-35823484000</v>
+        <v>-18188836300</v>
       </c>
     </row>
     <row r="70">
@@ -3866,25 +3866,25 @@
         <v>23900</v>
       </c>
       <c r="E70">
-        <v>22458121000</v>
+        <v>19464617500</v>
       </c>
       <c r="F70">
-        <v>13541758000</v>
+        <v>12087313900</v>
       </c>
       <c r="G70">
-        <v>306260000</v>
+        <v>153413000</v>
       </c>
       <c r="H70">
         <v>1990000</v>
       </c>
       <c r="I70">
-        <v>36306139000</v>
+        <v>31705344400</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-29T11:14:00.000Z</v>
       </c>
       <c r="K70">
-        <v>2234511438000</v>
+        <v>2039902741500</v>
       </c>
       <c r="L70">
         <v>151200600</v>
@@ -3893,13 +3893,13 @@
         <v>-594700</v>
       </c>
       <c r="N70">
-        <v>-8916363000</v>
+        <v>-7377303600</v>
       </c>
       <c r="O70">
         <v>3056300</v>
       </c>
       <c r="P70">
-        <v>-44739847000</v>
+        <v>-25566139900</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>5700</v>
       </c>
       <c r="E71">
-        <v>22809968000</v>
+        <v>21908969900</v>
       </c>
       <c r="F71">
-        <v>6674557000</v>
+        <v>6099932200</v>
       </c>
       <c r="G71">
         <v>377473000</v>
@@ -3928,13 +3928,13 @@
         <v>1654900</v>
       </c>
       <c r="I71">
-        <v>29861998000</v>
+        <v>28386375100</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-29T11:16:00.000Z</v>
       </c>
       <c r="K71">
-        <v>2264373436000</v>
+        <v>2068289116600</v>
       </c>
       <c r="L71">
         <v>152855500</v>
@@ -3943,13 +3943,13 @@
         <v>-985600</v>
       </c>
       <c r="N71">
-        <v>-16135411000</v>
+        <v>-15809037700</v>
       </c>
       <c r="O71">
         <v>2070700</v>
       </c>
       <c r="P71">
-        <v>-60875258000</v>
+        <v>-41375177600</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>2100</v>
       </c>
       <c r="E72">
-        <v>22537131000</v>
+        <v>21680188800</v>
       </c>
       <c r="F72">
-        <v>10187758000</v>
+        <v>10048197700</v>
       </c>
       <c r="G72">
         <v>24360000</v>
@@ -3978,13 +3978,13 @@
         <v>1836800</v>
       </c>
       <c r="I72">
-        <v>32749249000</v>
+        <v>31752746500</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-29T11:18:00.000Z</v>
       </c>
       <c r="K72">
-        <v>2297122685000</v>
+        <v>2100041863100</v>
       </c>
       <c r="L72">
         <v>154692300</v>
@@ -3993,13 +3993,13 @@
         <v>-782700</v>
       </c>
       <c r="N72">
-        <v>-12349373000</v>
+        <v>-11631991100</v>
       </c>
       <c r="O72">
         <v>1288000</v>
       </c>
       <c r="P72">
-        <v>-73224631000</v>
+        <v>-53007168700</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>13909434000</v>
+        <v>11456389500</v>
       </c>
       <c r="F73">
-        <v>11278701000</v>
+        <v>10614765600</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>1294600</v>
       </c>
       <c r="I73">
-        <v>25188135000</v>
+        <v>22071155100</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-29T11:20:00.000Z</v>
       </c>
       <c r="K73">
-        <v>2322310820000</v>
+        <v>2122113018200</v>
       </c>
       <c r="L73">
         <v>155986900</v>
@@ -4043,13 +4043,13 @@
         <v>-116200</v>
       </c>
       <c r="N73">
-        <v>-2630733000</v>
+        <v>-841623900</v>
       </c>
       <c r="O73">
         <v>1171800</v>
       </c>
       <c r="P73">
-        <v>-75855364000</v>
+        <v>-53848792600</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>15859107000</v>
+        <v>15275291400</v>
       </c>
       <c r="F74">
-        <v>7391053000</v>
+        <v>6138806500</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4078,13 +4078,13 @@
         <v>1283400</v>
       </c>
       <c r="I74">
-        <v>23250160000</v>
+        <v>21414097900</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-29T11:22:00.000Z</v>
       </c>
       <c r="K74">
-        <v>2345560980000</v>
+        <v>2143527116100</v>
       </c>
       <c r="L74">
         <v>157270300</v>
@@ -4093,13 +4093,13 @@
         <v>-413400</v>
       </c>
       <c r="N74">
-        <v>-8468054000</v>
+        <v>-9136484900</v>
       </c>
       <c r="O74">
         <v>758400</v>
       </c>
       <c r="P74">
-        <v>-84323418000</v>
+        <v>-62985277500</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>1000</v>
       </c>
       <c r="E75">
-        <v>22178544000</v>
+        <v>18398028300</v>
       </c>
       <c r="F75">
-        <v>8235000000</v>
+        <v>7779356100</v>
       </c>
       <c r="G75">
         <v>4850000</v>
@@ -4128,13 +4128,13 @@
         <v>1606600</v>
       </c>
       <c r="I75">
-        <v>30418394000</v>
+        <v>26182234400</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-29T11:24:00.000Z</v>
       </c>
       <c r="K75">
-        <v>2375979374000</v>
+        <v>2169709350500</v>
       </c>
       <c r="L75">
         <v>158876900</v>
@@ -4143,13 +4143,13 @@
         <v>-808400</v>
       </c>
       <c r="N75">
-        <v>-13943544000</v>
+        <v>-10618672200</v>
       </c>
       <c r="O75">
         <v>-50000</v>
       </c>
       <c r="P75">
-        <v>-98266962000</v>
+        <v>-73603949700</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>18174500000</v>
+        <v>16294481900</v>
       </c>
       <c r="F76">
-        <v>8101042000</v>
+        <v>7588155400</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>1627100</v>
       </c>
       <c r="I76">
-        <v>26275542000</v>
+        <v>23882637300</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-29T11:26:00.000Z</v>
       </c>
       <c r="K76">
-        <v>2402254916000</v>
+        <v>2193591987800</v>
       </c>
       <c r="L76">
         <v>160504000</v>
@@ -4193,13 +4193,13 @@
         <v>-756900</v>
       </c>
       <c r="N76">
-        <v>-10073458000</v>
+        <v>-8706326500</v>
       </c>
       <c r="O76">
         <v>-806900</v>
       </c>
       <c r="P76">
-        <v>-108340420000</v>
+        <v>-82310276200</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>2500</v>
       </c>
       <c r="E77">
-        <v>14759941000</v>
+        <v>13777924000</v>
       </c>
       <c r="F77">
-        <v>6279360000</v>
+        <v>5934904800</v>
       </c>
       <c r="G77">
-        <v>172500000</v>
+        <v>172500</v>
       </c>
       <c r="H77">
         <v>1315100</v>
       </c>
       <c r="I77">
-        <v>21211801000</v>
+        <v>19713001300</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-29T11:28:00.000Z</v>
       </c>
       <c r="K77">
-        <v>2423466717000</v>
+        <v>2213304989100</v>
       </c>
       <c r="L77">
         <v>161819100</v>
@@ -4243,13 +4243,13 @@
         <v>-568600</v>
       </c>
       <c r="N77">
-        <v>-8480581000</v>
+        <v>-7843019200</v>
       </c>
       <c r="O77">
         <v>-1375500</v>
       </c>
       <c r="P77">
-        <v>-116821001000</v>
+        <v>-90153295400</v>
       </c>
     </row>
     <row r="78">
@@ -4284,7 +4284,7 @@
         <v>2022-12-29T11:30:00.000Z</v>
       </c>
       <c r="K78">
-        <v>2425346727000</v>
+        <v>2215184999100</v>
       </c>
       <c r="L78">
         <v>161923800</v>
@@ -4299,7 +4299,7 @@
         <v>-1472800</v>
       </c>
       <c r="P78">
-        <v>-118625291000</v>
+        <v>-91957585400</v>
       </c>
     </row>
     <row r="79">
@@ -4334,7 +4334,7 @@
         <v>2022-12-29T12:58:00.000Z</v>
       </c>
       <c r="K79">
-        <v>2425359597000</v>
+        <v>2215197869100</v>
       </c>
       <c r="L79">
         <v>161924900</v>
@@ -4349,7 +4349,7 @@
         <v>-1473900</v>
       </c>
       <c r="P79">
-        <v>-118638161000</v>
+        <v>-91970455400</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>261000</v>
       </c>
       <c r="E80">
-        <v>86800548000</v>
+        <v>81691062600</v>
       </c>
       <c r="F80">
-        <v>37080570000</v>
+        <v>35391660600</v>
       </c>
       <c r="G80">
         <v>3206832000</v>
@@ -4378,13 +4378,13 @@
         <v>8766000</v>
       </c>
       <c r="I80">
-        <v>127087950000</v>
+        <v>120289555200</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-29T13:00:00.000Z</v>
       </c>
       <c r="K80">
-        <v>2552447547000</v>
+        <v>2335487424300</v>
       </c>
       <c r="L80">
         <v>170690900</v>
@@ -4393,13 +4393,13 @@
         <v>-3530200</v>
       </c>
       <c r="N80">
-        <v>-49719978000</v>
+        <v>-46299402000</v>
       </c>
       <c r="O80">
         <v>-5004100</v>
       </c>
       <c r="P80">
-        <v>-168358139000</v>
+        <v>-138269857400</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>11500</v>
       </c>
       <c r="E81">
-        <v>32487822000</v>
+        <v>28994319000</v>
       </c>
       <c r="F81">
-        <v>22027436000</v>
+        <v>20365100000</v>
       </c>
       <c r="G81">
         <v>137016000</v>
@@ -4428,13 +4428,13 @@
         <v>3486000</v>
       </c>
       <c r="I81">
-        <v>54652274000</v>
+        <v>49496435000</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-29T13:02:00.000Z</v>
       </c>
       <c r="K81">
-        <v>2607099821000</v>
+        <v>2384983859300</v>
       </c>
       <c r="L81">
         <v>174176900</v>
@@ -4443,13 +4443,13 @@
         <v>-912900</v>
       </c>
       <c r="N81">
-        <v>-10460386000</v>
+        <v>-8629219000</v>
       </c>
       <c r="O81">
         <v>-5917000</v>
       </c>
       <c r="P81">
-        <v>-178818525000</v>
+        <v>-146899076400</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>25400</v>
       </c>
       <c r="E82">
-        <v>35967432000</v>
+        <v>31827975600</v>
       </c>
       <c r="F82">
-        <v>24059346000</v>
+        <v>22468138800</v>
       </c>
       <c r="G82">
-        <v>484904000</v>
+        <v>187601600</v>
       </c>
       <c r="H82">
         <v>3586200</v>
       </c>
       <c r="I82">
-        <v>60511682000</v>
+        <v>54483716000</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-29T13:04:00.000Z</v>
       </c>
       <c r="K82">
-        <v>2667611503000</v>
+        <v>2439467575300</v>
       </c>
       <c r="L82">
         <v>177763100</v>
@@ -4493,13 +4493,13 @@
         <v>-653200</v>
       </c>
       <c r="N82">
-        <v>-11908086000</v>
+        <v>-9359836800</v>
       </c>
       <c r="O82">
         <v>-6570200</v>
       </c>
       <c r="P82">
-        <v>-190726611000</v>
+        <v>-156258913200</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>48300</v>
       </c>
       <c r="E83">
-        <v>23154012000</v>
+        <v>21339628200</v>
       </c>
       <c r="F83">
-        <v>33055230000</v>
+        <v>31833053400</v>
       </c>
       <c r="G83">
         <v>1000009000</v>
@@ -4528,13 +4528,13 @@
         <v>3685100</v>
       </c>
       <c r="I83">
-        <v>57209251000</v>
+        <v>54172690600</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-29T13:06:00.000Z</v>
       </c>
       <c r="K83">
-        <v>2724820754000</v>
+        <v>2493640265900</v>
       </c>
       <c r="L83">
         <v>181448200</v>
@@ -4543,13 +4543,13 @@
         <v>849600</v>
       </c>
       <c r="N83">
-        <v>9901218000</v>
+        <v>10493425200</v>
       </c>
       <c r="O83">
         <v>-5720600</v>
       </c>
       <c r="P83">
-        <v>-180825393000</v>
+        <v>-145765488000</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>11000</v>
       </c>
       <c r="E84">
-        <v>13060706000</v>
+        <v>11929738100</v>
       </c>
       <c r="F84">
-        <v>30114679000</v>
+        <v>27979016800</v>
       </c>
       <c r="G84">
         <v>196812000</v>
@@ -4578,13 +4578,13 @@
         <v>3000700</v>
       </c>
       <c r="I84">
-        <v>43372197000</v>
+        <v>40105566900</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-29T13:08:00.000Z</v>
       </c>
       <c r="K84">
-        <v>2768192951000</v>
+        <v>2533745832800</v>
       </c>
       <c r="L84">
         <v>184448900</v>
@@ -4593,13 +4593,13 @@
         <v>1170100</v>
       </c>
       <c r="N84">
-        <v>17053973000</v>
+        <v>16049278700</v>
       </c>
       <c r="O84">
         <v>-4550500</v>
       </c>
       <c r="P84">
-        <v>-163771420000</v>
+        <v>-129716209300</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>19500</v>
       </c>
       <c r="E85">
-        <v>14307175000</v>
+        <v>12907176400</v>
       </c>
       <c r="F85">
-        <v>35688549000</v>
+        <v>30460082700</v>
       </c>
       <c r="G85">
         <v>314798000</v>
@@ -4628,13 +4628,13 @@
         <v>2903000</v>
       </c>
       <c r="I85">
-        <v>50310522000</v>
+        <v>43682057100</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-29T13:10:00.000Z</v>
       </c>
       <c r="K85">
-        <v>2818503473000</v>
+        <v>2577427889900</v>
       </c>
       <c r="L85">
         <v>187351900</v>
@@ -4643,13 +4643,13 @@
         <v>1132300</v>
       </c>
       <c r="N85">
-        <v>21381374000</v>
+        <v>17552906300</v>
       </c>
       <c r="O85">
         <v>-3418200</v>
       </c>
       <c r="P85">
-        <v>-142390046000</v>
+        <v>-112163303000</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>13100</v>
       </c>
       <c r="E86">
-        <v>24677554000</v>
+        <v>22733799700</v>
       </c>
       <c r="F86">
-        <v>16488813000</v>
+        <v>15782520000</v>
       </c>
       <c r="G86">
         <v>172375000</v>
@@ -4678,13 +4678,13 @@
         <v>2331300</v>
       </c>
       <c r="I86">
-        <v>41338742000</v>
+        <v>38688694700</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-29T13:12:00.000Z</v>
       </c>
       <c r="K86">
-        <v>2859842215000</v>
+        <v>2616116584600</v>
       </c>
       <c r="L86">
         <v>189683200</v>
@@ -4693,13 +4693,13 @@
         <v>-353400</v>
       </c>
       <c r="N86">
-        <v>-8188741000</v>
+        <v>-6951279700</v>
       </c>
       <c r="O86">
         <v>-3771600</v>
       </c>
       <c r="P86">
-        <v>-150578787000</v>
+        <v>-119114582700</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>12800</v>
       </c>
       <c r="E87">
-        <v>30580921000</v>
+        <v>25225681600</v>
       </c>
       <c r="F87">
-        <v>11417597000</v>
+        <v>9869147000</v>
       </c>
       <c r="G87">
         <v>239355000</v>
@@ -4728,13 +4728,13 @@
         <v>2673400</v>
       </c>
       <c r="I87">
-        <v>42237873000</v>
+        <v>35334183600</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-29T13:14:00.000Z</v>
       </c>
       <c r="K87">
-        <v>2902080088000</v>
+        <v>2651450768200</v>
       </c>
       <c r="L87">
         <v>192356600</v>
@@ -4743,13 +4743,13 @@
         <v>-1309400</v>
       </c>
       <c r="N87">
-        <v>-19163324000</v>
+        <v>-15356534600</v>
       </c>
       <c r="O87">
         <v>-5081000</v>
       </c>
       <c r="P87">
-        <v>-169742111000</v>
+        <v>-134471117300</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>1700</v>
       </c>
       <c r="E88">
-        <v>22092490000</v>
+        <v>21327156100</v>
       </c>
       <c r="F88">
-        <v>11501226000</v>
+        <v>10788839100</v>
       </c>
       <c r="G88">
         <v>38621000</v>
@@ -4778,13 +4778,13 @@
         <v>2126000</v>
       </c>
       <c r="I88">
-        <v>33632337000</v>
+        <v>32154616200</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-29T13:16:00.000Z</v>
       </c>
       <c r="K88">
-        <v>2935712425000</v>
+        <v>2683605384400</v>
       </c>
       <c r="L88">
         <v>194482600</v>
@@ -4793,13 +4793,13 @@
         <v>-682500</v>
       </c>
       <c r="N88">
-        <v>-10591264000</v>
+        <v>-10538317000</v>
       </c>
       <c r="O88">
         <v>-5763500</v>
       </c>
       <c r="P88">
-        <v>-180333375000</v>
+        <v>-145009434300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>8100</v>
       </c>
       <c r="E89">
-        <v>19093781000</v>
+        <v>16370606900</v>
       </c>
       <c r="F89">
-        <v>20623171000</v>
+        <v>18606090100</v>
       </c>
       <c r="G89">
         <v>109800000</v>
@@ -4828,13 +4828,13 @@
         <v>2291200</v>
       </c>
       <c r="I89">
-        <v>39826752000</v>
+        <v>35086497000</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-29T13:18:00.000Z</v>
       </c>
       <c r="K89">
-        <v>2975539177000</v>
+        <v>2718691881400</v>
       </c>
       <c r="L89">
         <v>196773800</v>
@@ -4843,13 +4843,13 @@
         <v>-274900</v>
       </c>
       <c r="N89">
-        <v>1529390000</v>
+        <v>2235483200</v>
       </c>
       <c r="O89">
         <v>-6038400</v>
       </c>
       <c r="P89">
-        <v>-178803985000</v>
+        <v>-142773951100</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>2000</v>
       </c>
       <c r="E90">
-        <v>9460031000</v>
+        <v>8063628800</v>
       </c>
       <c r="F90">
-        <v>14230128000</v>
+        <v>12996862500</v>
       </c>
       <c r="G90">
         <v>35525000</v>
@@ -4878,13 +4878,13 @@
         <v>1492000</v>
       </c>
       <c r="I90">
-        <v>23725684000</v>
+        <v>21096016300</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-29T13:20:00.000Z</v>
       </c>
       <c r="K90">
-        <v>2999264861000</v>
+        <v>2739787897700</v>
       </c>
       <c r="L90">
         <v>198265800</v>
@@ -4893,13 +4893,13 @@
         <v>171800</v>
       </c>
       <c r="N90">
-        <v>4770097000</v>
+        <v>4933233700</v>
       </c>
       <c r="O90">
         <v>-5866600</v>
       </c>
       <c r="P90">
-        <v>-174033888000</v>
+        <v>-137840717400</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>600</v>
       </c>
       <c r="E91">
-        <v>12933837000</v>
+        <v>12049821900</v>
       </c>
       <c r="F91">
-        <v>16248331000</v>
+        <v>16050429100</v>
       </c>
       <c r="G91">
         <v>12750000</v>
@@ -4928,13 +4928,13 @@
         <v>1897300</v>
       </c>
       <c r="I91">
-        <v>29194918000</v>
+        <v>28113001000</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-29T13:22:00.000Z</v>
       </c>
       <c r="K91">
-        <v>3028459779000</v>
+        <v>2767900898700</v>
       </c>
       <c r="L91">
         <v>200163100</v>
@@ -4943,13 +4943,13 @@
         <v>410700</v>
       </c>
       <c r="N91">
-        <v>3314494000</v>
+        <v>4000607200</v>
       </c>
       <c r="O91">
         <v>-5455900</v>
       </c>
       <c r="P91">
-        <v>-170719394000</v>
+        <v>-133840110200</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>19500</v>
       </c>
       <c r="E92">
-        <v>9564579000</v>
+        <v>9109634400</v>
       </c>
       <c r="F92">
-        <v>21951863000</v>
+        <v>19484233100</v>
       </c>
       <c r="G92">
         <v>83540000</v>
@@ -4978,13 +4978,13 @@
         <v>2034900</v>
       </c>
       <c r="I92">
-        <v>31599982000</v>
+        <v>28677407500</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-29T13:24:00.000Z</v>
       </c>
       <c r="K92">
-        <v>3060059761000</v>
+        <v>2796578306200</v>
       </c>
       <c r="L92">
         <v>202198000</v>
@@ -4993,13 +4993,13 @@
         <v>693000</v>
       </c>
       <c r="N92">
-        <v>12387284000</v>
+        <v>10374598700</v>
       </c>
       <c r="O92">
         <v>-4762900</v>
       </c>
       <c r="P92">
-        <v>-158332110000</v>
+        <v>-123465511500</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>11900</v>
       </c>
       <c r="E93">
-        <v>12793813000</v>
+        <v>11558549500</v>
       </c>
       <c r="F93">
-        <v>24996594000</v>
+        <v>23511780300</v>
       </c>
       <c r="G93">
         <v>274484000</v>
@@ -5028,13 +5028,13 @@
         <v>2260200</v>
       </c>
       <c r="I93">
-        <v>38064891000</v>
+        <v>35344813800</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-29T13:26:00.000Z</v>
       </c>
       <c r="K93">
-        <v>3098124652000</v>
+        <v>2831923120000</v>
       </c>
       <c r="L93">
         <v>204458200</v>
@@ -5043,13 +5043,13 @@
         <v>737900</v>
       </c>
       <c r="N93">
-        <v>12202781000</v>
+        <v>11953230800</v>
       </c>
       <c r="O93">
         <v>-4025000</v>
       </c>
       <c r="P93">
-        <v>-146129329000</v>
+        <v>-111512280700</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>16000</v>
       </c>
       <c r="E94">
-        <v>9452305000</v>
+        <v>8981776000</v>
       </c>
       <c r="F94">
-        <v>26864607000</v>
+        <v>25427745300</v>
       </c>
       <c r="G94">
         <v>187643000</v>
@@ -5078,13 +5078,13 @@
         <v>2189200</v>
       </c>
       <c r="I94">
-        <v>36504555000</v>
+        <v>34597164300</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-29T13:28:00.000Z</v>
       </c>
       <c r="K94">
-        <v>3134629207000</v>
+        <v>2866520284300</v>
       </c>
       <c r="L94">
         <v>206647400</v>
@@ -5093,13 +5093,13 @@
         <v>1093800</v>
       </c>
       <c r="N94">
-        <v>17412302000</v>
+        <v>16445969300</v>
       </c>
       <c r="O94">
         <v>-2931200</v>
       </c>
       <c r="P94">
-        <v>-128717027000</v>
+        <v>-95066311400</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>32200</v>
       </c>
       <c r="E95">
-        <v>11172846000</v>
+        <v>10030689300</v>
       </c>
       <c r="F95">
-        <v>26242720000</v>
+        <v>24501363100</v>
       </c>
       <c r="G95">
         <v>281978000</v>
@@ -5128,13 +5128,13 @@
         <v>2136900</v>
       </c>
       <c r="I95">
-        <v>37697544000</v>
+        <v>34814030400</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-29T13:30:00.000Z</v>
       </c>
       <c r="K95">
-        <v>3172326751000</v>
+        <v>2901334314700</v>
       </c>
       <c r="L95">
         <v>208784300</v>
@@ -5143,13 +5143,13 @@
         <v>788500</v>
       </c>
       <c r="N95">
-        <v>15069874000</v>
+        <v>14470673800</v>
       </c>
       <c r="O95">
         <v>-2142700</v>
       </c>
       <c r="P95">
-        <v>-113647153000</v>
+        <v>-80595637600</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>5500</v>
       </c>
       <c r="E96">
-        <v>11370041000</v>
+        <v>10137574700</v>
       </c>
       <c r="F96">
-        <v>22585223000</v>
+        <v>21295613900</v>
       </c>
       <c r="G96">
         <v>121636000</v>
@@ -5178,13 +5178,13 @@
         <v>2106100</v>
       </c>
       <c r="I96">
-        <v>34076900000</v>
+        <v>31554824600</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-29T13:32:00.000Z</v>
       </c>
       <c r="K96">
-        <v>3206403651000</v>
+        <v>2932889139300</v>
       </c>
       <c r="L96">
         <v>210890400</v>
@@ -5193,13 +5193,13 @@
         <v>700800</v>
       </c>
       <c r="N96">
-        <v>11215182000</v>
+        <v>11158039200</v>
       </c>
       <c r="O96">
         <v>-1441900</v>
       </c>
       <c r="P96">
-        <v>-102431971000</v>
+        <v>-69437598400</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>3600</v>
       </c>
       <c r="E97">
-        <v>9634617000</v>
+        <v>9339912000</v>
       </c>
       <c r="F97">
-        <v>26717978000</v>
+        <v>25166231300</v>
       </c>
       <c r="G97">
         <v>43619000</v>
@@ -5228,13 +5228,13 @@
         <v>2282000</v>
       </c>
       <c r="I97">
-        <v>36396214000</v>
+        <v>34549762300</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-29T13:34:00.000Z</v>
       </c>
       <c r="K97">
-        <v>3242799865000</v>
+        <v>2967438901600</v>
       </c>
       <c r="L97">
         <v>213172400</v>
@@ -5243,13 +5243,13 @@
         <v>1073600</v>
       </c>
       <c r="N97">
-        <v>17083361000</v>
+        <v>15826319300</v>
       </c>
       <c r="O97">
         <v>-368300</v>
       </c>
       <c r="P97">
-        <v>-85348610000</v>
+        <v>-53611279100</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>3000</v>
       </c>
       <c r="E98">
-        <v>20873217000</v>
+        <v>19422069600</v>
       </c>
       <c r="F98">
-        <v>16719495000</v>
+        <v>16516198500</v>
       </c>
       <c r="G98">
         <v>66947000</v>
@@ -5278,13 +5278,13 @@
         <v>2388400</v>
       </c>
       <c r="I98">
-        <v>37659659000</v>
+        <v>36005215100</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-29T13:36:00.000Z</v>
       </c>
       <c r="K98">
-        <v>3280459524000</v>
+        <v>3003444116700</v>
       </c>
       <c r="L98">
         <v>215560800</v>
@@ -5293,13 +5293,13 @@
         <v>-153000</v>
       </c>
       <c r="N98">
-        <v>-4153722000</v>
+        <v>-2905871100</v>
       </c>
       <c r="O98">
         <v>-521300</v>
       </c>
       <c r="P98">
-        <v>-89502332000</v>
+        <v>-56517150200</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>8200</v>
       </c>
       <c r="E99">
-        <v>19978615000</v>
+        <v>17886808900</v>
       </c>
       <c r="F99">
-        <v>10870844000</v>
+        <v>10484930300</v>
       </c>
       <c r="G99">
         <v>113196000</v>
@@ -5328,13 +5328,13 @@
         <v>1934600</v>
       </c>
       <c r="I99">
-        <v>30962655000</v>
+        <v>28484935200</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-29T13:38:00.000Z</v>
       </c>
       <c r="K99">
-        <v>3311422179000</v>
+        <v>3031929051900</v>
       </c>
       <c r="L99">
         <v>217495400</v>
@@ -5343,13 +5343,13 @@
         <v>-482800</v>
       </c>
       <c r="N99">
-        <v>-9107771000</v>
+        <v>-7401878600</v>
       </c>
       <c r="O99">
         <v>-1004100</v>
       </c>
       <c r="P99">
-        <v>-98610103000</v>
+        <v>-63919028800</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>5500</v>
       </c>
       <c r="E100">
-        <v>16762887000</v>
+        <v>16009241400</v>
       </c>
       <c r="F100">
-        <v>11198858000</v>
+        <v>10606351100</v>
       </c>
       <c r="G100">
         <v>117505000</v>
@@ -5378,13 +5378,13 @@
         <v>1698900</v>
       </c>
       <c r="I100">
-        <v>28079250000</v>
+        <v>26733097500</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-29T13:40:00.000Z</v>
       </c>
       <c r="K100">
-        <v>3339501429000</v>
+        <v>3058662149400</v>
       </c>
       <c r="L100">
         <v>219194300</v>
@@ -5393,13 +5393,13 @@
         <v>-275600</v>
       </c>
       <c r="N100">
-        <v>-5564029000</v>
+        <v>-5402890300</v>
       </c>
       <c r="O100">
         <v>-1279700</v>
       </c>
       <c r="P100">
-        <v>-104174132000</v>
+        <v>-69321919100</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>9200</v>
       </c>
       <c r="E101">
-        <v>20784642000</v>
+        <v>19600527300</v>
       </c>
       <c r="F101">
-        <v>9908769000</v>
+        <v>9830147700</v>
       </c>
       <c r="G101">
-        <v>219530000</v>
+        <v>190359200</v>
       </c>
       <c r="H101">
         <v>1884800</v>
       </c>
       <c r="I101">
-        <v>30912941000</v>
+        <v>29621034200</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-29T13:42:00.000Z</v>
       </c>
       <c r="K101">
-        <v>3370414370000</v>
+        <v>3088283183600</v>
       </c>
       <c r="L101">
         <v>221079100</v>
@@ -5443,13 +5443,13 @@
         <v>-754600</v>
       </c>
       <c r="N101">
-        <v>-10875873000</v>
+        <v>-9770379600</v>
       </c>
       <c r="O101">
         <v>-2034300</v>
       </c>
       <c r="P101">
-        <v>-115050005000</v>
+        <v>-79092298700</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>2200</v>
       </c>
       <c r="E102">
-        <v>26240496000</v>
+        <v>24773364600</v>
       </c>
       <c r="F102">
-        <v>11311461000</v>
+        <v>11151321300</v>
       </c>
       <c r="G102">
         <v>98890000</v>
@@ -5478,13 +5478,13 @@
         <v>2407700</v>
       </c>
       <c r="I102">
-        <v>37650847000</v>
+        <v>36023575900</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-29T13:44:00.000Z</v>
       </c>
       <c r="K102">
-        <v>3408065217000</v>
+        <v>3124306759500</v>
       </c>
       <c r="L102">
         <v>223486800</v>
@@ -5493,13 +5493,13 @@
         <v>-797300</v>
       </c>
       <c r="N102">
-        <v>-14929035000</v>
+        <v>-13622043300</v>
       </c>
       <c r="O102">
         <v>-2831600</v>
       </c>
       <c r="P102">
-        <v>-129979040000</v>
+        <v>-92714342000</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>7900</v>
       </c>
       <c r="E103">
-        <v>14024382000</v>
+        <v>12531376500</v>
       </c>
       <c r="F103">
-        <v>23063419000</v>
+        <v>21847336300</v>
       </c>
       <c r="G103">
         <v>136345000</v>
@@ -5528,13 +5528,13 @@
         <v>2426400</v>
       </c>
       <c r="I103">
-        <v>37224146000</v>
+        <v>34515057800</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-29T13:46:00.000Z</v>
       </c>
       <c r="K103">
-        <v>3445289363000</v>
+        <v>3158821817300</v>
       </c>
       <c r="L103">
         <v>225913200</v>
@@ -5543,13 +5543,13 @@
         <v>566700</v>
       </c>
       <c r="N103">
-        <v>9039037000</v>
+        <v>9315959800</v>
       </c>
       <c r="O103">
         <v>-2264900</v>
       </c>
       <c r="P103">
-        <v>-120940003000</v>
+        <v>-83398382200</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>6600</v>
       </c>
       <c r="E104">
-        <v>15927264000</v>
+        <v>15479212500</v>
       </c>
       <c r="F104">
-        <v>18649954000</v>
+        <v>17265939400</v>
       </c>
       <c r="G104">
         <v>278600000</v>
@@ -5578,13 +5578,13 @@
         <v>2173400</v>
       </c>
       <c r="I104">
-        <v>34855818000</v>
+        <v>33023751900</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-29T13:48:00.000Z</v>
       </c>
       <c r="K104">
-        <v>3480145181000</v>
+        <v>3191845569200</v>
       </c>
       <c r="L104">
         <v>228086600</v>
@@ -5593,13 +5593,13 @@
         <v>297200</v>
       </c>
       <c r="N104">
-        <v>2722690000</v>
+        <v>1786726900</v>
       </c>
       <c r="O104">
         <v>-1967700</v>
       </c>
       <c r="P104">
-        <v>-118217313000</v>
+        <v>-81611655300</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>17300</v>
       </c>
       <c r="E105">
-        <v>19738136000</v>
+        <v>18829046000</v>
       </c>
       <c r="F105">
-        <v>18903159000</v>
+        <v>18434927700</v>
       </c>
       <c r="G105">
         <v>223795000</v>
@@ -5628,13 +5628,13 @@
         <v>2388200</v>
       </c>
       <c r="I105">
-        <v>38865090000</v>
+        <v>37487768700</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-29T13:50:00.000Z</v>
       </c>
       <c r="K105">
-        <v>3519010271000</v>
+        <v>3229333337900</v>
       </c>
       <c r="L105">
         <v>230474800</v>
@@ -5643,13 +5643,13 @@
         <v>-133700</v>
       </c>
       <c r="N105">
-        <v>-834977000</v>
+        <v>-394118300</v>
       </c>
       <c r="O105">
         <v>-2101400</v>
       </c>
       <c r="P105">
-        <v>-119052290000</v>
+        <v>-82005773600</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>36200</v>
       </c>
       <c r="E106">
-        <v>24543889000</v>
+        <v>23676257500</v>
       </c>
       <c r="F106">
-        <v>15281236000</v>
+        <v>13934584000</v>
       </c>
       <c r="G106">
         <v>580689000</v>
@@ -5678,13 +5678,13 @@
         <v>2376600</v>
       </c>
       <c r="I106">
-        <v>40405814000</v>
+        <v>38191530500</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-29T13:52:00.000Z</v>
       </c>
       <c r="K106">
-        <v>3559416085000</v>
+        <v>3267524868400</v>
       </c>
       <c r="L106">
         <v>232851400</v>
@@ -5693,13 +5693,13 @@
         <v>-519000</v>
       </c>
       <c r="N106">
-        <v>-9262653000</v>
+        <v>-9741673500</v>
       </c>
       <c r="O106">
         <v>-2620400</v>
       </c>
       <c r="P106">
-        <v>-128314943000</v>
+        <v>-91747447100</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>21600</v>
       </c>
       <c r="E107">
-        <v>15402504000</v>
+        <v>14723983200</v>
       </c>
       <c r="F107">
-        <v>23875648000</v>
+        <v>22817407300</v>
       </c>
       <c r="G107">
         <v>610735000</v>
@@ -5728,13 +5728,13 @@
         <v>2398500</v>
       </c>
       <c r="I107">
-        <v>39888887000</v>
+        <v>38152125500</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-29T13:54:00.000Z</v>
       </c>
       <c r="K107">
-        <v>3599304972000</v>
+        <v>3305676993900</v>
       </c>
       <c r="L107">
         <v>235249900</v>
@@ -5743,13 +5743,13 @@
         <v>489500</v>
       </c>
       <c r="N107">
-        <v>8473144000</v>
+        <v>8093424100</v>
       </c>
       <c r="O107">
         <v>-2130900</v>
       </c>
       <c r="P107">
-        <v>-119841799000</v>
+        <v>-83654023000</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>6100</v>
       </c>
       <c r="E108">
-        <v>13792040000</v>
+        <v>11008326500</v>
       </c>
       <c r="F108">
-        <v>27478383000</v>
+        <v>26548214100</v>
       </c>
       <c r="G108">
         <v>98210000</v>
@@ -5778,13 +5778,13 @@
         <v>2631100</v>
       </c>
       <c r="I108">
-        <v>41368633000</v>
+        <v>37654750600</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-29T13:56:00.000Z</v>
       </c>
       <c r="K108">
-        <v>3640673605000</v>
+        <v>3343331744500</v>
       </c>
       <c r="L108">
         <v>237881000</v>
@@ -5793,13 +5793,13 @@
         <v>673000</v>
       </c>
       <c r="N108">
-        <v>13686343000</v>
+        <v>15539887600</v>
       </c>
       <c r="O108">
         <v>-1457900</v>
       </c>
       <c r="P108">
-        <v>-106155456000</v>
+        <v>-68114135400</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>5500</v>
       </c>
       <c r="E109">
-        <v>15874474000</v>
+        <v>14817731800</v>
       </c>
       <c r="F109">
-        <v>32803843000</v>
+        <v>30940008700</v>
       </c>
       <c r="G109">
         <v>177127000</v>
@@ -5828,13 +5828,13 @@
         <v>2866200</v>
       </c>
       <c r="I109">
-        <v>48855444000</v>
+        <v>45934867500</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-29T13:58:00.000Z</v>
       </c>
       <c r="K109">
-        <v>3689529049000</v>
+        <v>3389266612000</v>
       </c>
       <c r="L109">
         <v>240747200</v>
@@ -5843,13 +5843,13 @@
         <v>1030900</v>
       </c>
       <c r="N109">
-        <v>16929369000</v>
+        <v>16122276900</v>
       </c>
       <c r="O109">
         <v>-427000</v>
       </c>
       <c r="P109">
-        <v>-89226087000</v>
+        <v>-51991858500</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>9600</v>
       </c>
       <c r="E110">
-        <v>15697790000</v>
+        <v>15050338100</v>
       </c>
       <c r="F110">
-        <v>43204491000</v>
+        <v>41713783200</v>
       </c>
       <c r="G110">
-        <v>195210000</v>
+        <v>188217000</v>
       </c>
       <c r="H110">
         <v>3801100</v>
       </c>
       <c r="I110">
-        <v>59097491000</v>
+        <v>56952338300</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-29T14:00:00.000Z</v>
       </c>
       <c r="K110">
-        <v>3748626540000</v>
+        <v>3446218950300</v>
       </c>
       <c r="L110">
         <v>244548300</v>
@@ -5893,13 +5893,13 @@
         <v>1793500</v>
       </c>
       <c r="N110">
-        <v>27506701000</v>
+        <v>26663445100</v>
       </c>
       <c r="O110">
         <v>1366500</v>
       </c>
       <c r="P110">
-        <v>-61719386000</v>
+        <v>-25328413400</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>11600</v>
       </c>
       <c r="E111">
-        <v>16959558000</v>
+        <v>16353364800</v>
       </c>
       <c r="F111">
-        <v>44975663000</v>
+        <v>40976865800</v>
       </c>
       <c r="G111">
-        <v>145355000</v>
+        <v>104196200</v>
       </c>
       <c r="H111">
         <v>3875300</v>
       </c>
       <c r="I111">
-        <v>62080576000</v>
+        <v>57434426800</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-29T14:02:00.000Z</v>
       </c>
       <c r="K111">
-        <v>3810707116000</v>
+        <v>3503653377100</v>
       </c>
       <c r="L111">
         <v>248423600</v>
@@ -5943,13 +5943,13 @@
         <v>1820100</v>
       </c>
       <c r="N111">
-        <v>28016105000</v>
+        <v>24623501000</v>
       </c>
       <c r="O111">
         <v>3186600</v>
       </c>
       <c r="P111">
-        <v>-33703281000</v>
+        <v>-704912400</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>13700</v>
       </c>
       <c r="E112">
-        <v>15443037000</v>
+        <v>15230549700</v>
       </c>
       <c r="F112">
-        <v>31315049000</v>
+        <v>30012253100</v>
       </c>
       <c r="G112">
         <v>365036000</v>
@@ -5978,13 +5978,13 @@
         <v>2844200</v>
       </c>
       <c r="I112">
-        <v>47123122000</v>
+        <v>45607838800</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-29T14:04:00.000Z</v>
       </c>
       <c r="K112">
-        <v>3857830238000</v>
+        <v>3549261215900</v>
       </c>
       <c r="L112">
         <v>251267800</v>
@@ -5993,13 +5993,13 @@
         <v>920700</v>
       </c>
       <c r="N112">
-        <v>15872012000</v>
+        <v>14781703400</v>
       </c>
       <c r="O112">
         <v>4107300</v>
       </c>
       <c r="P112">
-        <v>-17831269000</v>
+        <v>14076791000</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>25900</v>
       </c>
       <c r="E113">
-        <v>30580403000</v>
+        <v>29280204500</v>
       </c>
       <c r="F113">
-        <v>27419993000</v>
+        <v>26115099200</v>
       </c>
       <c r="G113">
         <v>388585000</v>
@@ -6028,13 +6028,13 @@
         <v>3816600</v>
       </c>
       <c r="I113">
-        <v>58388981000</v>
+        <v>55783888700</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-29T14:06:00.000Z</v>
       </c>
       <c r="K113">
-        <v>3916219219000</v>
+        <v>3605045104600</v>
       </c>
       <c r="L113">
         <v>255084400</v>
@@ -6043,13 +6043,13 @@
         <v>-161700</v>
       </c>
       <c r="N113">
-        <v>-3160410000</v>
+        <v>-3165105300</v>
       </c>
       <c r="O113">
         <v>3945600</v>
       </c>
       <c r="P113">
-        <v>-20991679000</v>
+        <v>10911685700</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>57200</v>
       </c>
       <c r="E114">
-        <v>35926349000</v>
+        <v>33156521600</v>
       </c>
       <c r="F114">
-        <v>16223171000</v>
+        <v>14635560200</v>
       </c>
       <c r="G114">
-        <v>587668000</v>
+        <v>586669000</v>
       </c>
       <c r="H114">
         <v>3334000</v>
       </c>
       <c r="I114">
-        <v>52737188000</v>
+        <v>48378750800</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-29T14:08:00.000Z</v>
       </c>
       <c r="K114">
-        <v>3968956407000</v>
+        <v>3653423855400</v>
       </c>
       <c r="L114">
         <v>258418400</v>
@@ -6093,13 +6093,13 @@
         <v>-1303800</v>
       </c>
       <c r="N114">
-        <v>-19703178000</v>
+        <v>-18520961400</v>
       </c>
       <c r="O114">
         <v>2641800</v>
       </c>
       <c r="P114">
-        <v>-40694857000</v>
+        <v>-7609275700</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>15500</v>
       </c>
       <c r="E115">
-        <v>56928439000</v>
+        <v>53636434300</v>
       </c>
       <c r="F115">
-        <v>28144560000</v>
+        <v>27035570100</v>
       </c>
       <c r="G115">
-        <v>192199000</v>
+        <v>175216000</v>
       </c>
       <c r="H115">
         <v>5052900</v>
       </c>
       <c r="I115">
-        <v>85265198000</v>
+        <v>80847220400</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-29T14:10:00.000Z</v>
       </c>
       <c r="K115">
-        <v>4054221605000</v>
+        <v>3734271075800</v>
       </c>
       <c r="L115">
         <v>263471300</v>
@@ -6143,13 +6143,13 @@
         <v>-2116400</v>
       </c>
       <c r="N115">
-        <v>-28783879000</v>
+        <v>-26600864200</v>
       </c>
       <c r="O115">
         <v>525400</v>
       </c>
       <c r="P115">
-        <v>-69478736000</v>
+        <v>-34210139900</v>
       </c>
     </row>
     <row r="116">
@@ -6166,10 +6166,10 @@
         <v>16100</v>
       </c>
       <c r="E116">
-        <v>20033151000</v>
+        <v>19435349400</v>
       </c>
       <c r="F116">
-        <v>82726610000</v>
+        <v>72326420600</v>
       </c>
       <c r="G116">
         <v>351517000</v>
@@ -6178,13 +6178,13 @@
         <v>4700000</v>
       </c>
       <c r="I116">
-        <v>103111278000</v>
+        <v>92113287000</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-29T14:12:00.000Z</v>
       </c>
       <c r="K116">
-        <v>4157332883000</v>
+        <v>3826384362800</v>
       </c>
       <c r="L116">
         <v>268171300</v>
@@ -6193,13 +6193,13 @@
         <v>2534500</v>
       </c>
       <c r="N116">
-        <v>62693459000</v>
+        <v>52891071200</v>
       </c>
       <c r="O116">
         <v>3059900</v>
       </c>
       <c r="P116">
-        <v>-6785277000</v>
+        <v>18680931300</v>
       </c>
     </row>
     <row r="117">
@@ -6216,10 +6216,10 @@
         <v>29300</v>
       </c>
       <c r="E117">
-        <v>17947256000</v>
+        <v>17383820000</v>
       </c>
       <c r="F117">
-        <v>92749717000</v>
+        <v>75401982100</v>
       </c>
       <c r="G117">
         <v>260959000</v>
@@ -6228,13 +6228,13 @@
         <v>5651200</v>
       </c>
       <c r="I117">
-        <v>110957932000</v>
+        <v>93046761100</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-29T14:14:00.000Z</v>
       </c>
       <c r="K117">
-        <v>4268290815000</v>
+        <v>3919431123900</v>
       </c>
       <c r="L117">
         <v>273822500</v>
@@ -6243,13 +6243,13 @@
         <v>3707900</v>
       </c>
       <c r="N117">
-        <v>74802461000</v>
+        <v>58018162100</v>
       </c>
       <c r="O117">
         <v>6767800</v>
       </c>
       <c r="P117">
-        <v>68017184000</v>
+        <v>76699093400</v>
       </c>
     </row>
     <row r="118">
@@ -6266,10 +6266,10 @@
         <v>23000</v>
       </c>
       <c r="E118">
-        <v>22986972000</v>
+        <v>21284476200</v>
       </c>
       <c r="F118">
-        <v>89601516000</v>
+        <v>71189746200</v>
       </c>
       <c r="G118">
         <v>390394000</v>
@@ -6278,13 +6278,13 @@
         <v>6204200</v>
       </c>
       <c r="I118">
-        <v>112978882000</v>
+        <v>92864616400</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-29T14:16:00.000Z</v>
       </c>
       <c r="K118">
-        <v>4381269697000</v>
+        <v>4012295740300</v>
       </c>
       <c r="L118">
         <v>280026700</v>
@@ -6293,13 +6293,13 @@
         <v>3704000</v>
       </c>
       <c r="N118">
-        <v>66614544000</v>
+        <v>49905270000</v>
       </c>
       <c r="O118">
         <v>10471800</v>
       </c>
       <c r="P118">
-        <v>134631728000</v>
+        <v>126604363400</v>
       </c>
     </row>
     <row r="119">
@@ -6316,25 +6316,25 @@
         <v>14800</v>
       </c>
       <c r="E119">
-        <v>39987141000</v>
+        <v>37326204600</v>
       </c>
       <c r="F119">
-        <v>66992429000</v>
+        <v>53834300300</v>
       </c>
       <c r="G119">
-        <v>398310000</v>
+        <v>146162400</v>
       </c>
       <c r="H119">
         <v>5663300</v>
       </c>
       <c r="I119">
-        <v>107377880000</v>
+        <v>91306667300</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-29T14:18:00.000Z</v>
       </c>
       <c r="K119">
-        <v>4488647577000</v>
+        <v>4103602407600</v>
       </c>
       <c r="L119">
         <v>285690000</v>
@@ -6343,13 +6343,13 @@
         <v>1179500</v>
       </c>
       <c r="N119">
-        <v>27005288000</v>
+        <v>16508095700</v>
       </c>
       <c r="O119">
         <v>11651300</v>
       </c>
       <c r="P119">
-        <v>161637016000</v>
+        <v>143112459100</v>
       </c>
     </row>
     <row r="120">
@@ -6366,10 +6366,10 @@
         <v>15500</v>
       </c>
       <c r="E120">
-        <v>52797277000</v>
+        <v>47550928600</v>
       </c>
       <c r="F120">
-        <v>57741420000</v>
+        <v>47994276900</v>
       </c>
       <c r="G120">
         <v>600927000</v>
@@ -6378,13 +6378,13 @@
         <v>5978700</v>
       </c>
       <c r="I120">
-        <v>111139624000</v>
+        <v>96146132500</v>
       </c>
       <c r="J120" t="str">
         <v>2022-12-29T14:20:00.000Z</v>
       </c>
       <c r="K120">
-        <v>4599787201000</v>
+        <v>4199748540100</v>
       </c>
       <c r="L120">
         <v>291668700</v>
@@ -6393,13 +6393,13 @@
         <v>-359400</v>
       </c>
       <c r="N120">
-        <v>4944143000</v>
+        <v>443348300</v>
       </c>
       <c r="O120">
         <v>11291900</v>
       </c>
       <c r="P120">
-        <v>166581159000</v>
+        <v>143555807400</v>
       </c>
     </row>
     <row r="121">
@@ -6416,10 +6416,10 @@
         <v>17600</v>
       </c>
       <c r="E121">
-        <v>45154658000</v>
+        <v>41156660000</v>
       </c>
       <c r="F121">
-        <v>57541164000</v>
+        <v>50613198900</v>
       </c>
       <c r="G121">
         <v>376603000</v>
@@ -6428,13 +6428,13 @@
         <v>5215900</v>
       </c>
       <c r="I121">
-        <v>103072425000</v>
+        <v>92146461900</v>
       </c>
       <c r="J121" t="str">
         <v>2022-12-29T14:22:00.000Z</v>
       </c>
       <c r="K121">
-        <v>4702859626000</v>
+        <v>4291895002000</v>
       </c>
       <c r="L121">
         <v>296884600</v>
@@ -6443,13 +6443,13 @@
         <v>74100</v>
       </c>
       <c r="N121">
-        <v>12386506000</v>
+        <v>9456538900</v>
       </c>
       <c r="O121">
         <v>11366000</v>
       </c>
       <c r="P121">
-        <v>178967665000</v>
+        <v>153012346300</v>
       </c>
     </row>
     <row r="122">
@@ -6466,10 +6466,10 @@
         <v>26400</v>
       </c>
       <c r="E122">
-        <v>45325169000</v>
+        <v>41390507600</v>
       </c>
       <c r="F122">
-        <v>51492679000</v>
+        <v>44115863200</v>
       </c>
       <c r="G122">
         <v>366596000</v>
@@ -6478,13 +6478,13 @@
         <v>4982500</v>
       </c>
       <c r="I122">
-        <v>97184444000</v>
+        <v>85872966800</v>
       </c>
       <c r="J122" t="str">
         <v>2022-12-29T14:24:00.000Z</v>
       </c>
       <c r="K122">
-        <v>4800044070000</v>
+        <v>4377767968800</v>
       </c>
       <c r="L122">
         <v>301867100</v>
@@ -6493,13 +6493,13 @@
         <v>-381500</v>
       </c>
       <c r="N122">
-        <v>6167510000</v>
+        <v>2725355600</v>
       </c>
       <c r="O122">
         <v>10984500</v>
       </c>
       <c r="P122">
-        <v>185135175000</v>
+        <v>155737701900</v>
       </c>
     </row>
     <row r="123">
@@ -6516,25 +6516,25 @@
         <v>46200</v>
       </c>
       <c r="E123">
-        <v>65224433000</v>
+        <v>58169794700</v>
       </c>
       <c r="F123">
-        <v>53211627000</v>
+        <v>49968173700</v>
       </c>
       <c r="G123">
-        <v>1376765000</v>
+        <v>1357784000</v>
       </c>
       <c r="H123">
         <v>6722500</v>
       </c>
       <c r="I123">
-        <v>119812825000</v>
+        <v>109495752400</v>
       </c>
       <c r="J123" t="str">
         <v>2022-12-29T14:26:00.000Z</v>
       </c>
       <c r="K123">
-        <v>4919856895000</v>
+        <v>4487263721200</v>
       </c>
       <c r="L123">
         <v>308589600</v>
@@ -6543,13 +6543,13 @@
         <v>-917900</v>
       </c>
       <c r="N123">
-        <v>-12012806000</v>
+        <v>-8201621000</v>
       </c>
       <c r="O123">
         <v>10066600</v>
       </c>
       <c r="P123">
-        <v>173122369000</v>
+        <v>147536080900</v>
       </c>
     </row>
     <row r="124">
@@ -6566,25 +6566,25 @@
         <v>112700</v>
       </c>
       <c r="E124">
-        <v>133741568000</v>
+        <v>122092229000</v>
       </c>
       <c r="F124">
-        <v>43259128000</v>
+        <v>39239951200</v>
       </c>
       <c r="G124">
-        <v>1526084000</v>
+        <v>1437173000</v>
       </c>
       <c r="H124">
         <v>11434700</v>
       </c>
       <c r="I124">
-        <v>178526780000</v>
+        <v>162769353200</v>
       </c>
       <c r="J124" t="str">
         <v>2022-12-29T14:28:00.000Z</v>
       </c>
       <c r="K124">
-        <v>5098383675000</v>
+        <v>4650033074400</v>
       </c>
       <c r="L124">
         <v>320024300</v>
@@ -6593,13 +6593,13 @@
         <v>-5919200</v>
       </c>
       <c r="N124">
-        <v>-90482440000</v>
+        <v>-82852277800</v>
       </c>
       <c r="O124">
         <v>4147400</v>
       </c>
       <c r="P124">
-        <v>82639929000</v>
+        <v>64683803100</v>
       </c>
     </row>
     <row r="125">
@@ -6619,7 +6619,7 @@
         <v>676919000</v>
       </c>
       <c r="F125">
-        <v>397021000</v>
+        <v>251167000</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6628,13 +6628,13 @@
         <v>52400</v>
       </c>
       <c r="I125">
-        <v>1073940000</v>
+        <v>928086000</v>
       </c>
       <c r="J125" t="str">
         <v>2022-12-29T14:30:00.000Z</v>
       </c>
       <c r="K125">
-        <v>5099457615000</v>
+        <v>4650961160400</v>
       </c>
       <c r="L125">
         <v>320076700</v>
@@ -6643,13 +6643,13 @@
         <v>-4800</v>
       </c>
       <c r="N125">
-        <v>-279898000</v>
+        <v>-425752000</v>
       </c>
       <c r="O125">
         <v>4142600</v>
       </c>
       <c r="P125">
-        <v>82360031000</v>
+        <v>64258051100</v>
       </c>
     </row>
     <row r="126">
@@ -6684,7 +6684,7 @@
         <v>2022-12-29T14:36:00.000Z</v>
       </c>
       <c r="K126">
-        <v>5099472825000</v>
+        <v>4650976370400</v>
       </c>
       <c r="L126">
         <v>320078000</v>
@@ -6699,7 +6699,7 @@
         <v>4141300</v>
       </c>
       <c r="P126">
-        <v>82344821000</v>
+        <v>64242841100</v>
       </c>
     </row>
     <row r="127">
@@ -6734,7 +6734,7 @@
         <v>2022-12-29T14:40:00.000Z</v>
       </c>
       <c r="K127">
-        <v>5099484525000</v>
+        <v>4650988070400</v>
       </c>
       <c r="L127">
         <v>320079000</v>
@@ -6749,7 +6749,7 @@
         <v>4142300</v>
       </c>
       <c r="P127">
-        <v>82356521000</v>
+        <v>64254541100</v>
       </c>
     </row>
     <row r="128">
@@ -6784,7 +6784,7 @@
         <v>2022-12-29T14:42:00.000Z</v>
       </c>
       <c r="K128">
-        <v>5099488035000</v>
+        <v>4650991580400</v>
       </c>
       <c r="L128">
         <v>320079300</v>
@@ -6799,7 +6799,7 @@
         <v>4142600</v>
       </c>
       <c r="P128">
-        <v>82360031000</v>
+        <v>64258051100</v>
       </c>
     </row>
     <row r="129">
@@ -6816,25 +6816,25 @@
         <v>16625600</v>
       </c>
       <c r="E129">
-        <v>235555702000</v>
+        <v>203073716500</v>
       </c>
       <c r="F129">
-        <v>184303827000</v>
+        <v>167778968400</v>
       </c>
       <c r="G129">
-        <v>302111058000</v>
+        <v>241606423200</v>
       </c>
       <c r="H129">
         <v>36264500</v>
       </c>
       <c r="I129">
-        <v>721970587000</v>
+        <v>612459108100</v>
       </c>
       <c r="J129" t="str">
         <v>2022-12-29T14:44:00.000Z</v>
       </c>
       <c r="K129">
-        <v>5821458622000</v>
+        <v>5263450688500</v>
       </c>
       <c r="L129">
         <v>356343800</v>
@@ -6843,13 +6843,13 @@
         <v>-3254100</v>
       </c>
       <c r="N129">
-        <v>-51251875000</v>
+        <v>-35294748100</v>
       </c>
       <c r="O129">
         <v>888500</v>
       </c>
       <c r="P129">
-        <v>31108156000</v>
+        <v>28963303000</v>
       </c>
     </row>
     <row r="130">
@@ -6884,7 +6884,7 @@
         <v>2022-12-29T14:48:00.000Z</v>
       </c>
       <c r="K130">
-        <v>5821470322000</v>
+        <v>5263462388500</v>
       </c>
       <c r="L130">
         <v>356344800</v>
@@ -6899,7 +6899,7 @@
         <v>888500</v>
       </c>
       <c r="P130">
-        <v>31108156000</v>
+        <v>28963303000</v>
       </c>
     </row>
     <row r="131">
@@ -6934,7 +6934,7 @@
         <v>2022-12-29T14:50:00.000Z</v>
       </c>
       <c r="K131">
-        <v>5821483192000</v>
+        <v>5263475258500</v>
       </c>
       <c r="L131">
         <v>356345900</v>
@@ -6949,7 +6949,7 @@
         <v>889400</v>
       </c>
       <c r="P131">
-        <v>31118686000</v>
+        <v>28973833000</v>
       </c>
     </row>
     <row r="132">
@@ -6984,7 +6984,7 @@
         <v>2022-12-29T14:52:00.000Z</v>
       </c>
       <c r="K132">
-        <v>5821500742000</v>
+        <v>5263492808500</v>
       </c>
       <c r="L132">
         <v>356347400</v>
@@ -6999,7 +6999,7 @@
         <v>887900</v>
       </c>
       <c r="P132">
-        <v>31101136000</v>
+        <v>28956283000</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221229/VNINDEX_HOSE_5p_20221229.xlsx
+++ b/name/vnindex/20221229/VNINDEX_HOSE_5p_20221229.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>12500000</v>
       </c>
+      <c r="Q2">
+        <v>12500000</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V2">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W2">
+        <v>40179334416</v>
+      </c>
+      <c r="X2">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y2">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z2">
+        <v>1283142</v>
+      </c>
+      <c r="AA2">
+        <v>6777.9</v>
+      </c>
+      <c r="AB2">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>31432400</v>
       </c>
+      <c r="Q3">
+        <v>31432400</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2800</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V3">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W3">
+        <v>40179334416</v>
+      </c>
+      <c r="X3">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y3">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z3">
+        <v>1283142</v>
+      </c>
+      <c r="AA3">
+        <v>6777.9</v>
+      </c>
+      <c r="AB3">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC3">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>60023600</v>
       </c>
+      <c r="Q4">
+        <v>163723600</v>
+      </c>
+      <c r="R4">
+        <v>103700000</v>
+      </c>
+      <c r="S4">
+        <v>13700</v>
+      </c>
+      <c r="T4">
+        <v>8500</v>
+      </c>
+      <c r="U4">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V4">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W4">
+        <v>40179334416</v>
+      </c>
+      <c r="X4">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y4">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z4">
+        <v>1283142</v>
+      </c>
+      <c r="AA4">
+        <v>6777.9</v>
+      </c>
+      <c r="AB4">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>235043600</v>
       </c>
+      <c r="Q5">
+        <v>353383600</v>
+      </c>
+      <c r="R5">
+        <v>118340000</v>
+      </c>
+      <c r="S5">
+        <v>29000</v>
+      </c>
+      <c r="T5">
+        <v>9700</v>
+      </c>
+      <c r="U5">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V5">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W5">
+        <v>40179334416</v>
+      </c>
+      <c r="X5">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y5">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z5">
+        <v>1283142</v>
+      </c>
+      <c r="AA5">
+        <v>6777.9</v>
+      </c>
+      <c r="AB5">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>323233600</v>
       </c>
+      <c r="Q6">
+        <v>464943600</v>
+      </c>
+      <c r="R6">
+        <v>141710000</v>
+      </c>
+      <c r="S6">
+        <v>38000</v>
+      </c>
+      <c r="T6">
+        <v>11600</v>
+      </c>
+      <c r="U6">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V6">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W6">
+        <v>40179334416</v>
+      </c>
+      <c r="X6">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y6">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z6">
+        <v>1283142</v>
+      </c>
+      <c r="AA6">
+        <v>6777.9</v>
+      </c>
+      <c r="AB6">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>266723600</v>
       </c>
+      <c r="Q7">
+        <v>469933600</v>
+      </c>
+      <c r="R7">
+        <v>203210000</v>
+      </c>
+      <c r="S7">
+        <v>38400</v>
+      </c>
+      <c r="T7">
+        <v>16600</v>
+      </c>
+      <c r="U7">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V7">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W7">
+        <v>40179334416</v>
+      </c>
+      <c r="X7">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y7">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z7">
+        <v>1283142</v>
+      </c>
+      <c r="AA7">
+        <v>6777.9</v>
+      </c>
+      <c r="AB7">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC7">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>248273600</v>
       </c>
+      <c r="Q8">
+        <v>473623600</v>
+      </c>
+      <c r="R8">
+        <v>225350000</v>
+      </c>
+      <c r="S8">
+        <v>38700</v>
+      </c>
+      <c r="T8">
+        <v>18400</v>
+      </c>
+      <c r="U8">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V8">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W8">
+        <v>40179334416</v>
+      </c>
+      <c r="X8">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y8">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z8">
+        <v>1283142</v>
+      </c>
+      <c r="AA8">
+        <v>6777.9</v>
+      </c>
+      <c r="AB8">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>233513600</v>
       </c>
+      <c r="Q9">
+        <v>473623600</v>
+      </c>
+      <c r="R9">
+        <v>240110000</v>
+      </c>
+      <c r="S9">
+        <v>38700</v>
+      </c>
+      <c r="T9">
+        <v>19600</v>
+      </c>
+      <c r="U9">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V9">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W9">
+        <v>40179334416</v>
+      </c>
+      <c r="X9">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y9">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z9">
+        <v>1283142</v>
+      </c>
+      <c r="AA9">
+        <v>6777.9</v>
+      </c>
+      <c r="AB9">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC9">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>866800200</v>
       </c>
+      <c r="Q10">
+        <v>34647008200</v>
+      </c>
+      <c r="R10">
+        <v>33780208000</v>
+      </c>
+      <c r="S10">
+        <v>2055100</v>
+      </c>
+      <c r="T10">
+        <v>2223600</v>
+      </c>
+      <c r="U10">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V10">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W10">
+        <v>40179334416</v>
+      </c>
+      <c r="X10">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y10">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z10">
+        <v>1283142</v>
+      </c>
+      <c r="AA10">
+        <v>6777.9</v>
+      </c>
+      <c r="AB10">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC10">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>3035520000</v>
       </c>
+      <c r="Q11">
+        <v>52959144700</v>
+      </c>
+      <c r="R11">
+        <v>49923624700</v>
+      </c>
+      <c r="S11">
+        <v>3317000</v>
+      </c>
+      <c r="T11">
+        <v>3386500</v>
+      </c>
+      <c r="U11">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V11">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W11">
+        <v>40179334416</v>
+      </c>
+      <c r="X11">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y11">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z11">
+        <v>1283142</v>
+      </c>
+      <c r="AA11">
+        <v>6777.9</v>
+      </c>
+      <c r="AB11">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC11">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>12568774500</v>
       </c>
+      <c r="Q12">
+        <v>75195622800</v>
+      </c>
+      <c r="R12">
+        <v>62626848300</v>
+      </c>
+      <c r="S12">
+        <v>4701700</v>
+      </c>
+      <c r="T12">
+        <v>4337900</v>
+      </c>
+      <c r="U12">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V12">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W12">
+        <v>40179334416</v>
+      </c>
+      <c r="X12">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y12">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z12">
+        <v>1283142</v>
+      </c>
+      <c r="AA12">
+        <v>6777.9</v>
+      </c>
+      <c r="AB12">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC12">
+        <v>43.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>12778393500</v>
       </c>
+      <c r="Q13">
+        <v>97839905200</v>
+      </c>
+      <c r="R13">
+        <v>85061511700</v>
+      </c>
+      <c r="S13">
+        <v>6381600</v>
+      </c>
+      <c r="T13">
+        <v>5541400</v>
+      </c>
+      <c r="U13">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V13">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W13">
+        <v>40179334416</v>
+      </c>
+      <c r="X13">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y13">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z13">
+        <v>1283142</v>
+      </c>
+      <c r="AA13">
+        <v>6777.9</v>
+      </c>
+      <c r="AB13">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC13">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>12984180000</v>
       </c>
+      <c r="Q14">
+        <v>115078821300</v>
+      </c>
+      <c r="R14">
+        <v>102094641300</v>
+      </c>
+      <c r="S14">
+        <v>7563400</v>
+      </c>
+      <c r="T14">
+        <v>6896700</v>
+      </c>
+      <c r="U14">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V14">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W14">
+        <v>40179334416</v>
+      </c>
+      <c r="X14">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y14">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z14">
+        <v>1283142</v>
+      </c>
+      <c r="AA14">
+        <v>6777.9</v>
+      </c>
+      <c r="AB14">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC14">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>20200908300</v>
       </c>
+      <c r="Q15">
+        <v>137291934700</v>
+      </c>
+      <c r="R15">
+        <v>117091026400</v>
+      </c>
+      <c r="S15">
+        <v>9418800</v>
+      </c>
+      <c r="T15">
+        <v>7941900</v>
+      </c>
+      <c r="U15">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V15">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W15">
+        <v>40179334416</v>
+      </c>
+      <c r="X15">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y15">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z15">
+        <v>1283142</v>
+      </c>
+      <c r="AA15">
+        <v>6777.9</v>
+      </c>
+      <c r="AB15">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC15">
+        <v>32.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>34524581600</v>
       </c>
+      <c r="Q16">
+        <v>173902023900</v>
+      </c>
+      <c r="R16">
+        <v>139377442300</v>
+      </c>
+      <c r="S16">
+        <v>11639000</v>
+      </c>
+      <c r="T16">
+        <v>9409600</v>
+      </c>
+      <c r="U16">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V16">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W16">
+        <v>40179334416</v>
+      </c>
+      <c r="X16">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y16">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z16">
+        <v>1283142</v>
+      </c>
+      <c r="AA16">
+        <v>6777.9</v>
+      </c>
+      <c r="AB16">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC16">
+        <v>64.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>75973605600</v>
       </c>
+      <c r="Q17">
+        <v>231545272000</v>
+      </c>
+      <c r="R17">
+        <v>155571666400</v>
+      </c>
+      <c r="S17">
+        <v>15490700</v>
+      </c>
+      <c r="T17">
+        <v>10537800</v>
+      </c>
+      <c r="U17">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V17">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W17">
+        <v>40179334416</v>
+      </c>
+      <c r="X17">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y17">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z17">
+        <v>1283142</v>
+      </c>
+      <c r="AA17">
+        <v>6777.9</v>
+      </c>
+      <c r="AB17">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC17">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>144962865700</v>
       </c>
+      <c r="Q18">
+        <v>322089034500</v>
+      </c>
+      <c r="R18">
+        <v>177126168800</v>
+      </c>
+      <c r="S18">
+        <v>30621500</v>
+      </c>
+      <c r="T18">
+        <v>11864100</v>
+      </c>
+      <c r="U18">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V18">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W18">
+        <v>40179334416</v>
+      </c>
+      <c r="X18">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y18">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z18">
+        <v>1283142</v>
+      </c>
+      <c r="AA18">
+        <v>6777.9</v>
+      </c>
+      <c r="AB18">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC18">
+        <v>312.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>139238763200</v>
       </c>
+      <c r="Q19">
+        <v>351734746200</v>
+      </c>
+      <c r="R19">
+        <v>212495983000</v>
+      </c>
+      <c r="S19">
+        <v>33287400</v>
+      </c>
+      <c r="T19">
+        <v>14544900</v>
+      </c>
+      <c r="U19">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V19">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W19">
+        <v>40179334416</v>
+      </c>
+      <c r="X19">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y19">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z19">
+        <v>1283142</v>
+      </c>
+      <c r="AA19">
+        <v>6777.9</v>
+      </c>
+      <c r="AB19">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC19">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>135873748700</v>
       </c>
+      <c r="Q20">
+        <v>389437176400</v>
+      </c>
+      <c r="R20">
+        <v>253563427700</v>
+      </c>
+      <c r="S20">
+        <v>36595500</v>
+      </c>
+      <c r="T20">
+        <v>17310600</v>
+      </c>
+      <c r="U20">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V20">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W20">
+        <v>40179334416</v>
+      </c>
+      <c r="X20">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y20">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z20">
+        <v>1283142</v>
+      </c>
+      <c r="AA20">
+        <v>6777.9</v>
+      </c>
+      <c r="AB20">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC20">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>140965731600</v>
       </c>
+      <c r="Q21">
+        <v>411990196300</v>
+      </c>
+      <c r="R21">
+        <v>271024464700</v>
+      </c>
+      <c r="S21">
+        <v>38629400</v>
+      </c>
+      <c r="T21">
+        <v>18806300</v>
+      </c>
+      <c r="U21">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V21">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W21">
+        <v>40179334416</v>
+      </c>
+      <c r="X21">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y21">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z21">
+        <v>1283142</v>
+      </c>
+      <c r="AA21">
+        <v>6777.9</v>
+      </c>
+      <c r="AB21">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC21">
+        <v>23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>141215393200</v>
       </c>
+      <c r="Q22">
+        <v>433124179200</v>
+      </c>
+      <c r="R22">
+        <v>291908786000</v>
+      </c>
+      <c r="S22">
+        <v>40375900</v>
+      </c>
+      <c r="T22">
+        <v>20498200</v>
+      </c>
+      <c r="U22">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V22">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W22">
+        <v>40179334416</v>
+      </c>
+      <c r="X22">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y22">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z22">
+        <v>1283142</v>
+      </c>
+      <c r="AA22">
+        <v>6777.9</v>
+      </c>
+      <c r="AB22">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC22">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>135895961700</v>
       </c>
+      <c r="Q23">
+        <v>446330967700</v>
+      </c>
+      <c r="R23">
+        <v>310435006000</v>
+      </c>
+      <c r="S23">
+        <v>41481800</v>
+      </c>
+      <c r="T23">
+        <v>21912200</v>
+      </c>
+      <c r="U23">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V23">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W23">
+        <v>40179334416</v>
+      </c>
+      <c r="X23">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y23">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z23">
+        <v>1283142</v>
+      </c>
+      <c r="AA23">
+        <v>6777.9</v>
+      </c>
+      <c r="AB23">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC23">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>141778577700</v>
       </c>
+      <c r="Q24">
+        <v>467538742600</v>
+      </c>
+      <c r="R24">
+        <v>325760164900</v>
+      </c>
+      <c r="S24">
+        <v>42929400</v>
+      </c>
+      <c r="T24">
+        <v>23303800</v>
+      </c>
+      <c r="U24">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V24">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W24">
+        <v>40179334416</v>
+      </c>
+      <c r="X24">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y24">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z24">
+        <v>1283142</v>
+      </c>
+      <c r="AA24">
+        <v>6777.9</v>
+      </c>
+      <c r="AB24">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC24">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>147368205400</v>
       </c>
+      <c r="Q25">
+        <v>489805380300</v>
+      </c>
+      <c r="R25">
+        <v>342437174900</v>
+      </c>
+      <c r="S25">
+        <v>44364600</v>
+      </c>
+      <c r="T25">
+        <v>24575200</v>
+      </c>
+      <c r="U25">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V25">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W25">
+        <v>40179334416</v>
+      </c>
+      <c r="X25">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y25">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z25">
+        <v>1283142</v>
+      </c>
+      <c r="AA25">
+        <v>6777.9</v>
+      </c>
+      <c r="AB25">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC25">
+        <v>25.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>148320323000</v>
       </c>
+      <c r="Q26">
+        <v>510719859000</v>
+      </c>
+      <c r="R26">
+        <v>362399536000</v>
+      </c>
+      <c r="S26">
+        <v>45805900</v>
+      </c>
+      <c r="T26">
+        <v>26458300</v>
+      </c>
+      <c r="U26">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V26">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W26">
+        <v>40179334416</v>
+      </c>
+      <c r="X26">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y26">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z26">
+        <v>1283142</v>
+      </c>
+      <c r="AA26">
+        <v>6777.9</v>
+      </c>
+      <c r="AB26">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC26">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>148259256700</v>
       </c>
+      <c r="Q27">
+        <v>526423125400</v>
+      </c>
+      <c r="R27">
+        <v>378163868700</v>
+      </c>
+      <c r="S27">
+        <v>46852300</v>
+      </c>
+      <c r="T27">
+        <v>27647100</v>
+      </c>
+      <c r="U27">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V27">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W27">
+        <v>40179334416</v>
+      </c>
+      <c r="X27">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y27">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z27">
+        <v>1283142</v>
+      </c>
+      <c r="AA27">
+        <v>6777.9</v>
+      </c>
+      <c r="AB27">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC27">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>140966840900</v>
       </c>
+      <c r="Q28">
+        <v>536055780600</v>
+      </c>
+      <c r="R28">
+        <v>395088939700</v>
+      </c>
+      <c r="S28">
+        <v>47441700</v>
+      </c>
+      <c r="T28">
+        <v>28864300</v>
+      </c>
+      <c r="U28">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V28">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W28">
+        <v>40179334416</v>
+      </c>
+      <c r="X28">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y28">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z28">
+        <v>1283142</v>
+      </c>
+      <c r="AA28">
+        <v>6777.9</v>
+      </c>
+      <c r="AB28">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC28">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>134705210200</v>
       </c>
+      <c r="Q29">
+        <v>544597291700</v>
+      </c>
+      <c r="R29">
+        <v>409892081500</v>
+      </c>
+      <c r="S29">
+        <v>48046700</v>
+      </c>
+      <c r="T29">
+        <v>29869900</v>
+      </c>
+      <c r="U29">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V29">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W29">
+        <v>40179334416</v>
+      </c>
+      <c r="X29">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y29">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z29">
+        <v>1283142</v>
+      </c>
+      <c r="AA29">
+        <v>6777.9</v>
+      </c>
+      <c r="AB29">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC29">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>133371368600</v>
       </c>
+      <c r="Q30">
+        <v>556918711800</v>
+      </c>
+      <c r="R30">
+        <v>423547343200</v>
+      </c>
+      <c r="S30">
+        <v>48885400</v>
+      </c>
+      <c r="T30">
+        <v>30973400</v>
+      </c>
+      <c r="U30">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V30">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W30">
+        <v>40179334416</v>
+      </c>
+      <c r="X30">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y30">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z30">
+        <v>1283142</v>
+      </c>
+      <c r="AA30">
+        <v>6777.9</v>
+      </c>
+      <c r="AB30">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>139415641000</v>
       </c>
+      <c r="Q31">
+        <v>572082592700</v>
+      </c>
+      <c r="R31">
+        <v>432666951700</v>
+      </c>
+      <c r="S31">
+        <v>49836100</v>
+      </c>
+      <c r="T31">
+        <v>31575800</v>
+      </c>
+      <c r="U31">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V31">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W31">
+        <v>40179334416</v>
+      </c>
+      <c r="X31">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y31">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z31">
+        <v>1283142</v>
+      </c>
+      <c r="AA31">
+        <v>6777.9</v>
+      </c>
+      <c r="AB31">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC31">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>151055510000</v>
       </c>
+      <c r="Q32">
+        <v>590816716300</v>
+      </c>
+      <c r="R32">
+        <v>439761206300</v>
+      </c>
+      <c r="S32">
+        <v>51439100</v>
+      </c>
+      <c r="T32">
+        <v>32099800</v>
+      </c>
+      <c r="U32">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V32">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W32">
+        <v>40179334416</v>
+      </c>
+      <c r="X32">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y32">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z32">
+        <v>1283142</v>
+      </c>
+      <c r="AA32">
+        <v>6777.9</v>
+      </c>
+      <c r="AB32">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC32">
+        <v>52.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>157489753800</v>
       </c>
+      <c r="Q33">
+        <v>607464014100</v>
+      </c>
+      <c r="R33">
+        <v>449974260300</v>
+      </c>
+      <c r="S33">
+        <v>52783000</v>
+      </c>
+      <c r="T33">
+        <v>32861900</v>
+      </c>
+      <c r="U33">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V33">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W33">
+        <v>40179334416</v>
+      </c>
+      <c r="X33">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y33">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z33">
+        <v>1283142</v>
+      </c>
+      <c r="AA33">
+        <v>6777.9</v>
+      </c>
+      <c r="AB33">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC33">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>174892301000</v>
       </c>
+      <c r="Q34">
+        <v>631407280800</v>
+      </c>
+      <c r="R34">
+        <v>456514979800</v>
+      </c>
+      <c r="S34">
+        <v>54416800</v>
+      </c>
+      <c r="T34">
+        <v>33373800</v>
+      </c>
+      <c r="U34">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V34">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W34">
+        <v>40179334416</v>
+      </c>
+      <c r="X34">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y34">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z34">
+        <v>1283142</v>
+      </c>
+      <c r="AA34">
+        <v>6777.9</v>
+      </c>
+      <c r="AB34">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC34">
+        <v>78.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>185567892500</v>
       </c>
+      <c r="Q35">
+        <v>650783215200</v>
+      </c>
+      <c r="R35">
+        <v>465215322700</v>
+      </c>
+      <c r="S35">
+        <v>55968700</v>
+      </c>
+      <c r="T35">
+        <v>34212000</v>
+      </c>
+      <c r="U35">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V35">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W35">
+        <v>40179334416</v>
+      </c>
+      <c r="X35">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y35">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z35">
+        <v>1283142</v>
+      </c>
+      <c r="AA35">
+        <v>6777.9</v>
+      </c>
+      <c r="AB35">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC35">
+        <v>48.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>196244774100</v>
       </c>
+      <c r="Q36">
+        <v>671690453400</v>
+      </c>
+      <c r="R36">
+        <v>475445679300</v>
+      </c>
+      <c r="S36">
+        <v>57319300</v>
+      </c>
+      <c r="T36">
+        <v>34871800</v>
+      </c>
+      <c r="U36">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V36">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W36">
+        <v>40179334416</v>
+      </c>
+      <c r="X36">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y36">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z36">
+        <v>1283142</v>
+      </c>
+      <c r="AA36">
+        <v>6777.9</v>
+      </c>
+      <c r="AB36">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC36">
+        <v>48.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>202661116900</v>
       </c>
+      <c r="Q37">
+        <v>686754910800</v>
+      </c>
+      <c r="R37">
+        <v>484093793900</v>
+      </c>
+      <c r="S37">
+        <v>58167400</v>
+      </c>
+      <c r="T37">
+        <v>35494000</v>
+      </c>
+      <c r="U37">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V37">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W37">
+        <v>40179334416</v>
+      </c>
+      <c r="X37">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y37">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z37">
+        <v>1283142</v>
+      </c>
+      <c r="AA37">
+        <v>6777.9</v>
+      </c>
+      <c r="AB37">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC37">
+        <v>29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>199115450900</v>
       </c>
+      <c r="Q38">
+        <v>701320552300</v>
+      </c>
+      <c r="R38">
+        <v>502205101400</v>
+      </c>
+      <c r="S38">
+        <v>59016200</v>
+      </c>
+      <c r="T38">
+        <v>36713300</v>
+      </c>
+      <c r="U38">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V38">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W38">
+        <v>40179334416</v>
+      </c>
+      <c r="X38">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y38">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z38">
+        <v>1283142</v>
+      </c>
+      <c r="AA38">
+        <v>6777.9</v>
+      </c>
+      <c r="AB38">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC38">
+        <v>16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>199273190600</v>
       </c>
+      <c r="Q39">
+        <v>717753046100</v>
+      </c>
+      <c r="R39">
+        <v>518479855500</v>
+      </c>
+      <c r="S39">
+        <v>60024000</v>
+      </c>
+      <c r="T39">
+        <v>37741600</v>
+      </c>
+      <c r="U39">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V39">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W39">
+        <v>40179334416</v>
+      </c>
+      <c r="X39">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y39">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z39">
+        <v>1283142</v>
+      </c>
+      <c r="AA39">
+        <v>6777.9</v>
+      </c>
+      <c r="AB39">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC39">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>185691760900</v>
       </c>
+      <c r="Q40">
+        <v>726102669700</v>
+      </c>
+      <c r="R40">
+        <v>540410908800</v>
+      </c>
+      <c r="S40">
+        <v>60718200</v>
+      </c>
+      <c r="T40">
+        <v>39149400</v>
+      </c>
+      <c r="U40">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V40">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W40">
+        <v>40179334416</v>
+      </c>
+      <c r="X40">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y40">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z40">
+        <v>1283142</v>
+      </c>
+      <c r="AA40">
+        <v>6777.9</v>
+      </c>
+      <c r="AB40">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC40">
+        <v>61.4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>178912801700</v>
       </c>
+      <c r="Q41">
+        <v>734966932600</v>
+      </c>
+      <c r="R41">
+        <v>556054130900</v>
+      </c>
+      <c r="S41">
+        <v>61349500</v>
+      </c>
+      <c r="T41">
+        <v>40082400</v>
+      </c>
+      <c r="U41">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V41">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W41">
+        <v>40179334416</v>
+      </c>
+      <c r="X41">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y41">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z41">
+        <v>1283142</v>
+      </c>
+      <c r="AA41">
+        <v>6777.9</v>
+      </c>
+      <c r="AB41">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC41">
+        <v>30.7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>191336328500</v>
       </c>
+      <c r="Q42">
+        <v>755082611700</v>
+      </c>
+      <c r="R42">
+        <v>563746283200</v>
+      </c>
+      <c r="S42">
+        <v>62521700</v>
+      </c>
+      <c r="T42">
+        <v>40626700</v>
+      </c>
+      <c r="U42">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V42">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W42">
+        <v>40179334416</v>
+      </c>
+      <c r="X42">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y42">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z42">
+        <v>1283142</v>
+      </c>
+      <c r="AA42">
+        <v>6777.9</v>
+      </c>
+      <c r="AB42">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC42">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>189598229200</v>
       </c>
+      <c r="Q43">
+        <v>765777701000</v>
+      </c>
+      <c r="R43">
+        <v>576179471800</v>
+      </c>
+      <c r="S43">
+        <v>63162900</v>
+      </c>
+      <c r="T43">
+        <v>41398300</v>
+      </c>
+      <c r="U43">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V43">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W43">
+        <v>40179334416</v>
+      </c>
+      <c r="X43">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y43">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z43">
+        <v>1283142</v>
+      </c>
+      <c r="AA43">
+        <v>6777.9</v>
+      </c>
+      <c r="AB43">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC43">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>192468339400</v>
       </c>
+      <c r="Q44">
+        <v>780626537200</v>
+      </c>
+      <c r="R44">
+        <v>588158197800</v>
+      </c>
+      <c r="S44">
+        <v>63805800</v>
+      </c>
+      <c r="T44">
+        <v>42193500</v>
+      </c>
+      <c r="U44">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V44">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W44">
+        <v>40179334416</v>
+      </c>
+      <c r="X44">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y44">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z44">
+        <v>1283142</v>
+      </c>
+      <c r="AA44">
+        <v>6777.9</v>
+      </c>
+      <c r="AB44">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>192045511400</v>
       </c>
+      <c r="Q45">
+        <v>793547030500</v>
+      </c>
+      <c r="R45">
+        <v>601501519100</v>
+      </c>
+      <c r="S45">
+        <v>64548600</v>
+      </c>
+      <c r="T45">
+        <v>43092200</v>
+      </c>
+      <c r="U45">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V45">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W45">
+        <v>40179334416</v>
+      </c>
+      <c r="X45">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y45">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z45">
+        <v>1283142</v>
+      </c>
+      <c r="AA45">
+        <v>6777.9</v>
+      </c>
+      <c r="AB45">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC45">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>171772577100</v>
       </c>
+      <c r="Q46">
+        <v>803617025200</v>
+      </c>
+      <c r="R46">
+        <v>631844448100</v>
+      </c>
+      <c r="S46">
+        <v>65117100</v>
+      </c>
+      <c r="T46">
+        <v>44837100</v>
+      </c>
+      <c r="U46">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V46">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W46">
+        <v>40179334416</v>
+      </c>
+      <c r="X46">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y46">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z46">
+        <v>1283142</v>
+      </c>
+      <c r="AA46">
+        <v>6777.9</v>
+      </c>
+      <c r="AB46">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC46">
+        <v>91.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>144860982500</v>
       </c>
+      <c r="Q47">
+        <v>810403167600</v>
+      </c>
+      <c r="R47">
+        <v>665542185100</v>
+      </c>
+      <c r="S47">
+        <v>65444200</v>
+      </c>
+      <c r="T47">
+        <v>47051400</v>
+      </c>
+      <c r="U47">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V47">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W47">
+        <v>40179334416</v>
+      </c>
+      <c r="X47">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y47">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z47">
+        <v>1283142</v>
+      </c>
+      <c r="AA47">
+        <v>6777.9</v>
+      </c>
+      <c r="AB47">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC47">
+        <v>121.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>127407331500</v>
       </c>
+      <c r="Q48">
+        <v>816909029900</v>
+      </c>
+      <c r="R48">
+        <v>689501698400</v>
+      </c>
+      <c r="S48">
+        <v>65802600</v>
+      </c>
+      <c r="T48">
+        <v>48660700</v>
+      </c>
+      <c r="U48">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V48">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W48">
+        <v>40179334416</v>
+      </c>
+      <c r="X48">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y48">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z48">
+        <v>1283142</v>
+      </c>
+      <c r="AA48">
+        <v>6777.9</v>
+      </c>
+      <c r="AB48">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC48">
+        <v>79</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>121768243400</v>
       </c>
+      <c r="Q49">
+        <v>830223614600</v>
+      </c>
+      <c r="R49">
+        <v>708455371200</v>
+      </c>
+      <c r="S49">
+        <v>66462600</v>
+      </c>
+      <c r="T49">
+        <v>49896500</v>
+      </c>
+      <c r="U49">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V49">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W49">
+        <v>40179334416</v>
+      </c>
+      <c r="X49">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y49">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z49">
+        <v>1283142</v>
+      </c>
+      <c r="AA49">
+        <v>6777.9</v>
+      </c>
+      <c r="AB49">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC49">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>111702072400</v>
       </c>
+      <c r="Q50">
+        <v>838518270800</v>
+      </c>
+      <c r="R50">
+        <v>726816198400</v>
+      </c>
+      <c r="S50">
+        <v>66747000</v>
+      </c>
+      <c r="T50">
+        <v>51281600</v>
+      </c>
+      <c r="U50">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V50">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W50">
+        <v>40179334416</v>
+      </c>
+      <c r="X50">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y50">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z50">
+        <v>1283142</v>
+      </c>
+      <c r="AA50">
+        <v>6777.9</v>
+      </c>
+      <c r="AB50">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC50">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>103349712000</v>
       </c>
+      <c r="Q51">
+        <v>845957498400</v>
+      </c>
+      <c r="R51">
+        <v>742607786400</v>
+      </c>
+      <c r="S51">
+        <v>67230300</v>
+      </c>
+      <c r="T51">
+        <v>52475600</v>
+      </c>
+      <c r="U51">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V51">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W51">
+        <v>40179334416</v>
+      </c>
+      <c r="X51">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y51">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z51">
+        <v>1283142</v>
+      </c>
+      <c r="AA51">
+        <v>6777.9</v>
+      </c>
+      <c r="AB51">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC51">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>97431033800</v>
       </c>
+      <c r="Q52">
+        <v>853099315600</v>
+      </c>
+      <c r="R52">
+        <v>755668281800</v>
+      </c>
+      <c r="S52">
+        <v>67648200</v>
+      </c>
+      <c r="T52">
+        <v>53522200</v>
+      </c>
+      <c r="U52">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V52">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W52">
+        <v>40179334416</v>
+      </c>
+      <c r="X52">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y52">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z52">
+        <v>1283142</v>
+      </c>
+      <c r="AA52">
+        <v>6777.9</v>
+      </c>
+      <c r="AB52">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC52">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>89160327500</v>
       </c>
+      <c r="Q53">
+        <v>857853976600</v>
+      </c>
+      <c r="R53">
+        <v>768693649100</v>
+      </c>
+      <c r="S53">
+        <v>67928300</v>
+      </c>
+      <c r="T53">
+        <v>54612700</v>
+      </c>
+      <c r="U53">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V53">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W53">
+        <v>40179334416</v>
+      </c>
+      <c r="X53">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y53">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z53">
+        <v>1283142</v>
+      </c>
+      <c r="AA53">
+        <v>6777.9</v>
+      </c>
+      <c r="AB53">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC53">
+        <v>37.4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>84486351800</v>
       </c>
+      <c r="Q54">
+        <v>864867354400</v>
+      </c>
+      <c r="R54">
+        <v>780381002600</v>
+      </c>
+      <c r="S54">
+        <v>68373800</v>
+      </c>
+      <c r="T54">
+        <v>55383200</v>
+      </c>
+      <c r="U54">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V54">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W54">
+        <v>40179334416</v>
+      </c>
+      <c r="X54">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y54">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z54">
+        <v>1283142</v>
+      </c>
+      <c r="AA54">
+        <v>6777.9</v>
+      </c>
+      <c r="AB54">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC54">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>87062746700</v>
       </c>
+      <c r="Q55">
+        <v>875964547600</v>
+      </c>
+      <c r="R55">
+        <v>788901800900</v>
+      </c>
+      <c r="S55">
+        <v>69011900</v>
+      </c>
+      <c r="T55">
+        <v>56039200</v>
+      </c>
+      <c r="U55">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V55">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W55">
+        <v>40179334416</v>
+      </c>
+      <c r="X55">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y55">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z55">
+        <v>1283142</v>
+      </c>
+      <c r="AA55">
+        <v>6777.9</v>
+      </c>
+      <c r="AB55">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC55">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>86580748400</v>
       </c>
+      <c r="Q56">
+        <v>888182704700</v>
+      </c>
+      <c r="R56">
+        <v>801601956300</v>
+      </c>
+      <c r="S56">
+        <v>69691000</v>
+      </c>
+      <c r="T56">
+        <v>56784100</v>
+      </c>
+      <c r="U56">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V56">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W56">
+        <v>40179334416</v>
+      </c>
+      <c r="X56">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y56">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z56">
+        <v>1283142</v>
+      </c>
+      <c r="AA56">
+        <v>6777.9</v>
+      </c>
+      <c r="AB56">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC56">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>95707290000</v>
       </c>
+      <c r="Q57">
+        <v>900822427900</v>
+      </c>
+      <c r="R57">
+        <v>805115137900</v>
+      </c>
+      <c r="S57">
+        <v>70508800</v>
+      </c>
+      <c r="T57">
+        <v>57089700</v>
+      </c>
+      <c r="U57">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V57">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W57">
+        <v>40179334416</v>
+      </c>
+      <c r="X57">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y57">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z57">
+        <v>1283142</v>
+      </c>
+      <c r="AA57">
+        <v>6777.9</v>
+      </c>
+      <c r="AB57">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC57">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>98842923500</v>
       </c>
+      <c r="Q58">
+        <v>909631599200</v>
+      </c>
+      <c r="R58">
+        <v>810788675700</v>
+      </c>
+      <c r="S58">
+        <v>71060100</v>
+      </c>
+      <c r="T58">
+        <v>57469200</v>
+      </c>
+      <c r="U58">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V58">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W58">
+        <v>40179334416</v>
+      </c>
+      <c r="X58">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y58">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z58">
+        <v>1283142</v>
+      </c>
+      <c r="AA58">
+        <v>6777.9</v>
+      </c>
+      <c r="AB58">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC58">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>95408472300</v>
       </c>
+      <c r="Q59">
+        <v>919120668700</v>
+      </c>
+      <c r="R59">
+        <v>823712196400</v>
+      </c>
+      <c r="S59">
+        <v>71506800</v>
+      </c>
+      <c r="T59">
+        <v>58316200</v>
+      </c>
+      <c r="U59">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V59">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W59">
+        <v>40179334416</v>
+      </c>
+      <c r="X59">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y59">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z59">
+        <v>1283142</v>
+      </c>
+      <c r="AA59">
+        <v>6777.9</v>
+      </c>
+      <c r="AB59">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC59">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>92944356600</v>
       </c>
+      <c r="Q60">
+        <v>923998482100</v>
+      </c>
+      <c r="R60">
+        <v>831054125500</v>
+      </c>
+      <c r="S60">
+        <v>71869200</v>
+      </c>
+      <c r="T60">
+        <v>58918200</v>
+      </c>
+      <c r="U60">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V60">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W60">
+        <v>40179334416</v>
+      </c>
+      <c r="X60">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y60">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z60">
+        <v>1283142</v>
+      </c>
+      <c r="AA60">
+        <v>6777.9</v>
+      </c>
+      <c r="AB60">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC60">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>91961334200</v>
       </c>
+      <c r="Q61">
+        <v>931456295700</v>
+      </c>
+      <c r="R61">
+        <v>839494961500</v>
+      </c>
+      <c r="S61">
+        <v>72327600</v>
+      </c>
+      <c r="T61">
+        <v>59520900</v>
+      </c>
+      <c r="U61">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V61">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W61">
+        <v>40179334416</v>
+      </c>
+      <c r="X61">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y61">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z61">
+        <v>1283142</v>
+      </c>
+      <c r="AA61">
+        <v>6777.9</v>
+      </c>
+      <c r="AB61">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC61">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>95074108800</v>
       </c>
+      <c r="Q62">
+        <v>941649260200</v>
+      </c>
+      <c r="R62">
+        <v>846575151400</v>
+      </c>
+      <c r="S62">
+        <v>72901500</v>
+      </c>
+      <c r="T62">
+        <v>59976000</v>
+      </c>
+      <c r="U62">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V62">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W62">
+        <v>40179334416</v>
+      </c>
+      <c r="X62">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y62">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z62">
+        <v>1283142</v>
+      </c>
+      <c r="AA62">
+        <v>6777.9</v>
+      </c>
+      <c r="AB62">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC62">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>92636074600</v>
       </c>
+      <c r="Q63">
+        <v>947966654300</v>
+      </c>
+      <c r="R63">
+        <v>855330579700</v>
+      </c>
+      <c r="S63">
+        <v>73219300</v>
+      </c>
+      <c r="T63">
+        <v>60532500</v>
+      </c>
+      <c r="U63">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V63">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W63">
+        <v>40179334416</v>
+      </c>
+      <c r="X63">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y63">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z63">
+        <v>1283142</v>
+      </c>
+      <c r="AA63">
+        <v>6777.9</v>
+      </c>
+      <c r="AB63">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC63">
+        <v>11</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>90822997500</v>
       </c>
+      <c r="Q64">
+        <v>956093086500</v>
+      </c>
+      <c r="R64">
+        <v>865270089000</v>
+      </c>
+      <c r="S64">
+        <v>73671200</v>
+      </c>
+      <c r="T64">
+        <v>61161900</v>
+      </c>
+      <c r="U64">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V64">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W64">
+        <v>40179334416</v>
+      </c>
+      <c r="X64">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y64">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z64">
+        <v>1283142</v>
+      </c>
+      <c r="AA64">
+        <v>6777.9</v>
+      </c>
+      <c r="AB64">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC64">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>70634794400</v>
       </c>
+      <c r="Q65">
+        <v>961741965100</v>
+      </c>
+      <c r="R65">
+        <v>891107170700</v>
+      </c>
+      <c r="S65">
+        <v>74054800</v>
+      </c>
+      <c r="T65">
+        <v>62810800</v>
+      </c>
+      <c r="U65">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V65">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W65">
+        <v>40179334416</v>
+      </c>
+      <c r="X65">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y65">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z65">
+        <v>1283142</v>
+      </c>
+      <c r="AA65">
+        <v>6777.9</v>
+      </c>
+      <c r="AB65">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC65">
+        <v>91.3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>54771364700</v>
       </c>
+      <c r="Q66">
+        <v>969272633900</v>
+      </c>
+      <c r="R66">
+        <v>914501269200</v>
+      </c>
+      <c r="S66">
+        <v>74487100</v>
+      </c>
+      <c r="T66">
+        <v>64477700</v>
+      </c>
+      <c r="U66">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V66">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W66">
+        <v>40179334416</v>
+      </c>
+      <c r="X66">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y66">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z66">
+        <v>1283142</v>
+      </c>
+      <c r="AA66">
+        <v>6777.9</v>
+      </c>
+      <c r="AB66">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC66">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>26900068100</v>
       </c>
+      <c r="Q67">
+        <v>973450376700</v>
+      </c>
+      <c r="R67">
+        <v>946550308600</v>
+      </c>
+      <c r="S67">
+        <v>74767800</v>
+      </c>
+      <c r="T67">
+        <v>67018000</v>
+      </c>
+      <c r="U67">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V67">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W67">
+        <v>40179334416</v>
+      </c>
+      <c r="X67">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y67">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z67">
+        <v>1283142</v>
+      </c>
+      <c r="AA67">
+        <v>6777.9</v>
+      </c>
+      <c r="AB67">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC67">
+        <v>126.1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>4540687500</v>
       </c>
+      <c r="Q68">
+        <v>981411304100</v>
+      </c>
+      <c r="R68">
+        <v>976870616600</v>
+      </c>
+      <c r="S68">
+        <v>75264200</v>
+      </c>
+      <c r="T68">
+        <v>69416900</v>
+      </c>
+      <c r="U68">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V68">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W68">
+        <v>40179334416</v>
+      </c>
+      <c r="X68">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y68">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z68">
+        <v>1283142</v>
+      </c>
+      <c r="AA68">
+        <v>6777.9</v>
+      </c>
+      <c r="AB68">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC68">
+        <v>101.2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-18188836300</v>
       </c>
+      <c r="Q69">
+        <v>987486231800</v>
+      </c>
+      <c r="R69">
+        <v>1005675068100</v>
+      </c>
+      <c r="S69">
+        <v>75657600</v>
+      </c>
+      <c r="T69">
+        <v>72006600</v>
+      </c>
+      <c r="U69">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V69">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W69">
+        <v>40179334416</v>
+      </c>
+      <c r="X69">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y69">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z69">
+        <v>1283142</v>
+      </c>
+      <c r="AA69">
+        <v>6777.9</v>
+      </c>
+      <c r="AB69">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC69">
+        <v>102.8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-25566139900</v>
       </c>
+      <c r="Q70">
+        <v>999573545700</v>
+      </c>
+      <c r="R70">
+        <v>1025139685600</v>
+      </c>
+      <c r="S70">
+        <v>76343300</v>
+      </c>
+      <c r="T70">
+        <v>73287000</v>
+      </c>
+      <c r="U70">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V70">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W70">
+        <v>40179334416</v>
+      </c>
+      <c r="X70">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y70">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z70">
+        <v>1283142</v>
+      </c>
+      <c r="AA70">
+        <v>6777.9</v>
+      </c>
+      <c r="AB70">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC70">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-41375177600</v>
       </c>
+      <c r="Q71">
+        <v>1005673477900</v>
+      </c>
+      <c r="R71">
+        <v>1047048655500</v>
+      </c>
+      <c r="S71">
+        <v>76675100</v>
+      </c>
+      <c r="T71">
+        <v>74604400</v>
+      </c>
+      <c r="U71">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V71">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W71">
+        <v>40179334416</v>
+      </c>
+      <c r="X71">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y71">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z71">
+        <v>1283142</v>
+      </c>
+      <c r="AA71">
+        <v>6777.9</v>
+      </c>
+      <c r="AB71">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC71">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-53007168700</v>
       </c>
+      <c r="Q72">
+        <v>1015721675600</v>
+      </c>
+      <c r="R72">
+        <v>1068728844300</v>
+      </c>
+      <c r="S72">
+        <v>77201100</v>
+      </c>
+      <c r="T72">
+        <v>75913100</v>
+      </c>
+      <c r="U72">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V72">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W72">
+        <v>40179334416</v>
+      </c>
+      <c r="X72">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y72">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z72">
+        <v>1283142</v>
+      </c>
+      <c r="AA72">
+        <v>6777.9</v>
+      </c>
+      <c r="AB72">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC72">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-53848792600</v>
       </c>
+      <c r="Q73">
+        <v>1026336441200</v>
+      </c>
+      <c r="R73">
+        <v>1080185233800</v>
+      </c>
+      <c r="S73">
+        <v>77790300</v>
+      </c>
+      <c r="T73">
+        <v>76618500</v>
+      </c>
+      <c r="U73">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V73">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W73">
+        <v>40179334416</v>
+      </c>
+      <c r="X73">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y73">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z73">
+        <v>1283142</v>
+      </c>
+      <c r="AA73">
+        <v>6777.9</v>
+      </c>
+      <c r="AB73">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC73">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-62985277500</v>
       </c>
+      <c r="Q74">
+        <v>1032475247700</v>
+      </c>
+      <c r="R74">
+        <v>1095460525200</v>
+      </c>
+      <c r="S74">
+        <v>78225300</v>
+      </c>
+      <c r="T74">
+        <v>77466900</v>
+      </c>
+      <c r="U74">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V74">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W74">
+        <v>40179334416</v>
+      </c>
+      <c r="X74">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y74">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z74">
+        <v>1283142</v>
+      </c>
+      <c r="AA74">
+        <v>6777.9</v>
+      </c>
+      <c r="AB74">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC74">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-73603949700</v>
       </c>
+      <c r="Q75">
+        <v>1040254603800</v>
+      </c>
+      <c r="R75">
+        <v>1113858553500</v>
+      </c>
+      <c r="S75">
+        <v>78623900</v>
+      </c>
+      <c r="T75">
+        <v>78673900</v>
+      </c>
+      <c r="U75">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V75">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W75">
+        <v>40179334416</v>
+      </c>
+      <c r="X75">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y75">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z75">
+        <v>1283142</v>
+      </c>
+      <c r="AA75">
+        <v>6777.9</v>
+      </c>
+      <c r="AB75">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC75">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-82310276200</v>
       </c>
+      <c r="Q76">
+        <v>1047842759200</v>
+      </c>
+      <c r="R76">
+        <v>1130153035400</v>
+      </c>
+      <c r="S76">
+        <v>79059000</v>
+      </c>
+      <c r="T76">
+        <v>79865900</v>
+      </c>
+      <c r="U76">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V76">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W76">
+        <v>40179334416</v>
+      </c>
+      <c r="X76">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y76">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z76">
+        <v>1283142</v>
+      </c>
+      <c r="AA76">
+        <v>6777.9</v>
+      </c>
+      <c r="AB76">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC76">
+        <v>39.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-90153295400</v>
       </c>
+      <c r="Q77">
+        <v>1053777664000</v>
+      </c>
+      <c r="R77">
+        <v>1143930959400</v>
+      </c>
+      <c r="S77">
+        <v>79431000</v>
+      </c>
+      <c r="T77">
+        <v>80806500</v>
+      </c>
+      <c r="U77">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V77">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W77">
+        <v>40179334416</v>
+      </c>
+      <c r="X77">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y77">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z77">
+        <v>1283142</v>
+      </c>
+      <c r="AA77">
+        <v>6777.9</v>
+      </c>
+      <c r="AB77">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC77">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-91957585400</v>
       </c>
+      <c r="Q78">
+        <v>1053815524000</v>
+      </c>
+      <c r="R78">
+        <v>1145773109400</v>
+      </c>
+      <c r="S78">
+        <v>79434700</v>
+      </c>
+      <c r="T78">
+        <v>80907500</v>
+      </c>
+      <c r="U78">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V78">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W78">
+        <v>40179334416</v>
+      </c>
+      <c r="X78">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y78">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z78">
+        <v>1283142</v>
+      </c>
+      <c r="AA78">
+        <v>6777.9</v>
+      </c>
+      <c r="AB78">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC78">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-91970455400</v>
       </c>
+      <c r="Q79">
+        <v>1053815524000</v>
+      </c>
+      <c r="R79">
+        <v>1145785979400</v>
+      </c>
+      <c r="S79">
+        <v>79434700</v>
+      </c>
+      <c r="T79">
+        <v>80908600</v>
+      </c>
+      <c r="U79">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V79">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W79">
+        <v>40179334416</v>
+      </c>
+      <c r="X79">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y79">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z79">
+        <v>1283142</v>
+      </c>
+      <c r="AA79">
+        <v>6777.9</v>
+      </c>
+      <c r="AB79">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC79">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-138269857400</v>
       </c>
+      <c r="Q80">
+        <v>1089207184600</v>
+      </c>
+      <c r="R80">
+        <v>1227477042000</v>
+      </c>
+      <c r="S80">
+        <v>81922100</v>
+      </c>
+      <c r="T80">
+        <v>86926200</v>
+      </c>
+      <c r="U80">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V80">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W80">
+        <v>40179334416</v>
+      </c>
+      <c r="X80">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y80">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z80">
+        <v>1283142</v>
+      </c>
+      <c r="AA80">
+        <v>6777.9</v>
+      </c>
+      <c r="AB80">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC80">
+        <v>209.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-146899076400</v>
       </c>
+      <c r="Q81">
+        <v>1109572284600</v>
+      </c>
+      <c r="R81">
+        <v>1256471361000</v>
+      </c>
+      <c r="S81">
+        <v>83202900</v>
+      </c>
+      <c r="T81">
+        <v>89119900</v>
+      </c>
+      <c r="U81">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V81">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W81">
+        <v>40179334416</v>
+      </c>
+      <c r="X81">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y81">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z81">
+        <v>1283142</v>
+      </c>
+      <c r="AA81">
+        <v>6777.9</v>
+      </c>
+      <c r="AB81">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC81">
+        <v>39</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-156258913200</v>
       </c>
+      <c r="Q82">
+        <v>1132040423400</v>
+      </c>
+      <c r="R82">
+        <v>1288299336600</v>
+      </c>
+      <c r="S82">
+        <v>84656700</v>
+      </c>
+      <c r="T82">
+        <v>91226900</v>
+      </c>
+      <c r="U82">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V82">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W82">
+        <v>40179334416</v>
+      </c>
+      <c r="X82">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y82">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z82">
+        <v>1283142</v>
+      </c>
+      <c r="AA82">
+        <v>6777.9</v>
+      </c>
+      <c r="AB82">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC82">
+        <v>42.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-145765488000</v>
       </c>
+      <c r="Q83">
+        <v>1163873476800</v>
+      </c>
+      <c r="R83">
+        <v>1309638964800</v>
+      </c>
+      <c r="S83">
+        <v>86899900</v>
+      </c>
+      <c r="T83">
+        <v>92620500</v>
+      </c>
+      <c r="U83">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V83">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W83">
+        <v>40179334416</v>
+      </c>
+      <c r="X83">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y83">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z83">
+        <v>1283142</v>
+      </c>
+      <c r="AA83">
+        <v>6777.9</v>
+      </c>
+      <c r="AB83">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC83">
+        <v>47.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-129716209300</v>
       </c>
+      <c r="Q84">
+        <v>1191852493600</v>
+      </c>
+      <c r="R84">
+        <v>1321568702900</v>
+      </c>
+      <c r="S84">
+        <v>88979800</v>
+      </c>
+      <c r="T84">
+        <v>93530300</v>
+      </c>
+      <c r="U84">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V84">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W84">
+        <v>40179334416</v>
+      </c>
+      <c r="X84">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y84">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z84">
+        <v>1283142</v>
+      </c>
+      <c r="AA84">
+        <v>6777.9</v>
+      </c>
+      <c r="AB84">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC84">
+        <v>72.6</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-112163303000</v>
       </c>
+      <c r="Q85">
+        <v>1222312576300</v>
+      </c>
+      <c r="R85">
+        <v>1334475879300</v>
+      </c>
+      <c r="S85">
+        <v>90987700</v>
+      </c>
+      <c r="T85">
+        <v>94405900</v>
+      </c>
+      <c r="U85">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V85">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W85">
+        <v>40179334416</v>
+      </c>
+      <c r="X85">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y85">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z85">
+        <v>1283142</v>
+      </c>
+      <c r="AA85">
+        <v>6777.9</v>
+      </c>
+      <c r="AB85">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC85">
+        <v>79.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-119114582700</v>
       </c>
+      <c r="Q86">
+        <v>1238095096300</v>
+      </c>
+      <c r="R86">
+        <v>1357209679000</v>
+      </c>
+      <c r="S86">
+        <v>91970100</v>
+      </c>
+      <c r="T86">
+        <v>95741700</v>
+      </c>
+      <c r="U86">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V86">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W86">
+        <v>40179334416</v>
+      </c>
+      <c r="X86">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y86">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z86">
+        <v>1283142</v>
+      </c>
+      <c r="AA86">
+        <v>6777.9</v>
+      </c>
+      <c r="AB86">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC86">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-134471117300</v>
       </c>
+      <c r="Q87">
+        <v>1247964243300</v>
+      </c>
+      <c r="R87">
+        <v>1382435360600</v>
+      </c>
+      <c r="S87">
+        <v>92645700</v>
+      </c>
+      <c r="T87">
+        <v>97726700</v>
+      </c>
+      <c r="U87">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V87">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W87">
+        <v>40179334416</v>
+      </c>
+      <c r="X87">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y87">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z87">
+        <v>1283142</v>
+      </c>
+      <c r="AA87">
+        <v>6777.9</v>
+      </c>
+      <c r="AB87">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC87">
+        <v>69.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-145009434300</v>
       </c>
+      <c r="Q88">
+        <v>1258753082400</v>
+      </c>
+      <c r="R88">
+        <v>1403762516700</v>
+      </c>
+      <c r="S88">
+        <v>93366600</v>
+      </c>
+      <c r="T88">
+        <v>99130100</v>
+      </c>
+      <c r="U88">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V88">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W88">
+        <v>40179334416</v>
+      </c>
+      <c r="X88">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y88">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z88">
+        <v>1283142</v>
+      </c>
+      <c r="AA88">
+        <v>6777.9</v>
+      </c>
+      <c r="AB88">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC88">
+        <v>47.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-142773951100</v>
       </c>
+      <c r="Q89">
+        <v>1277359172500</v>
+      </c>
+      <c r="R89">
+        <v>1420133123600</v>
+      </c>
+      <c r="S89">
+        <v>94370700</v>
+      </c>
+      <c r="T89">
+        <v>100409100</v>
+      </c>
+      <c r="U89">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V89">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W89">
+        <v>40179334416</v>
+      </c>
+      <c r="X89">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y89">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z89">
+        <v>1283142</v>
+      </c>
+      <c r="AA89">
+        <v>6777.9</v>
+      </c>
+      <c r="AB89">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC89">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-137840717400</v>
       </c>
+      <c r="Q90">
+        <v>1290356035000</v>
+      </c>
+      <c r="R90">
+        <v>1428196752400</v>
+      </c>
+      <c r="S90">
+        <v>95201600</v>
+      </c>
+      <c r="T90">
+        <v>101068200</v>
+      </c>
+      <c r="U90">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V90">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W90">
+        <v>40179334416</v>
+      </c>
+      <c r="X90">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y90">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z90">
+        <v>1283142</v>
+      </c>
+      <c r="AA90">
+        <v>6777.9</v>
+      </c>
+      <c r="AB90">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC90">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-133840110200</v>
       </c>
+      <c r="Q91">
+        <v>1306406464100</v>
+      </c>
+      <c r="R91">
+        <v>1440246574300</v>
+      </c>
+      <c r="S91">
+        <v>96355300</v>
+      </c>
+      <c r="T91">
+        <v>101811200</v>
+      </c>
+      <c r="U91">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V91">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W91">
+        <v>40179334416</v>
+      </c>
+      <c r="X91">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y91">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z91">
+        <v>1283142</v>
+      </c>
+      <c r="AA91">
+        <v>6777.9</v>
+      </c>
+      <c r="AB91">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC91">
+        <v>18.1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-123465511500</v>
       </c>
+      <c r="Q92">
+        <v>1325890697200</v>
+      </c>
+      <c r="R92">
+        <v>1449356208700</v>
+      </c>
+      <c r="S92">
+        <v>97709500</v>
+      </c>
+      <c r="T92">
+        <v>102472400</v>
+      </c>
+      <c r="U92">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V92">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W92">
+        <v>40179334416</v>
+      </c>
+      <c r="X92">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y92">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z92">
+        <v>1283142</v>
+      </c>
+      <c r="AA92">
+        <v>6777.9</v>
+      </c>
+      <c r="AB92">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC92">
+        <v>46.9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-111512280700</v>
       </c>
+      <c r="Q93">
+        <v>1349402477500</v>
+      </c>
+      <c r="R93">
+        <v>1460914758200</v>
+      </c>
+      <c r="S93">
+        <v>99202600</v>
+      </c>
+      <c r="T93">
+        <v>103227600</v>
+      </c>
+      <c r="U93">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V93">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W93">
+        <v>40179334416</v>
+      </c>
+      <c r="X93">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y93">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z93">
+        <v>1283142</v>
+      </c>
+      <c r="AA93">
+        <v>6777.9</v>
+      </c>
+      <c r="AB93">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC93">
+        <v>54.1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-95066311400</v>
       </c>
+      <c r="Q94">
+        <v>1374830222800</v>
+      </c>
+      <c r="R94">
+        <v>1469896534200</v>
+      </c>
+      <c r="S94">
+        <v>100836100</v>
+      </c>
+      <c r="T94">
+        <v>103767300</v>
+      </c>
+      <c r="U94">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V94">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W94">
+        <v>40179334416</v>
+      </c>
+      <c r="X94">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y94">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z94">
+        <v>1283142</v>
+      </c>
+      <c r="AA94">
+        <v>6777.9</v>
+      </c>
+      <c r="AB94">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC94">
+        <v>74.4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-80595637600</v>
       </c>
+      <c r="Q95">
+        <v>1399331585900</v>
+      </c>
+      <c r="R95">
+        <v>1479927223500</v>
+      </c>
+      <c r="S95">
+        <v>102282700</v>
+      </c>
+      <c r="T95">
+        <v>104425400</v>
+      </c>
+      <c r="U95">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V95">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W95">
+        <v>40179334416</v>
+      </c>
+      <c r="X95">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y95">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z95">
+        <v>1283142</v>
+      </c>
+      <c r="AA95">
+        <v>6777.9</v>
+      </c>
+      <c r="AB95">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC95">
+        <v>65.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-69437598400</v>
       </c>
+      <c r="Q96">
+        <v>1420627199800</v>
+      </c>
+      <c r="R96">
+        <v>1490064798200</v>
+      </c>
+      <c r="S96">
+        <v>103683400</v>
+      </c>
+      <c r="T96">
+        <v>105125300</v>
+      </c>
+      <c r="U96">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V96">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W96">
+        <v>40179334416</v>
+      </c>
+      <c r="X96">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y96">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z96">
+        <v>1283142</v>
+      </c>
+      <c r="AA96">
+        <v>6777.9</v>
+      </c>
+      <c r="AB96">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC96">
+        <v>50.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-53611279100</v>
       </c>
+      <c r="Q97">
+        <v>1445793431100</v>
+      </c>
+      <c r="R97">
+        <v>1499404710200</v>
+      </c>
+      <c r="S97">
+        <v>105359400</v>
+      </c>
+      <c r="T97">
+        <v>105727700</v>
+      </c>
+      <c r="U97">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V97">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W97">
+        <v>40179334416</v>
+      </c>
+      <c r="X97">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y97">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z97">
+        <v>1283142</v>
+      </c>
+      <c r="AA97">
+        <v>6777.9</v>
+      </c>
+      <c r="AB97">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC97">
+        <v>71.6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-56517150200</v>
       </c>
+      <c r="Q98">
+        <v>1462309629600</v>
+      </c>
+      <c r="R98">
+        <v>1518826779800</v>
+      </c>
+      <c r="S98">
+        <v>106475600</v>
+      </c>
+      <c r="T98">
+        <v>106996900</v>
+      </c>
+      <c r="U98">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V98">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W98">
+        <v>40179334416</v>
+      </c>
+      <c r="X98">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y98">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z98">
+        <v>1283142</v>
+      </c>
+      <c r="AA98">
+        <v>6777.9</v>
+      </c>
+      <c r="AB98">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC98">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-63919028800</v>
       </c>
+      <c r="Q99">
+        <v>1472794559900</v>
+      </c>
+      <c r="R99">
+        <v>1536713588700</v>
+      </c>
+      <c r="S99">
+        <v>107197400</v>
+      </c>
+      <c r="T99">
+        <v>108201500</v>
+      </c>
+      <c r="U99">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V99">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W99">
+        <v>40179334416</v>
+      </c>
+      <c r="X99">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y99">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z99">
+        <v>1283142</v>
+      </c>
+      <c r="AA99">
+        <v>6777.9</v>
+      </c>
+      <c r="AB99">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC99">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-69321919100</v>
       </c>
+      <c r="Q100">
+        <v>1483400911000</v>
+      </c>
+      <c r="R100">
+        <v>1552722830100</v>
+      </c>
+      <c r="S100">
+        <v>107906300</v>
+      </c>
+      <c r="T100">
+        <v>109186000</v>
+      </c>
+      <c r="U100">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V100">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W100">
+        <v>40179334416</v>
+      </c>
+      <c r="X100">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y100">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z100">
+        <v>1283142</v>
+      </c>
+      <c r="AA100">
+        <v>6777.9</v>
+      </c>
+      <c r="AB100">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC100">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-79092298700</v>
       </c>
+      <c r="Q101">
+        <v>1493231058700</v>
+      </c>
+      <c r="R101">
+        <v>1572323357400</v>
+      </c>
+      <c r="S101">
+        <v>108466800</v>
+      </c>
+      <c r="T101">
+        <v>110501100</v>
+      </c>
+      <c r="U101">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V101">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W101">
+        <v>40179334416</v>
+      </c>
+      <c r="X101">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y101">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z101">
+        <v>1283142</v>
+      </c>
+      <c r="AA101">
+        <v>6777.9</v>
+      </c>
+      <c r="AB101">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC101">
+        <v>44.2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-92714342000</v>
       </c>
+      <c r="Q102">
+        <v>1504382380000</v>
+      </c>
+      <c r="R102">
+        <v>1597096722000</v>
+      </c>
+      <c r="S102">
+        <v>109270900</v>
+      </c>
+      <c r="T102">
+        <v>112102500</v>
+      </c>
+      <c r="U102">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V102">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W102">
+        <v>40179334416</v>
+      </c>
+      <c r="X102">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y102">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z102">
+        <v>1283142</v>
+      </c>
+      <c r="AA102">
+        <v>6777.9</v>
+      </c>
+      <c r="AB102">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC102">
+        <v>61.6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-83398382200</v>
       </c>
+      <c r="Q103">
+        <v>1526229716300</v>
+      </c>
+      <c r="R103">
+        <v>1609628098500</v>
+      </c>
+      <c r="S103">
+        <v>110763500</v>
+      </c>
+      <c r="T103">
+        <v>113028400</v>
+      </c>
+      <c r="U103">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V103">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W103">
+        <v>40179334416</v>
+      </c>
+      <c r="X103">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y103">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z103">
+        <v>1283142</v>
+      </c>
+      <c r="AA103">
+        <v>6777.9</v>
+      </c>
+      <c r="AB103">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC103">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-81611655300</v>
       </c>
+      <c r="Q104">
+        <v>1543495655700</v>
+      </c>
+      <c r="R104">
+        <v>1625107311000</v>
+      </c>
+      <c r="S104">
+        <v>111995500</v>
+      </c>
+      <c r="T104">
+        <v>113963200</v>
+      </c>
+      <c r="U104">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V104">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W104">
+        <v>40179334416</v>
+      </c>
+      <c r="X104">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y104">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z104">
+        <v>1283142</v>
+      </c>
+      <c r="AA104">
+        <v>6777.9</v>
+      </c>
+      <c r="AB104">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC104">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-82005773600</v>
       </c>
+      <c r="Q105">
+        <v>1561930583400</v>
+      </c>
+      <c r="R105">
+        <v>1643936357000</v>
+      </c>
+      <c r="S105">
+        <v>113114100</v>
+      </c>
+      <c r="T105">
+        <v>115215500</v>
+      </c>
+      <c r="U105">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V105">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W105">
+        <v>40179334416</v>
+      </c>
+      <c r="X105">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y105">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z105">
+        <v>1283142</v>
+      </c>
+      <c r="AA105">
+        <v>6777.9</v>
+      </c>
+      <c r="AB105">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC105">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-91747447100</v>
       </c>
+      <c r="Q106">
+        <v>1575865167400</v>
+      </c>
+      <c r="R106">
+        <v>1667612614500</v>
+      </c>
+      <c r="S106">
+        <v>114024800</v>
+      </c>
+      <c r="T106">
+        <v>116645200</v>
+      </c>
+      <c r="U106">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V106">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W106">
+        <v>40179334416</v>
+      </c>
+      <c r="X106">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y106">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z106">
+        <v>1283142</v>
+      </c>
+      <c r="AA106">
+        <v>6777.9</v>
+      </c>
+      <c r="AB106">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC106">
+        <v>44.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-83654023000</v>
       </c>
+      <c r="Q107">
+        <v>1598682574700</v>
+      </c>
+      <c r="R107">
+        <v>1682336597700</v>
+      </c>
+      <c r="S107">
+        <v>115458000</v>
+      </c>
+      <c r="T107">
+        <v>117588900</v>
+      </c>
+      <c r="U107">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V107">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W107">
+        <v>40179334416</v>
+      </c>
+      <c r="X107">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y107">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z107">
+        <v>1283142</v>
+      </c>
+      <c r="AA107">
+        <v>6777.9</v>
+      </c>
+      <c r="AB107">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC107">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-68114135400</v>
       </c>
+      <c r="Q108">
+        <v>1625230788800</v>
+      </c>
+      <c r="R108">
+        <v>1693344924200</v>
+      </c>
+      <c r="S108">
+        <v>117107000</v>
+      </c>
+      <c r="T108">
+        <v>118564900</v>
+      </c>
+      <c r="U108">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V108">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W108">
+        <v>40179334416</v>
+      </c>
+      <c r="X108">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y108">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z108">
+        <v>1283142</v>
+      </c>
+      <c r="AA108">
+        <v>6777.9</v>
+      </c>
+      <c r="AB108">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC108">
+        <v>70.3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-51991858500</v>
       </c>
+      <c r="Q109">
+        <v>1656170797500</v>
+      </c>
+      <c r="R109">
+        <v>1708162656000</v>
+      </c>
+      <c r="S109">
+        <v>119052800</v>
+      </c>
+      <c r="T109">
+        <v>119479800</v>
+      </c>
+      <c r="U109">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V109">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W109">
+        <v>40179334416</v>
+      </c>
+      <c r="X109">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y109">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z109">
+        <v>1283142</v>
+      </c>
+      <c r="AA109">
+        <v>6777.9</v>
+      </c>
+      <c r="AB109">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC109">
+        <v>72.9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-25328413400</v>
       </c>
+      <c r="Q110">
+        <v>1697884580700</v>
+      </c>
+      <c r="R110">
+        <v>1723212994100</v>
+      </c>
+      <c r="S110">
+        <v>121845300</v>
+      </c>
+      <c r="T110">
+        <v>120478800</v>
+      </c>
+      <c r="U110">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V110">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W110">
+        <v>40179334416</v>
+      </c>
+      <c r="X110">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y110">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z110">
+        <v>1283142</v>
+      </c>
+      <c r="AA110">
+        <v>6777.9</v>
+      </c>
+      <c r="AB110">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC110">
+        <v>120.6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-704912400</v>
       </c>
+      <c r="Q111">
+        <v>1738861446500</v>
+      </c>
+      <c r="R111">
+        <v>1739566358900</v>
+      </c>
+      <c r="S111">
+        <v>124687200</v>
+      </c>
+      <c r="T111">
+        <v>121500600</v>
+      </c>
+      <c r="U111">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V111">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W111">
+        <v>40179334416</v>
+      </c>
+      <c r="X111">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y111">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z111">
+        <v>1283142</v>
+      </c>
+      <c r="AA111">
+        <v>6777.9</v>
+      </c>
+      <c r="AB111">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC111">
+        <v>111.4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>14076791000</v>
       </c>
+      <c r="Q112">
+        <v>1768873699600</v>
+      </c>
+      <c r="R112">
+        <v>1754796908600</v>
+      </c>
+      <c r="S112">
+        <v>126562800</v>
+      </c>
+      <c r="T112">
+        <v>122455500</v>
+      </c>
+      <c r="U112">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V112">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W112">
+        <v>40179334416</v>
+      </c>
+      <c r="X112">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y112">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z112">
+        <v>1283142</v>
+      </c>
+      <c r="AA112">
+        <v>6777.9</v>
+      </c>
+      <c r="AB112">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC112">
+        <v>66.9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>10911685700</v>
       </c>
+      <c r="Q113">
+        <v>1794988798800</v>
+      </c>
+      <c r="R113">
+        <v>1784077113100</v>
+      </c>
+      <c r="S113">
+        <v>128377300</v>
+      </c>
+      <c r="T113">
+        <v>124431700</v>
+      </c>
+      <c r="U113">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V113">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W113">
+        <v>40179334416</v>
+      </c>
+      <c r="X113">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y113">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z113">
+        <v>1283142</v>
+      </c>
+      <c r="AA113">
+        <v>6777.9</v>
+      </c>
+      <c r="AB113">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC113">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-7609275700</v>
       </c>
+      <c r="Q114">
+        <v>1809624359000</v>
+      </c>
+      <c r="R114">
+        <v>1817233634700</v>
+      </c>
+      <c r="S114">
+        <v>129363800</v>
+      </c>
+      <c r="T114">
+        <v>126722000</v>
+      </c>
+      <c r="U114">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V114">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W114">
+        <v>40179334416</v>
+      </c>
+      <c r="X114">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y114">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z114">
+        <v>1283142</v>
+      </c>
+      <c r="AA114">
+        <v>6777.9</v>
+      </c>
+      <c r="AB114">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC114">
+        <v>83.8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-34210139900</v>
       </c>
+      <c r="Q115">
+        <v>1836659929100</v>
+      </c>
+      <c r="R115">
+        <v>1870870069000</v>
+      </c>
+      <c r="S115">
+        <v>130824300</v>
+      </c>
+      <c r="T115">
+        <v>130298900</v>
+      </c>
+      <c r="U115">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V115">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W115">
+        <v>40179334416</v>
+      </c>
+      <c r="X115">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y115">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z115">
+        <v>1283142</v>
+      </c>
+      <c r="AA115">
+        <v>6777.9</v>
+      </c>
+      <c r="AB115">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC115">
+        <v>120.3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>18680931300</v>
       </c>
+      <c r="Q116">
+        <v>1908986349700</v>
+      </c>
+      <c r="R116">
+        <v>1890305418400</v>
+      </c>
+      <c r="S116">
+        <v>134433500</v>
+      </c>
+      <c r="T116">
+        <v>131373600</v>
+      </c>
+      <c r="U116">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V116">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W116">
+        <v>40179334416</v>
+      </c>
+      <c r="X116">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y116">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z116">
+        <v>1283142</v>
+      </c>
+      <c r="AA116">
+        <v>6777.9</v>
+      </c>
+      <c r="AB116">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC116">
+        <v>239.3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>76699093400</v>
       </c>
+      <c r="Q117">
+        <v>1984388331800</v>
+      </c>
+      <c r="R117">
+        <v>1907689238400</v>
+      </c>
+      <c r="S117">
+        <v>139098400</v>
+      </c>
+      <c r="T117">
+        <v>132330600</v>
+      </c>
+      <c r="U117">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V117">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W117">
+        <v>40179334416</v>
+      </c>
+      <c r="X117">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y117">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z117">
+        <v>1283142</v>
+      </c>
+      <c r="AA117">
+        <v>6777.9</v>
+      </c>
+      <c r="AB117">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC117">
+        <v>262.5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>126604363400</v>
       </c>
+      <c r="Q118">
+        <v>2055578078000</v>
+      </c>
+      <c r="R118">
+        <v>1928973714600</v>
+      </c>
+      <c r="S118">
+        <v>144041000</v>
+      </c>
+      <c r="T118">
+        <v>133569200</v>
+      </c>
+      <c r="U118">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V118">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W118">
+        <v>40179334416</v>
+      </c>
+      <c r="X118">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y118">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z118">
+        <v>1283142</v>
+      </c>
+      <c r="AA118">
+        <v>6777.9</v>
+      </c>
+      <c r="AB118">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC118">
+        <v>225.8</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>143112459100</v>
       </c>
+      <c r="Q119">
+        <v>2109412378300</v>
+      </c>
+      <c r="R119">
+        <v>1966299919200</v>
+      </c>
+      <c r="S119">
+        <v>147455000</v>
+      </c>
+      <c r="T119">
+        <v>135803700</v>
+      </c>
+      <c r="U119">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V119">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W119">
+        <v>40179334416</v>
+      </c>
+      <c r="X119">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y119">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z119">
+        <v>1283142</v>
+      </c>
+      <c r="AA119">
+        <v>6777.9</v>
+      </c>
+      <c r="AB119">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC119">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>143555807400</v>
       </c>
+      <c r="Q120">
+        <v>2157406655200</v>
+      </c>
+      <c r="R120">
+        <v>2013850847800</v>
+      </c>
+      <c r="S120">
+        <v>150256900</v>
+      </c>
+      <c r="T120">
+        <v>138965000</v>
+      </c>
+      <c r="U120">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V120">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W120">
+        <v>40179334416</v>
+      </c>
+      <c r="X120">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y120">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z120">
+        <v>1283142</v>
+      </c>
+      <c r="AA120">
+        <v>6777.9</v>
+      </c>
+      <c r="AB120">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC120">
+        <v>2</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>153012346300</v>
       </c>
+      <c r="Q121">
+        <v>2208019854100</v>
+      </c>
+      <c r="R121">
+        <v>2055007507800</v>
+      </c>
+      <c r="S121">
+        <v>152893100</v>
+      </c>
+      <c r="T121">
+        <v>141527100</v>
+      </c>
+      <c r="U121">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V121">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W121">
+        <v>40179334416</v>
+      </c>
+      <c r="X121">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y121">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z121">
+        <v>1283142</v>
+      </c>
+      <c r="AA121">
+        <v>6777.9</v>
+      </c>
+      <c r="AB121">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC121">
+        <v>42.8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>155737701900</v>
       </c>
+      <c r="Q122">
+        <v>2252135717300</v>
+      </c>
+      <c r="R122">
+        <v>2096398015400</v>
+      </c>
+      <c r="S122">
+        <v>155180400</v>
+      </c>
+      <c r="T122">
+        <v>144195900</v>
+      </c>
+      <c r="U122">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V122">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W122">
+        <v>40179334416</v>
+      </c>
+      <c r="X122">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y122">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z122">
+        <v>1283142</v>
+      </c>
+      <c r="AA122">
+        <v>6777.9</v>
+      </c>
+      <c r="AB122">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC122">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>147536080900</v>
       </c>
+      <c r="Q123">
+        <v>2302103891000</v>
+      </c>
+      <c r="R123">
+        <v>2154567810100</v>
+      </c>
+      <c r="S123">
+        <v>158059600</v>
+      </c>
+      <c r="T123">
+        <v>147993000</v>
+      </c>
+      <c r="U123">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V123">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W123">
+        <v>40179334416</v>
+      </c>
+      <c r="X123">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y123">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z123">
+        <v>1283142</v>
+      </c>
+      <c r="AA123">
+        <v>6777.9</v>
+      </c>
+      <c r="AB123">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC123">
+        <v>37.1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,6 +11398,45 @@
       <c r="P124">
         <v>64683803100</v>
       </c>
+      <c r="Q124">
+        <v>2341343842200</v>
+      </c>
+      <c r="R124">
+        <v>2276660039100</v>
+      </c>
+      <c r="S124">
+        <v>160761000</v>
+      </c>
+      <c r="T124">
+        <v>156613600</v>
+      </c>
+      <c r="U124">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V124">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W124">
+        <v>40179334416</v>
+      </c>
+      <c r="X124">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y124">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z124">
+        <v>1283142</v>
+      </c>
+      <c r="AA124">
+        <v>6777.9</v>
+      </c>
+      <c r="AB124">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC124">
+        <v>374.8</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6651,6 +11487,45 @@
       <c r="P125">
         <v>64258051100</v>
       </c>
+      <c r="Q125">
+        <v>2341595009200</v>
+      </c>
+      <c r="R125">
+        <v>2277336958100</v>
+      </c>
+      <c r="S125">
+        <v>160784800</v>
+      </c>
+      <c r="T125">
+        <v>156642200</v>
+      </c>
+      <c r="U125">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V125">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W125">
+        <v>40179334416</v>
+      </c>
+      <c r="X125">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y125">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z125">
+        <v>1283142</v>
+      </c>
+      <c r="AA125">
+        <v>6777.9</v>
+      </c>
+      <c r="AB125">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC125">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -6701,6 +11576,45 @@
       <c r="P126">
         <v>64242841100</v>
       </c>
+      <c r="Q126">
+        <v>2341595009200</v>
+      </c>
+      <c r="R126">
+        <v>2277352168100</v>
+      </c>
+      <c r="S126">
+        <v>160784800</v>
+      </c>
+      <c r="T126">
+        <v>156643500</v>
+      </c>
+      <c r="U126">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V126">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W126">
+        <v>40179334416</v>
+      </c>
+      <c r="X126">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y126">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z126">
+        <v>1283142</v>
+      </c>
+      <c r="AA126">
+        <v>6777.9</v>
+      </c>
+      <c r="AB126">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC126">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -6751,6 +11665,45 @@
       <c r="P127">
         <v>64254541100</v>
       </c>
+      <c r="Q127">
+        <v>2341606709200</v>
+      </c>
+      <c r="R127">
+        <v>2277352168100</v>
+      </c>
+      <c r="S127">
+        <v>160785800</v>
+      </c>
+      <c r="T127">
+        <v>156643500</v>
+      </c>
+      <c r="U127">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V127">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W127">
+        <v>40179334416</v>
+      </c>
+      <c r="X127">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y127">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z127">
+        <v>1283142</v>
+      </c>
+      <c r="AA127">
+        <v>6777.9</v>
+      </c>
+      <c r="AB127">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC127">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -6801,6 +11754,45 @@
       <c r="P128">
         <v>64258051100</v>
       </c>
+      <c r="Q128">
+        <v>2341610219200</v>
+      </c>
+      <c r="R128">
+        <v>2277352168100</v>
+      </c>
+      <c r="S128">
+        <v>160786100</v>
+      </c>
+      <c r="T128">
+        <v>156643500</v>
+      </c>
+      <c r="U128">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V128">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W128">
+        <v>40179334416</v>
+      </c>
+      <c r="X128">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y128">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z128">
+        <v>1283142</v>
+      </c>
+      <c r="AA128">
+        <v>6777.9</v>
+      </c>
+      <c r="AB128">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC128">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -6851,6 +11843,45 @@
       <c r="P129">
         <v>28963303000</v>
       </c>
+      <c r="Q129">
+        <v>2509389187600</v>
+      </c>
+      <c r="R129">
+        <v>2480425884600</v>
+      </c>
+      <c r="S129">
+        <v>168978500</v>
+      </c>
+      <c r="T129">
+        <v>168090000</v>
+      </c>
+      <c r="U129">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V129">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W129">
+        <v>40179334416</v>
+      </c>
+      <c r="X129">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y129">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z129">
+        <v>1283142</v>
+      </c>
+      <c r="AA129">
+        <v>6777.9</v>
+      </c>
+      <c r="AB129">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC129">
+        <v>159.7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -6901,6 +11932,45 @@
       <c r="P130">
         <v>28963303000</v>
       </c>
+      <c r="Q130">
+        <v>2509389187600</v>
+      </c>
+      <c r="R130">
+        <v>2480425884600</v>
+      </c>
+      <c r="S130">
+        <v>168978500</v>
+      </c>
+      <c r="T130">
+        <v>168090000</v>
+      </c>
+      <c r="U130">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V130">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W130">
+        <v>40179334416</v>
+      </c>
+      <c r="X130">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y130">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z130">
+        <v>1283142</v>
+      </c>
+      <c r="AA130">
+        <v>6777.9</v>
+      </c>
+      <c r="AB130">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -6951,6 +12021,45 @@
       <c r="P131">
         <v>28973833000</v>
       </c>
+      <c r="Q131">
+        <v>2509400887600</v>
+      </c>
+      <c r="R131">
+        <v>2480427054600</v>
+      </c>
+      <c r="S131">
+        <v>168979500</v>
+      </c>
+      <c r="T131">
+        <v>168090100</v>
+      </c>
+      <c r="U131">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V131">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W131">
+        <v>40179334416</v>
+      </c>
+      <c r="X131">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y131">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z131">
+        <v>1283142</v>
+      </c>
+      <c r="AA131">
+        <v>6777.9</v>
+      </c>
+      <c r="AB131">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -7001,10 +12110,49 @@
       <c r="P132">
         <v>28956283000</v>
       </c>
+      <c r="Q132">
+        <v>2509400887600</v>
+      </c>
+      <c r="R132">
+        <v>2480444604600</v>
+      </c>
+      <c r="S132">
+        <v>168979500</v>
+      </c>
+      <c r="T132">
+        <v>168091600</v>
+      </c>
+      <c r="U132">
+        <v>19155731966.4</v>
+      </c>
+      <c r="V132">
+        <v>18934691638.2</v>
+      </c>
+      <c r="W132">
+        <v>40179334416</v>
+      </c>
+      <c r="X132">
+        <v>2720209.2</v>
+      </c>
+      <c r="Y132">
+        <v>1289919.8</v>
+      </c>
+      <c r="Z132">
+        <v>1283142</v>
+      </c>
+      <c r="AA132">
+        <v>6777.9</v>
+      </c>
+      <c r="AB132">
+        <v>221040328.2</v>
+      </c>
+      <c r="AC132">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P132"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC132"/>
   </ignoredErrors>
 </worksheet>
 </file>